--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3672.4590742685</v>
+        <v>3699.634477039818</v>
       </c>
       <c r="C2" t="n">
-        <v>4668.107872497474</v>
+        <v>4683.312349006555</v>
       </c>
       <c r="D2" t="n">
-        <v>69.75875526845016</v>
+        <v>69.75150647987866</v>
       </c>
       <c r="E2" t="n">
-        <v>9.693702182217539</v>
+        <v>9.717228828302538</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3672.4590742685</v>
+        <v>3699.634477039818</v>
       </c>
       <c r="C3" t="n">
-        <v>4668.107872497474</v>
+        <v>4683.312349006555</v>
       </c>
       <c r="D3" t="n">
-        <v>69.75875526845016</v>
+        <v>69.75150647987866</v>
       </c>
       <c r="E3" t="n">
-        <v>9.693702182217539</v>
+        <v>9.717228828302538</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3672.4590742685</v>
+        <v>3699.634477039818</v>
       </c>
       <c r="C4" t="n">
-        <v>4668.107872497474</v>
+        <v>4683.312349006555</v>
       </c>
       <c r="D4" t="n">
-        <v>69.75875526845016</v>
+        <v>69.75150647987866</v>
       </c>
       <c r="E4" t="n">
-        <v>9.693702182217539</v>
+        <v>9.717228828302538</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3672.4590742685</v>
+        <v>3699.634477039818</v>
       </c>
       <c r="C5" t="n">
-        <v>4668.107872497474</v>
+        <v>4683.312349006555</v>
       </c>
       <c r="D5" t="n">
-        <v>69.75875526845016</v>
+        <v>69.75150647987866</v>
       </c>
       <c r="E5" t="n">
-        <v>9.693702182217539</v>
+        <v>9.717228828302538</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3672.4590742685</v>
+        <v>3699.634477039818</v>
       </c>
       <c r="C6" t="n">
-        <v>4668.107872497474</v>
+        <v>4683.312349006555</v>
       </c>
       <c r="D6" t="n">
-        <v>69.75875526845016</v>
+        <v>69.75150647987866</v>
       </c>
       <c r="E6" t="n">
-        <v>9.693702182217539</v>
+        <v>9.717228828302538</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3672.4590742685</v>
+        <v>3699.634477039818</v>
       </c>
       <c r="C7" t="n">
-        <v>4668.107872497474</v>
+        <v>4683.312349006555</v>
       </c>
       <c r="D7" t="n">
-        <v>69.75875526845016</v>
+        <v>69.75150647987866</v>
       </c>
       <c r="E7" t="n">
-        <v>9.693702182217539</v>
+        <v>9.717228828302538</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3672.4590742685</v>
+        <v>3699.634477039818</v>
       </c>
       <c r="C8" t="n">
-        <v>4668.107872497474</v>
+        <v>4683.312349006555</v>
       </c>
       <c r="D8" t="n">
-        <v>69.75875526845016</v>
+        <v>69.75150647987866</v>
       </c>
       <c r="E8" t="n">
-        <v>9.693702182217539</v>
+        <v>9.717228828302538</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E9" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E10" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E11" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E12" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E13" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E14" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E15" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E16" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3706.869286702191</v>
+        <v>3848.476427333053</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>69.98045491304978</v>
+        <v>70.49633779843364</v>
       </c>
       <c r="E17" t="n">
-        <v>9.828318353825248</v>
+        <v>9.79296529651158</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3705.53497069072</v>
+        <v>3642.988905053814</v>
       </c>
       <c r="C18" t="n">
-        <v>4697.178955160569</v>
+        <v>4724.252721510604</v>
       </c>
       <c r="D18" t="n">
-        <v>69.90154380505183</v>
+        <v>70.74787259217884</v>
       </c>
       <c r="E18" t="n">
-        <v>9.721379859560756</v>
+        <v>9.760740092580741</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3705.53497069072</v>
+        <v>3642.988905053814</v>
       </c>
       <c r="C19" t="n">
-        <v>4697.178955160569</v>
+        <v>4724.252721510604</v>
       </c>
       <c r="D19" t="n">
-        <v>69.90154380505183</v>
+        <v>70.74787259217884</v>
       </c>
       <c r="E19" t="n">
-        <v>9.721379859560756</v>
+        <v>9.760740092580741</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3705.53497069072</v>
+        <v>3642.988905053814</v>
       </c>
       <c r="C20" t="n">
-        <v>4697.178955160569</v>
+        <v>4724.252721510604</v>
       </c>
       <c r="D20" t="n">
-        <v>69.90154380505183</v>
+        <v>70.74787259217884</v>
       </c>
       <c r="E20" t="n">
-        <v>9.721379859560756</v>
+        <v>9.760740092580741</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3705.53497069072</v>
+        <v>3642.988905053814</v>
       </c>
       <c r="C21" t="n">
-        <v>4697.178955160569</v>
+        <v>4724.252721510604</v>
       </c>
       <c r="D21" t="n">
-        <v>69.90154380505183</v>
+        <v>70.74787259217884</v>
       </c>
       <c r="E21" t="n">
-        <v>9.721379859560756</v>
+        <v>9.760740092580741</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3705.53497069072</v>
+        <v>3642.988905053814</v>
       </c>
       <c r="C22" t="n">
-        <v>4697.178955160569</v>
+        <v>4724.252721510604</v>
       </c>
       <c r="D22" t="n">
-        <v>69.90154380505183</v>
+        <v>70.74787259217884</v>
       </c>
       <c r="E22" t="n">
-        <v>9.721379859560756</v>
+        <v>9.760740092580741</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3705.53497069072</v>
+        <v>3642.988905053814</v>
       </c>
       <c r="C23" t="n">
-        <v>4697.178955160569</v>
+        <v>4724.252721510604</v>
       </c>
       <c r="D23" t="n">
-        <v>69.90154380505183</v>
+        <v>70.74787259217884</v>
       </c>
       <c r="E23" t="n">
-        <v>9.721379859560756</v>
+        <v>9.760740092580741</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3705.53497069072</v>
+        <v>3642.988905053814</v>
       </c>
       <c r="C24" t="n">
-        <v>4697.178955160569</v>
+        <v>4724.252721510604</v>
       </c>
       <c r="D24" t="n">
-        <v>69.90154380505183</v>
+        <v>70.74787259217884</v>
       </c>
       <c r="E24" t="n">
-        <v>9.721379859560756</v>
+        <v>9.760740092580741</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3705.53497069072</v>
+        <v>3642.988905053814</v>
       </c>
       <c r="C25" t="n">
-        <v>4697.178955160569</v>
+        <v>4724.252721510604</v>
       </c>
       <c r="D25" t="n">
-        <v>69.90154380505183</v>
+        <v>70.74787259217884</v>
       </c>
       <c r="E25" t="n">
-        <v>9.721379859560756</v>
+        <v>9.760740092580741</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E34" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E35" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E36" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E37" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E38" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E39" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E40" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E41" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3681.91121452969</v>
+        <v>3462.507195717159</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>69.15577400327045</v>
+        <v>69.21284651024895</v>
       </c>
       <c r="E42" t="n">
-        <v>9.833979870430337</v>
+        <v>9.730033811618739</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3811.135959296558</v>
+        <v>3672.204929984389</v>
       </c>
       <c r="C43" t="n">
-        <v>4809.253045929886</v>
+        <v>4779.961649731749</v>
       </c>
       <c r="D43" t="n">
-        <v>70.57529278973109</v>
+        <v>69.88636144334087</v>
       </c>
       <c r="E43" t="n">
-        <v>9.817229588408786</v>
+        <v>9.707779621514174</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3811.135959296558</v>
+        <v>3672.204929984389</v>
       </c>
       <c r="C44" t="n">
-        <v>4809.253045929886</v>
+        <v>4779.961649731749</v>
       </c>
       <c r="D44" t="n">
-        <v>70.57529278973109</v>
+        <v>69.88636144334087</v>
       </c>
       <c r="E44" t="n">
-        <v>9.817229588408786</v>
+        <v>9.707779621514174</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3811.135959296558</v>
+        <v>3672.204929984389</v>
       </c>
       <c r="C45" t="n">
-        <v>4809.253045929886</v>
+        <v>4779.961649731749</v>
       </c>
       <c r="D45" t="n">
-        <v>70.57529278973109</v>
+        <v>69.88636144334087</v>
       </c>
       <c r="E45" t="n">
-        <v>9.817229588408786</v>
+        <v>9.707779621514174</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3811.135959296558</v>
+        <v>3672.204929984389</v>
       </c>
       <c r="C46" t="n">
-        <v>4809.253045929886</v>
+        <v>4779.961649731749</v>
       </c>
       <c r="D46" t="n">
-        <v>70.57529278973109</v>
+        <v>69.88636144334087</v>
       </c>
       <c r="E46" t="n">
-        <v>9.817229588408786</v>
+        <v>9.707779621514174</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3811.135959296558</v>
+        <v>3672.204929984389</v>
       </c>
       <c r="C47" t="n">
-        <v>4809.253045929886</v>
+        <v>4779.961649731749</v>
       </c>
       <c r="D47" t="n">
-        <v>70.57529278973109</v>
+        <v>69.88636144334087</v>
       </c>
       <c r="E47" t="n">
-        <v>9.817229588408786</v>
+        <v>9.707779621514174</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3811.135959296558</v>
+        <v>3672.204929984389</v>
       </c>
       <c r="C48" t="n">
-        <v>4809.253045929886</v>
+        <v>4779.961649731749</v>
       </c>
       <c r="D48" t="n">
-        <v>70.57529278973109</v>
+        <v>69.88636144334087</v>
       </c>
       <c r="E48" t="n">
-        <v>9.817229588408786</v>
+        <v>9.707779621514174</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3811.135959296558</v>
+        <v>3672.204929984389</v>
       </c>
       <c r="C49" t="n">
-        <v>4809.253045929886</v>
+        <v>4779.961649731749</v>
       </c>
       <c r="D49" t="n">
-        <v>70.57529278973109</v>
+        <v>69.88636144334087</v>
       </c>
       <c r="E49" t="n">
-        <v>9.817229588408786</v>
+        <v>9.707779621514174</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3811.135959296558</v>
+        <v>3672.204929984389</v>
       </c>
       <c r="C50" t="n">
-        <v>4809.253045929886</v>
+        <v>4779.961649731749</v>
       </c>
       <c r="D50" t="n">
-        <v>70.57529278973109</v>
+        <v>69.88636144334087</v>
       </c>
       <c r="E50" t="n">
-        <v>9.817229588408786</v>
+        <v>9.707779621514174</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3568.860024136387</v>
+        <v>3705.672329909756</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>69.70122186608602</v>
+        <v>69.51185874711732</v>
       </c>
       <c r="E59" t="n">
-        <v>9.714308785099803</v>
+        <v>9.673975590162017</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3568.860024136387</v>
+        <v>3705.672329909756</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>69.70122186608602</v>
+        <v>69.51185874711732</v>
       </c>
       <c r="E60" t="n">
-        <v>9.714308785099803</v>
+        <v>9.673975590162017</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3568.860024136387</v>
+        <v>3705.672329909756</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>69.70122186608602</v>
+        <v>69.51185874711732</v>
       </c>
       <c r="E61" t="n">
-        <v>9.714308785099803</v>
+        <v>9.673975590162017</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3568.860024136387</v>
+        <v>3705.672329909756</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>69.70122186608602</v>
+        <v>69.51185874711732</v>
       </c>
       <c r="E62" t="n">
-        <v>9.714308785099803</v>
+        <v>9.673975590162017</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3568.860024136387</v>
+        <v>3705.672329909756</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>69.70122186608602</v>
+        <v>69.51185874711732</v>
       </c>
       <c r="E63" t="n">
-        <v>9.714308785099803</v>
+        <v>9.673975590162017</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3568.860024136387</v>
+        <v>3705.672329909756</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>69.70122186608602</v>
+        <v>69.51185874711732</v>
       </c>
       <c r="E64" t="n">
-        <v>9.714308785099803</v>
+        <v>9.673975590162017</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3568.860024136387</v>
+        <v>3705.672329909756</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>69.70122186608602</v>
+        <v>69.51185874711732</v>
       </c>
       <c r="E65" t="n">
-        <v>9.714308785099803</v>
+        <v>9.673975590162017</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3568.860024136387</v>
+        <v>3705.672329909756</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>69.70122186608602</v>
+        <v>69.51185874711732</v>
       </c>
       <c r="E66" t="n">
-        <v>9.714308785099803</v>
+        <v>9.673975590162017</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C67" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D67" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E67" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C68" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D68" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E68" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C69" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D69" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E69" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C70" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D70" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E70" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C71" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D71" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E71" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C72" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D72" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E72" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C73" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D73" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E73" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C74" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D74" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E74" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3636.948269915801</v>
+        <v>3731.679748232989</v>
       </c>
       <c r="C75" t="n">
-        <v>4661.903248644443</v>
+        <v>4775.263171618259</v>
       </c>
       <c r="D75" t="n">
-        <v>70.05959975978575</v>
+        <v>69.81122607692042</v>
       </c>
       <c r="E75" t="n">
-        <v>9.760201738379378</v>
+        <v>9.71255120666787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E76" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E77" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E78" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E79" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E80" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E81" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E82" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E83" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3567.895583736688</v>
+        <v>3445.054523712379</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>69.77699907182468</v>
+        <v>70.21974441299335</v>
       </c>
       <c r="E84" t="n">
-        <v>9.735267737729112</v>
+        <v>9.782813047038687</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3458.666070865302</v>
+        <v>3641.804299818009</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3285.342663917053</v>
+        <v>3623.339833521622</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>69.77878460913331</v>
+        <v>70.16017503879476</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C2" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D2" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E2" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C3" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D3" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E3" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C4" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D4" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E4" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C5" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D5" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E5" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C6" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D6" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E6" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C7" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D7" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E7" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C8" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D8" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E8" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C9" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D9" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E9" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4668.602218019507</v>
+        <v>4806.281299071733</v>
       </c>
       <c r="C10" t="n">
-        <v>4766.307057301017</v>
+        <v>4690.126915804887</v>
       </c>
       <c r="D10" t="n">
-        <v>70.2513375929443</v>
+        <v>69.58921779382194</v>
       </c>
       <c r="E10" t="n">
-        <v>9.791357223244985</v>
+        <v>9.782440898245021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4595.655873436491</v>
+        <v>4804.469531644776</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4595.655873436491</v>
+        <v>4804.469531644776</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4595.655873436491</v>
+        <v>4804.469531644776</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4595.655873436491</v>
+        <v>4804.469531644776</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4595.655873436491</v>
+        <v>4804.469531644776</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4595.655873436491</v>
+        <v>4804.469531644776</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4595.655873436491</v>
+        <v>4804.469531644776</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4595.655873436491</v>
+        <v>4804.469531644776</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4707.500501216457</v>
+        <v>4766.336590929663</v>
       </c>
       <c r="C19" t="n">
-        <v>4676.746169948537</v>
+        <v>4712.650948320101</v>
       </c>
       <c r="D19" t="n">
-        <v>69.41412078398021</v>
+        <v>69.33054465236977</v>
       </c>
       <c r="E19" t="n">
-        <v>9.738225014028485</v>
+        <v>9.741082969647612</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4707.500501216457</v>
+        <v>4766.336590929663</v>
       </c>
       <c r="C20" t="n">
-        <v>4676.746169948537</v>
+        <v>4712.650948320101</v>
       </c>
       <c r="D20" t="n">
-        <v>69.41412078398021</v>
+        <v>69.33054465236977</v>
       </c>
       <c r="E20" t="n">
-        <v>9.738225014028485</v>
+        <v>9.741082969647612</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4707.500501216457</v>
+        <v>4766.336590929663</v>
       </c>
       <c r="C21" t="n">
-        <v>4676.746169948537</v>
+        <v>4712.650948320101</v>
       </c>
       <c r="D21" t="n">
-        <v>69.41412078398021</v>
+        <v>69.33054465236977</v>
       </c>
       <c r="E21" t="n">
-        <v>9.738225014028485</v>
+        <v>9.741082969647612</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4707.500501216457</v>
+        <v>4766.336590929663</v>
       </c>
       <c r="C22" t="n">
-        <v>4676.746169948537</v>
+        <v>4712.650948320101</v>
       </c>
       <c r="D22" t="n">
-        <v>69.41412078398021</v>
+        <v>69.33054465236977</v>
       </c>
       <c r="E22" t="n">
-        <v>9.738225014028485</v>
+        <v>9.741082969647612</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4707.500501216457</v>
+        <v>4766.336590929663</v>
       </c>
       <c r="C23" t="n">
-        <v>4676.746169948537</v>
+        <v>4712.650948320101</v>
       </c>
       <c r="D23" t="n">
-        <v>69.41412078398021</v>
+        <v>69.33054465236977</v>
       </c>
       <c r="E23" t="n">
-        <v>9.738225014028485</v>
+        <v>9.741082969647612</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4707.500501216457</v>
+        <v>4766.336590929663</v>
       </c>
       <c r="C24" t="n">
-        <v>4676.746169948537</v>
+        <v>4712.650948320101</v>
       </c>
       <c r="D24" t="n">
-        <v>69.41412078398021</v>
+        <v>69.33054465236977</v>
       </c>
       <c r="E24" t="n">
-        <v>9.738225014028485</v>
+        <v>9.741082969647612</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4637.915831727479</v>
+        <v>4802.142847721268</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.791857345486699</v>
+        <v>9.768912582564925</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4637.915831727479</v>
+        <v>4802.142847721268</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.791857345486699</v>
+        <v>9.768912582564925</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4637.915831727479</v>
+        <v>4802.142847721268</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.791857345486699</v>
+        <v>9.768912582564925</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4637.915831727479</v>
+        <v>4802.142847721268</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.791857345486699</v>
+        <v>9.768912582564925</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4637.915831727479</v>
+        <v>4802.142847721268</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.791857345486699</v>
+        <v>9.768912582564925</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4637.915831727479</v>
+        <v>4802.142847721268</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.791857345486699</v>
+        <v>9.768912582564925</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C58" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C59" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C60" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C61" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C62" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C63" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C64" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C65" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4729.852068729332</v>
+        <v>4779.913524672548</v>
       </c>
       <c r="C66" t="n">
-        <v>4750.017451983166</v>
+        <v>4855.749021221136</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.765373815469889</v>
+        <v>9.832325840298733</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C85" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D85" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E85" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C86" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D86" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E86" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C87" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D87" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E87" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C88" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D88" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E88" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C89" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D89" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E89" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C90" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D90" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E90" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C91" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D91" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E91" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C92" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D92" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E92" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4738.135672020874</v>
+        <v>4771.47758779231</v>
       </c>
       <c r="C93" t="n">
-        <v>4745.47924718758</v>
+        <v>4694.118257452316</v>
       </c>
       <c r="D93" t="n">
-        <v>69.53530084352857</v>
+        <v>68.74499986146091</v>
       </c>
       <c r="E93" t="n">
-        <v>9.684258864686633</v>
+        <v>9.846592000270904</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E103" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E104" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E105" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E106" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E107" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E108" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E109" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E110" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4713.599126640357</v>
+        <v>4727.297752689919</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>68.65430620072677</v>
+        <v>68.29289344705666</v>
       </c>
       <c r="E111" t="n">
-        <v>9.843581338809711</v>
+        <v>9.754641940603904</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E112" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E113" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E114" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E115" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E116" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E117" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E118" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E119" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4600.754234392714</v>
+        <v>4735.460028328739</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>70.93268703564119</v>
+        <v>70.13937133041719</v>
       </c>
       <c r="E120" t="n">
-        <v>9.885261522088975</v>
+        <v>9.777264062659155</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>70.20672149404315</v>
+        <v>68.811349340091</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>70.20672149404315</v>
+        <v>68.811349340091</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>70.20672149404315</v>
+        <v>68.811349340091</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>70.20672149404315</v>
+        <v>68.811349340091</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>70.20672149404315</v>
+        <v>68.811349340091</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>70.20672149404315</v>
+        <v>68.811349340091</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>70.20672149404315</v>
+        <v>68.811349340091</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>70.20672149404315</v>
+        <v>68.811349340091</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E138" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E139" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E140" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E141" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E142" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E143" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E144" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E145" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4823.666633403976</v>
+        <v>4706.819025070177</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>69.3316384586812</v>
+        <v>69.48554359792999</v>
       </c>
       <c r="E146" t="n">
-        <v>9.868512781919426</v>
+        <v>9.737976228000804</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>69.12107657761163</v>
+        <v>69.88620852915093</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C156" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D156" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E156" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C157" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D157" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E157" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C158" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D158" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E158" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C159" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D159" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E159" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C160" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D160" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E160" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C161" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D161" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E161" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C162" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D162" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E162" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C163" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D163" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E163" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4735.609772306455</v>
+        <v>4721.863202570572</v>
       </c>
       <c r="C164" t="n">
-        <v>4834.930670611187</v>
+        <v>4745.98806717631</v>
       </c>
       <c r="D164" t="n">
-        <v>69.26454143769766</v>
+        <v>70.0868462693209</v>
       </c>
       <c r="E164" t="n">
-        <v>9.80116635656173</v>
+        <v>9.799138523995596</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E165" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E166" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E167" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E168" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E169" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E170" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E171" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E172" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4948.339802633386</v>
+        <v>4793.38495180119</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>70.22058157187553</v>
+        <v>70.0351095195919</v>
       </c>
       <c r="E173" t="n">
-        <v>9.81825606135895</v>
+        <v>9.795611727387353</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>70.33619485288976</v>
+        <v>69.75336658896761</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>70.6691341351747</v>
+        <v>69.48102253303701</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>70.6691341351747</v>
+        <v>69.48102253303701</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>70.6691341351747</v>
+        <v>69.48102253303701</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>70.6691341351747</v>
+        <v>69.48102253303701</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>70.6691341351747</v>
+        <v>69.48102253303701</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>70.6691341351747</v>
+        <v>69.48102253303701</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>70.6691341351747</v>
+        <v>69.48102253303701</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>70.6691341351747</v>
+        <v>69.48102253303701</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>69.80665271857322</v>
+        <v>70.82574734772015</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>70.6187838764063</v>
+        <v>69.31043601329498</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>70.51650339841231</v>
+        <v>70.0753263349548</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>70.51650339841231</v>
+        <v>70.0753263349548</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>70.51650339841231</v>
+        <v>70.0753263349548</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>70.51650339841231</v>
+        <v>70.0753263349548</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>70.51650339841231</v>
+        <v>70.0753263349548</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>70.51650339841231</v>
+        <v>70.0753263349548</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>70.51650339841231</v>
+        <v>70.0753263349548</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>70.51650339841231</v>
+        <v>70.0753263349548</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E217" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E218" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E219" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E220" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E221" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E222" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E223" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E224" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4604.573628680561</v>
+        <v>4774.802686104776</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>69.9382403381822</v>
+        <v>69.96188630184082</v>
       </c>
       <c r="E225" t="n">
-        <v>9.821896618759617</v>
+        <v>9.761504589096473</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E226" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E227" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E228" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E229" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E230" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E231" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E232" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E233" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4899.746621089393</v>
+        <v>4862.343126600588</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>71.22757389093809</v>
+        <v>69.45505998042714</v>
       </c>
       <c r="E234" t="n">
-        <v>9.860906990354675</v>
+        <v>9.790895079520867</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E235" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E236" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E237" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E238" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E239" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E240" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E241" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E242" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4954.035403002931</v>
+        <v>4772.981167248554</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>70.90409153762555</v>
+        <v>70.03368022552795</v>
       </c>
       <c r="E243" t="n">
-        <v>9.800856399891611</v>
+        <v>9.801968593019497</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>70.51721881943708</v>
+        <v>71.09537392052327</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>69.57381623934386</v>
+        <v>69.89729466496358</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>69.57381623934386</v>
+        <v>69.89729466496358</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>69.57381623934386</v>
+        <v>69.89729466496358</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>69.57381623934386</v>
+        <v>69.89729466496358</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>69.57381623934386</v>
+        <v>69.89729466496358</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>69.57381623934386</v>
+        <v>69.89729466496358</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>69.57381623934386</v>
+        <v>69.89729466496358</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>69.57381623934386</v>
+        <v>69.89729466496358</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>69.45665481472298</v>
+        <v>70.73534302825514</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>69.45665481472298</v>
+        <v>70.73534302825514</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>69.45665481472298</v>
+        <v>70.73534302825514</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>69.45665481472298</v>
+        <v>70.73534302825514</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>69.45665481472298</v>
+        <v>70.73534302825514</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>69.45665481472298</v>
+        <v>70.73534302825514</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>69.45665481472298</v>
+        <v>70.73534302825514</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>69.45665481472298</v>
+        <v>70.73534302825514</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>69.21813421914496</v>
+        <v>70.18132428859518</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E278" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E279" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E280" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E281" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E282" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E283" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E284" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E285" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4749.788896477306</v>
+        <v>4947.032642348837</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>70.41868040411654</v>
+        <v>69.99298454762774</v>
       </c>
       <c r="E286" t="n">
-        <v>9.772575038577829</v>
+        <v>9.77441132227364</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>69.67967369897954</v>
+        <v>70.31563829923464</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4702.219539120979</v>
+        <v>4595.02441100319</v>
       </c>
       <c r="C9" t="n">
-        <v>4724.287887095885</v>
+        <v>4703.538897726307</v>
       </c>
       <c r="D9" t="n">
-        <v>70.75952326474874</v>
+        <v>71.90112840377944</v>
       </c>
       <c r="E9" t="n">
-        <v>9.789909231751293</v>
+        <v>9.825221551437766</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4702.219539120979</v>
+        <v>4595.02441100319</v>
       </c>
       <c r="C10" t="n">
-        <v>4724.287887095885</v>
+        <v>4703.538897726307</v>
       </c>
       <c r="D10" t="n">
-        <v>70.75952326474874</v>
+        <v>71.90112840377944</v>
       </c>
       <c r="E10" t="n">
-        <v>9.789909231751293</v>
+        <v>9.825221551437766</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C11" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D11" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E11" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C12" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D12" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E12" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C13" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D13" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E13" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C14" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D14" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E14" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C15" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D15" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E15" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C16" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D16" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E16" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C17" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D17" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E17" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C18" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D18" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E18" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4670.877909275425</v>
+        <v>4864.407136178808</v>
       </c>
       <c r="C19" t="n">
-        <v>4681.742078413509</v>
+        <v>4778.621406938184</v>
       </c>
       <c r="D19" t="n">
-        <v>70.53838623627394</v>
+        <v>69.9365240975649</v>
       </c>
       <c r="E19" t="n">
-        <v>9.8424333796795</v>
+        <v>9.781323584399336</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4804.923799847636</v>
+        <v>4644.354839186365</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.870953009226584</v>
+        <v>9.839787632035678</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C38" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C39" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C40" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C41" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C42" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C43" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C44" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C45" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4568.654664157224</v>
+        <v>4569.624424329639</v>
       </c>
       <c r="C46" t="n">
-        <v>4634.248141517762</v>
+        <v>4690.832780988754</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.838554557132332</v>
+        <v>9.792532663551386</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E47" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E48" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E49" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E50" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E51" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E52" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E53" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E54" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4682.282262541534</v>
+        <v>4805.508222287853</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>72.72756037808627</v>
+        <v>69.39580066598027</v>
       </c>
       <c r="E55" t="n">
-        <v>9.812424259053977</v>
+        <v>9.75856653179464</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4704.755162547761</v>
+        <v>4861.403576838028</v>
       </c>
       <c r="C8" t="n">
-        <v>4741.51662860023</v>
+        <v>4780.62622261812</v>
       </c>
       <c r="D8" t="n">
-        <v>70.36353893070769</v>
+        <v>69.97317722103404</v>
       </c>
       <c r="E8" t="n">
-        <v>9.823990795194277</v>
+        <v>9.767059830005325</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4704.755162547761</v>
+        <v>4861.403576838028</v>
       </c>
       <c r="C9" t="n">
-        <v>4741.51662860023</v>
+        <v>4780.62622261812</v>
       </c>
       <c r="D9" t="n">
-        <v>70.36353893070769</v>
+        <v>69.97317722103404</v>
       </c>
       <c r="E9" t="n">
-        <v>9.823990795194277</v>
+        <v>9.767059830005325</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4704.755162547761</v>
+        <v>4861.403576838028</v>
       </c>
       <c r="C10" t="n">
-        <v>4741.51662860023</v>
+        <v>4780.62622261812</v>
       </c>
       <c r="D10" t="n">
-        <v>70.36353893070769</v>
+        <v>69.97317722103404</v>
       </c>
       <c r="E10" t="n">
-        <v>9.823990795194277</v>
+        <v>9.767059830005325</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4704.755162547761</v>
+        <v>4861.403576838028</v>
       </c>
       <c r="C11" t="n">
-        <v>4741.51662860023</v>
+        <v>4780.62622261812</v>
       </c>
       <c r="D11" t="n">
-        <v>70.36353893070769</v>
+        <v>69.97317722103404</v>
       </c>
       <c r="E11" t="n">
-        <v>9.823990795194277</v>
+        <v>9.767059830005325</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4704.755162547761</v>
+        <v>4861.403576838028</v>
       </c>
       <c r="C12" t="n">
-        <v>4741.51662860023</v>
+        <v>4780.62622261812</v>
       </c>
       <c r="D12" t="n">
-        <v>70.36353893070769</v>
+        <v>69.97317722103404</v>
       </c>
       <c r="E12" t="n">
-        <v>9.823990795194277</v>
+        <v>9.767059830005325</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4704.755162547761</v>
+        <v>4861.403576838028</v>
       </c>
       <c r="C13" t="n">
-        <v>4741.51662860023</v>
+        <v>4780.62622261812</v>
       </c>
       <c r="D13" t="n">
-        <v>70.36353893070769</v>
+        <v>69.97317722103404</v>
       </c>
       <c r="E13" t="n">
-        <v>9.823990795194277</v>
+        <v>9.767059830005325</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C14" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D14" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E14" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C15" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D15" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E15" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C16" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D16" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E16" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C17" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D17" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E17" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C18" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D18" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E18" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C19" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D19" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E19" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C20" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D20" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E20" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C21" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D21" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E21" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4774.051489861988</v>
+        <v>4875.08209086166</v>
       </c>
       <c r="C22" t="n">
-        <v>4652.311956441539</v>
+        <v>4683.074222018694</v>
       </c>
       <c r="D22" t="n">
-        <v>69.57933209109919</v>
+        <v>70.46075413690599</v>
       </c>
       <c r="E22" t="n">
-        <v>9.846879441338041</v>
+        <v>9.805499522305968</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C41" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D41" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E41" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C42" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D42" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E42" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C43" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D43" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E43" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C44" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D44" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E44" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C45" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D45" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E45" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C46" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D46" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E46" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C47" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D47" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E47" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C48" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D48" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E48" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4700.116244368062</v>
+        <v>4794.430473149519</v>
       </c>
       <c r="C49" t="n">
-        <v>4759.559335047003</v>
+        <v>4801.043641996573</v>
       </c>
       <c r="D49" t="n">
-        <v>70.76943936208124</v>
+        <v>70.29603970385554</v>
       </c>
       <c r="E49" t="n">
-        <v>9.805047959865551</v>
+        <v>9.75805558930719</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C50" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D50" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E50" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C51" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D51" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E51" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C52" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D52" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E52" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C53" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D53" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E53" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C54" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D54" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E54" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C55" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D55" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E55" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C56" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D56" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E56" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C57" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D57" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E57" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4877.11808984584</v>
+        <v>4745.505671194982</v>
       </c>
       <c r="C58" t="n">
-        <v>4701.703913296094</v>
+        <v>4656.168572802873</v>
       </c>
       <c r="D58" t="n">
-        <v>69.49794288417891</v>
+        <v>69.97700092797896</v>
       </c>
       <c r="E58" t="n">
-        <v>9.778933553682705</v>
+        <v>9.814186610569694</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E68" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E69" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E70" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E71" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E72" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E73" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E74" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E75" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>4903.161494348921</v>
+        <v>4734.744936263692</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>70.18371740677377</v>
+        <v>70.05053610829769</v>
       </c>
       <c r="E76" t="n">
-        <v>9.798547924294821</v>
+        <v>9.814023410848982</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1011" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1012" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1013" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1014" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1011" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1013" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1014" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3699.634477039818</v>
+        <v>3677.22477097204</v>
       </c>
       <c r="C2" t="n">
-        <v>4683.312349006555</v>
+        <v>4667.328098519552</v>
       </c>
       <c r="D2" t="n">
-        <v>69.75150647987866</v>
+        <v>71.5790486127984</v>
       </c>
       <c r="E2" t="n">
-        <v>9.717228828302538</v>
+        <v>9.810459724431396</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3699.634477039818</v>
+        <v>3677.22477097204</v>
       </c>
       <c r="C3" t="n">
-        <v>4683.312349006555</v>
+        <v>4667.328098519552</v>
       </c>
       <c r="D3" t="n">
-        <v>69.75150647987866</v>
+        <v>71.5790486127984</v>
       </c>
       <c r="E3" t="n">
-        <v>9.717228828302538</v>
+        <v>9.810459724431396</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3699.634477039818</v>
+        <v>3677.22477097204</v>
       </c>
       <c r="C4" t="n">
-        <v>4683.312349006555</v>
+        <v>4667.328098519552</v>
       </c>
       <c r="D4" t="n">
-        <v>69.75150647987866</v>
+        <v>71.5790486127984</v>
       </c>
       <c r="E4" t="n">
-        <v>9.717228828302538</v>
+        <v>9.810459724431396</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3699.634477039818</v>
+        <v>3677.22477097204</v>
       </c>
       <c r="C5" t="n">
-        <v>4683.312349006555</v>
+        <v>4667.328098519552</v>
       </c>
       <c r="D5" t="n">
-        <v>69.75150647987866</v>
+        <v>71.5790486127984</v>
       </c>
       <c r="E5" t="n">
-        <v>9.717228828302538</v>
+        <v>9.810459724431396</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3699.634477039818</v>
+        <v>3677.22477097204</v>
       </c>
       <c r="C6" t="n">
-        <v>4683.312349006555</v>
+        <v>4667.328098519552</v>
       </c>
       <c r="D6" t="n">
-        <v>69.75150647987866</v>
+        <v>71.5790486127984</v>
       </c>
       <c r="E6" t="n">
-        <v>9.717228828302538</v>
+        <v>9.810459724431396</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3699.634477039818</v>
+        <v>3677.22477097204</v>
       </c>
       <c r="C7" t="n">
-        <v>4683.312349006555</v>
+        <v>4667.328098519552</v>
       </c>
       <c r="D7" t="n">
-        <v>69.75150647987866</v>
+        <v>71.5790486127984</v>
       </c>
       <c r="E7" t="n">
-        <v>9.717228828302538</v>
+        <v>9.810459724431396</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3699.634477039818</v>
+        <v>3677.22477097204</v>
       </c>
       <c r="C8" t="n">
-        <v>4683.312349006555</v>
+        <v>4667.328098519552</v>
       </c>
       <c r="D8" t="n">
-        <v>69.75150647987866</v>
+        <v>71.5790486127984</v>
       </c>
       <c r="E8" t="n">
-        <v>9.717228828302538</v>
+        <v>9.810459724431396</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E9" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E10" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E11" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E12" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E13" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E14" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E15" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E16" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3848.476427333053</v>
+        <v>3862.810315431763</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>70.49633779843364</v>
+        <v>69.90252934444338</v>
       </c>
       <c r="E17" t="n">
-        <v>9.79296529651158</v>
+        <v>9.844557325935602</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3642.988905053814</v>
+        <v>3547.485428733503</v>
       </c>
       <c r="C18" t="n">
-        <v>4724.252721510604</v>
+        <v>4787.425681107613</v>
       </c>
       <c r="D18" t="n">
-        <v>70.74787259217884</v>
+        <v>69.20808877423686</v>
       </c>
       <c r="E18" t="n">
-        <v>9.760740092580741</v>
+        <v>9.788124054187383</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3642.988905053814</v>
+        <v>3547.485428733503</v>
       </c>
       <c r="C19" t="n">
-        <v>4724.252721510604</v>
+        <v>4787.425681107613</v>
       </c>
       <c r="D19" t="n">
-        <v>70.74787259217884</v>
+        <v>69.20808877423686</v>
       </c>
       <c r="E19" t="n">
-        <v>9.760740092580741</v>
+        <v>9.788124054187383</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3642.988905053814</v>
+        <v>3547.485428733503</v>
       </c>
       <c r="C20" t="n">
-        <v>4724.252721510604</v>
+        <v>4787.425681107613</v>
       </c>
       <c r="D20" t="n">
-        <v>70.74787259217884</v>
+        <v>69.20808877423686</v>
       </c>
       <c r="E20" t="n">
-        <v>9.760740092580741</v>
+        <v>9.788124054187383</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3642.988905053814</v>
+        <v>3547.485428733503</v>
       </c>
       <c r="C21" t="n">
-        <v>4724.252721510604</v>
+        <v>4787.425681107613</v>
       </c>
       <c r="D21" t="n">
-        <v>70.74787259217884</v>
+        <v>69.20808877423686</v>
       </c>
       <c r="E21" t="n">
-        <v>9.760740092580741</v>
+        <v>9.788124054187383</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3642.988905053814</v>
+        <v>3547.485428733503</v>
       </c>
       <c r="C22" t="n">
-        <v>4724.252721510604</v>
+        <v>4787.425681107613</v>
       </c>
       <c r="D22" t="n">
-        <v>70.74787259217884</v>
+        <v>69.20808877423686</v>
       </c>
       <c r="E22" t="n">
-        <v>9.760740092580741</v>
+        <v>9.788124054187383</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3642.988905053814</v>
+        <v>3547.485428733503</v>
       </c>
       <c r="C23" t="n">
-        <v>4724.252721510604</v>
+        <v>4787.425681107613</v>
       </c>
       <c r="D23" t="n">
-        <v>70.74787259217884</v>
+        <v>69.20808877423686</v>
       </c>
       <c r="E23" t="n">
-        <v>9.760740092580741</v>
+        <v>9.788124054187383</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3642.988905053814</v>
+        <v>3547.485428733503</v>
       </c>
       <c r="C24" t="n">
-        <v>4724.252721510604</v>
+        <v>4787.425681107613</v>
       </c>
       <c r="D24" t="n">
-        <v>70.74787259217884</v>
+        <v>69.20808877423686</v>
       </c>
       <c r="E24" t="n">
-        <v>9.760740092580741</v>
+        <v>9.788124054187383</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3642.988905053814</v>
+        <v>3547.485428733503</v>
       </c>
       <c r="C25" t="n">
-        <v>4724.252721510604</v>
+        <v>4787.425681107613</v>
       </c>
       <c r="D25" t="n">
-        <v>70.74787259217884</v>
+        <v>69.20808877423686</v>
       </c>
       <c r="E25" t="n">
-        <v>9.760740092580741</v>
+        <v>9.788124054187383</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E34" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E35" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E36" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E37" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E38" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E39" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E40" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E41" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3462.507195717159</v>
+        <v>3813.816903648749</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>69.21284651024895</v>
+        <v>69.05251999003171</v>
       </c>
       <c r="E42" t="n">
-        <v>9.730033811618739</v>
+        <v>9.792761515168849</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3672.204929984389</v>
+        <v>3681.254549893114</v>
       </c>
       <c r="C43" t="n">
-        <v>4779.961649731749</v>
+        <v>4773.508155557175</v>
       </c>
       <c r="D43" t="n">
-        <v>69.88636144334087</v>
+        <v>70.28864623713505</v>
       </c>
       <c r="E43" t="n">
-        <v>9.707779621514174</v>
+        <v>9.763406987549898</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3672.204929984389</v>
+        <v>3681.254549893114</v>
       </c>
       <c r="C44" t="n">
-        <v>4779.961649731749</v>
+        <v>4773.508155557175</v>
       </c>
       <c r="D44" t="n">
-        <v>69.88636144334087</v>
+        <v>70.28864623713505</v>
       </c>
       <c r="E44" t="n">
-        <v>9.707779621514174</v>
+        <v>9.763406987549898</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3672.204929984389</v>
+        <v>3681.254549893114</v>
       </c>
       <c r="C45" t="n">
-        <v>4779.961649731749</v>
+        <v>4773.508155557175</v>
       </c>
       <c r="D45" t="n">
-        <v>69.88636144334087</v>
+        <v>70.28864623713505</v>
       </c>
       <c r="E45" t="n">
-        <v>9.707779621514174</v>
+        <v>9.763406987549898</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3672.204929984389</v>
+        <v>3681.254549893114</v>
       </c>
       <c r="C46" t="n">
-        <v>4779.961649731749</v>
+        <v>4773.508155557175</v>
       </c>
       <c r="D46" t="n">
-        <v>69.88636144334087</v>
+        <v>70.28864623713505</v>
       </c>
       <c r="E46" t="n">
-        <v>9.707779621514174</v>
+        <v>9.763406987549898</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3672.204929984389</v>
+        <v>3681.254549893114</v>
       </c>
       <c r="C47" t="n">
-        <v>4779.961649731749</v>
+        <v>4773.508155557175</v>
       </c>
       <c r="D47" t="n">
-        <v>69.88636144334087</v>
+        <v>70.28864623713505</v>
       </c>
       <c r="E47" t="n">
-        <v>9.707779621514174</v>
+        <v>9.763406987549898</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3672.204929984389</v>
+        <v>3681.254549893114</v>
       </c>
       <c r="C48" t="n">
-        <v>4779.961649731749</v>
+        <v>4773.508155557175</v>
       </c>
       <c r="D48" t="n">
-        <v>69.88636144334087</v>
+        <v>70.28864623713505</v>
       </c>
       <c r="E48" t="n">
-        <v>9.707779621514174</v>
+        <v>9.763406987549898</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3672.204929984389</v>
+        <v>3681.254549893114</v>
       </c>
       <c r="C49" t="n">
-        <v>4779.961649731749</v>
+        <v>4773.508155557175</v>
       </c>
       <c r="D49" t="n">
-        <v>69.88636144334087</v>
+        <v>70.28864623713505</v>
       </c>
       <c r="E49" t="n">
-        <v>9.707779621514174</v>
+        <v>9.763406987549898</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3672.204929984389</v>
+        <v>3681.254549893114</v>
       </c>
       <c r="C50" t="n">
-        <v>4779.961649731749</v>
+        <v>4773.508155557175</v>
       </c>
       <c r="D50" t="n">
-        <v>69.88636144334087</v>
+        <v>70.28864623713505</v>
       </c>
       <c r="E50" t="n">
-        <v>9.707779621514174</v>
+        <v>9.763406987549898</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3705.672329909756</v>
+        <v>3767.469558781723</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>69.51185874711732</v>
+        <v>70.61344095329133</v>
       </c>
       <c r="E59" t="n">
-        <v>9.673975590162017</v>
+        <v>9.736557615638576</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3705.672329909756</v>
+        <v>3767.469558781723</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>69.51185874711732</v>
+        <v>70.61344095329133</v>
       </c>
       <c r="E60" t="n">
-        <v>9.673975590162017</v>
+        <v>9.736557615638576</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3705.672329909756</v>
+        <v>3767.469558781723</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>69.51185874711732</v>
+        <v>70.61344095329133</v>
       </c>
       <c r="E61" t="n">
-        <v>9.673975590162017</v>
+        <v>9.736557615638576</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3705.672329909756</v>
+        <v>3767.469558781723</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>69.51185874711732</v>
+        <v>70.61344095329133</v>
       </c>
       <c r="E62" t="n">
-        <v>9.673975590162017</v>
+        <v>9.736557615638576</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3705.672329909756</v>
+        <v>3767.469558781723</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>69.51185874711732</v>
+        <v>70.61344095329133</v>
       </c>
       <c r="E63" t="n">
-        <v>9.673975590162017</v>
+        <v>9.736557615638576</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3705.672329909756</v>
+        <v>3767.469558781723</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>69.51185874711732</v>
+        <v>70.61344095329133</v>
       </c>
       <c r="E64" t="n">
-        <v>9.673975590162017</v>
+        <v>9.736557615638576</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3705.672329909756</v>
+        <v>3767.469558781723</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>69.51185874711732</v>
+        <v>70.61344095329133</v>
       </c>
       <c r="E65" t="n">
-        <v>9.673975590162017</v>
+        <v>9.736557615638576</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3705.672329909756</v>
+        <v>3767.469558781723</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>69.51185874711732</v>
+        <v>70.61344095329133</v>
       </c>
       <c r="E66" t="n">
-        <v>9.673975590162017</v>
+        <v>9.736557615638576</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C67" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D67" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E67" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C68" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D68" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E68" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C69" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D69" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E69" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C70" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D70" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E70" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C71" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D71" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E71" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C72" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D72" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E72" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C73" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D73" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E73" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C74" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D74" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E74" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3731.679748232989</v>
+        <v>3467.093432984663</v>
       </c>
       <c r="C75" t="n">
-        <v>4775.263171618259</v>
+        <v>4892.470782577535</v>
       </c>
       <c r="D75" t="n">
-        <v>69.81122607692042</v>
+        <v>69.59466920953844</v>
       </c>
       <c r="E75" t="n">
-        <v>9.71255120666787</v>
+        <v>9.846622277322483</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E76" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E77" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E78" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E79" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E80" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E81" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E82" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E83" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3445.054523712379</v>
+        <v>3666.452483146211</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>70.21974441299335</v>
+        <v>70.5108781023272</v>
       </c>
       <c r="E84" t="n">
-        <v>9.782813047038687</v>
+        <v>9.761806652104953</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3641.804299818009</v>
+        <v>3667.576129882872</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3623.339833521622</v>
+        <v>3638.798056236691</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>70.16017503879476</v>
+        <v>70.18116178520566</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C2" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D2" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E2" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C3" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D3" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E3" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C4" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D4" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E4" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C5" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D5" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E5" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C6" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D6" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E6" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C7" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D7" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E7" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C8" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D8" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E8" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C9" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D9" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E9" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4806.281299071733</v>
+        <v>4728.560705829292</v>
       </c>
       <c r="C10" t="n">
-        <v>4690.126915804887</v>
+        <v>4734.505219622702</v>
       </c>
       <c r="D10" t="n">
-        <v>69.58921779382194</v>
+        <v>68.83386518530691</v>
       </c>
       <c r="E10" t="n">
-        <v>9.782440898245021</v>
+        <v>9.729203055569428</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4804.469531644776</v>
+        <v>4683.51100168844</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4804.469531644776</v>
+        <v>4683.51100168844</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4804.469531644776</v>
+        <v>4683.51100168844</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4804.469531644776</v>
+        <v>4683.51100168844</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4804.469531644776</v>
+        <v>4683.51100168844</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4804.469531644776</v>
+        <v>4683.51100168844</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4804.469531644776</v>
+        <v>4683.51100168844</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4804.469531644776</v>
+        <v>4683.51100168844</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4766.336590929663</v>
+        <v>4839.057877488948</v>
       </c>
       <c r="C19" t="n">
-        <v>4712.650948320101</v>
+        <v>4626.677967293115</v>
       </c>
       <c r="D19" t="n">
-        <v>69.33054465236977</v>
+        <v>70.92802973628568</v>
       </c>
       <c r="E19" t="n">
-        <v>9.741082969647612</v>
+        <v>9.843199836148697</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4766.336590929663</v>
+        <v>4839.057877488948</v>
       </c>
       <c r="C20" t="n">
-        <v>4712.650948320101</v>
+        <v>4626.677967293115</v>
       </c>
       <c r="D20" t="n">
-        <v>69.33054465236977</v>
+        <v>70.92802973628568</v>
       </c>
       <c r="E20" t="n">
-        <v>9.741082969647612</v>
+        <v>9.843199836148697</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4766.336590929663</v>
+        <v>4839.057877488948</v>
       </c>
       <c r="C21" t="n">
-        <v>4712.650948320101</v>
+        <v>4626.677967293115</v>
       </c>
       <c r="D21" t="n">
-        <v>69.33054465236977</v>
+        <v>70.92802973628568</v>
       </c>
       <c r="E21" t="n">
-        <v>9.741082969647612</v>
+        <v>9.843199836148697</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4766.336590929663</v>
+        <v>4839.057877488948</v>
       </c>
       <c r="C22" t="n">
-        <v>4712.650948320101</v>
+        <v>4626.677967293115</v>
       </c>
       <c r="D22" t="n">
-        <v>69.33054465236977</v>
+        <v>70.92802973628568</v>
       </c>
       <c r="E22" t="n">
-        <v>9.741082969647612</v>
+        <v>9.843199836148697</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4766.336590929663</v>
+        <v>4839.057877488948</v>
       </c>
       <c r="C23" t="n">
-        <v>4712.650948320101</v>
+        <v>4626.677967293115</v>
       </c>
       <c r="D23" t="n">
-        <v>69.33054465236977</v>
+        <v>70.92802973628568</v>
       </c>
       <c r="E23" t="n">
-        <v>9.741082969647612</v>
+        <v>9.843199836148697</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4766.336590929663</v>
+        <v>4839.057877488948</v>
       </c>
       <c r="C24" t="n">
-        <v>4712.650948320101</v>
+        <v>4626.677967293115</v>
       </c>
       <c r="D24" t="n">
-        <v>69.33054465236977</v>
+        <v>70.92802973628568</v>
       </c>
       <c r="E24" t="n">
-        <v>9.741082969647612</v>
+        <v>9.843199836148697</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4802.142847721268</v>
+        <v>4631.417946559151</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.768912582564925</v>
+        <v>9.645539293210916</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4802.142847721268</v>
+        <v>4631.417946559151</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.768912582564925</v>
+        <v>9.645539293210916</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4802.142847721268</v>
+        <v>4631.417946559151</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.768912582564925</v>
+        <v>9.645539293210916</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4802.142847721268</v>
+        <v>4631.417946559151</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.768912582564925</v>
+        <v>9.645539293210916</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4802.142847721268</v>
+        <v>4631.417946559151</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.768912582564925</v>
+        <v>9.645539293210916</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4802.142847721268</v>
+        <v>4631.417946559151</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.768912582564925</v>
+        <v>9.645539293210916</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C58" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C59" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C60" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C61" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C62" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C63" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C64" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C65" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4779.913524672548</v>
+        <v>4677.674716560658</v>
       </c>
       <c r="C66" t="n">
-        <v>4855.749021221136</v>
+        <v>4753.329114935626</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.832325840298733</v>
+        <v>9.770609170300318</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C85" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D85" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E85" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C86" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D86" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E86" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C87" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D87" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E87" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C88" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D88" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E88" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C89" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D89" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E89" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C90" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D90" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E90" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C91" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D91" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E91" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C92" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D92" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E92" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4771.47758779231</v>
+        <v>4780.598707696014</v>
       </c>
       <c r="C93" t="n">
-        <v>4694.118257452316</v>
+        <v>4779.603165470866</v>
       </c>
       <c r="D93" t="n">
-        <v>68.74499986146091</v>
+        <v>70.06526819645156</v>
       </c>
       <c r="E93" t="n">
-        <v>9.846592000270904</v>
+        <v>9.716970294341335</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E103" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E104" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E105" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E106" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E107" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E108" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E109" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E110" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4727.297752689919</v>
+        <v>4814.314521704255</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>68.29289344705666</v>
+        <v>69.79562399074905</v>
       </c>
       <c r="E111" t="n">
-        <v>9.754641940603904</v>
+        <v>9.814714254593207</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E112" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E113" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E114" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E115" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E116" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E117" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E118" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E119" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4735.460028328739</v>
+        <v>4711.076159305828</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>70.13937133041719</v>
+        <v>70.299106873887</v>
       </c>
       <c r="E120" t="n">
-        <v>9.777264062659155</v>
+        <v>9.735366253797233</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>68.811349340091</v>
+        <v>69.1692098438894</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>68.811349340091</v>
+        <v>69.1692098438894</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>68.811349340091</v>
+        <v>69.1692098438894</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>68.811349340091</v>
+        <v>69.1692098438894</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>68.811349340091</v>
+        <v>69.1692098438894</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>68.811349340091</v>
+        <v>69.1692098438894</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>68.811349340091</v>
+        <v>69.1692098438894</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>68.811349340091</v>
+        <v>69.1692098438894</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E138" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E139" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E140" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E141" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E142" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E143" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E144" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E145" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4706.819025070177</v>
+        <v>5026.868679074029</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>69.48554359792999</v>
+        <v>71.38729089309685</v>
       </c>
       <c r="E146" t="n">
-        <v>9.737976228000804</v>
+        <v>9.746414877090851</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>69.88620852915093</v>
+        <v>69.29577814150051</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C156" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D156" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E156" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C157" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D157" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E157" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C158" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D158" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E158" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C159" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D159" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E159" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C160" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D160" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E160" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C161" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D161" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E161" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C162" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D162" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E162" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C163" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D163" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E163" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4721.863202570572</v>
+        <v>4699.703348968638</v>
       </c>
       <c r="C164" t="n">
-        <v>4745.98806717631</v>
+        <v>4721.432585145131</v>
       </c>
       <c r="D164" t="n">
-        <v>70.0868462693209</v>
+        <v>70.56738342854483</v>
       </c>
       <c r="E164" t="n">
-        <v>9.799138523995596</v>
+        <v>9.794660911334528</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E165" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E166" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E167" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E168" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E169" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E170" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E171" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E172" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4793.38495180119</v>
+        <v>4693.859951077419</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>70.0351095195919</v>
+        <v>70.4276446544568</v>
       </c>
       <c r="E173" t="n">
-        <v>9.795611727387353</v>
+        <v>9.805108698288656</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>69.75336658896761</v>
+        <v>70.48310754954016</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>69.48102253303701</v>
+        <v>69.14834357755022</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>69.48102253303701</v>
+        <v>69.14834357755022</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>69.48102253303701</v>
+        <v>69.14834357755022</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>69.48102253303701</v>
+        <v>69.14834357755022</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>69.48102253303701</v>
+        <v>69.14834357755022</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>69.48102253303701</v>
+        <v>69.14834357755022</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>69.48102253303701</v>
+        <v>69.14834357755022</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>69.48102253303701</v>
+        <v>69.14834357755022</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>70.82574734772015</v>
+        <v>70.76739386555974</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>69.31043601329498</v>
+        <v>70.0645918456255</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>70.0753263349548</v>
+        <v>68.99875063543611</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>70.0753263349548</v>
+        <v>68.99875063543611</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>70.0753263349548</v>
+        <v>68.99875063543611</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>70.0753263349548</v>
+        <v>68.99875063543611</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>70.0753263349548</v>
+        <v>68.99875063543611</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>70.0753263349548</v>
+        <v>68.99875063543611</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>70.0753263349548</v>
+        <v>68.99875063543611</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>70.0753263349548</v>
+        <v>68.99875063543611</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E217" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E218" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E219" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E220" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E221" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E222" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E223" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E224" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4774.802686104776</v>
+        <v>4722.154342200678</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>69.96188630184082</v>
+        <v>70.13698482122817</v>
       </c>
       <c r="E225" t="n">
-        <v>9.761504589096473</v>
+        <v>9.817683246131018</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E226" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E227" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E228" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E229" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E230" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E231" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E232" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E233" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4862.343126600588</v>
+        <v>4829.587448966923</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>69.45505998042714</v>
+        <v>68.20805000857821</v>
       </c>
       <c r="E234" t="n">
-        <v>9.790895079520867</v>
+        <v>9.785028149746704</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E235" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E236" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E237" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E238" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E239" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E240" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E241" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E242" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4772.981167248554</v>
+        <v>4789.955378705491</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>70.03368022552795</v>
+        <v>68.3992838929679</v>
       </c>
       <c r="E243" t="n">
-        <v>9.801968593019497</v>
+        <v>9.770268393344288</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>71.09537392052327</v>
+        <v>69.39314547812242</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>69.89729466496358</v>
+        <v>69.80741435571419</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>69.89729466496358</v>
+        <v>69.80741435571419</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>69.89729466496358</v>
+        <v>69.80741435571419</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>69.89729466496358</v>
+        <v>69.80741435571419</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>69.89729466496358</v>
+        <v>69.80741435571419</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>69.89729466496358</v>
+        <v>69.80741435571419</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>69.89729466496358</v>
+        <v>69.80741435571419</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>69.89729466496358</v>
+        <v>69.80741435571419</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>70.73534302825514</v>
+        <v>69.31162539273159</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>70.73534302825514</v>
+        <v>69.31162539273159</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>70.73534302825514</v>
+        <v>69.31162539273159</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>70.73534302825514</v>
+        <v>69.31162539273159</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>70.73534302825514</v>
+        <v>69.31162539273159</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>70.73534302825514</v>
+        <v>69.31162539273159</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>70.73534302825514</v>
+        <v>69.31162539273159</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>70.73534302825514</v>
+        <v>69.31162539273159</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>70.18132428859518</v>
+        <v>70.55584383030755</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E278" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E279" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E280" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E281" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E282" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E283" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E284" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E285" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4947.032642348837</v>
+        <v>4733.00441110782</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>69.99298454762774</v>
+        <v>70.60733375501924</v>
       </c>
       <c r="E286" t="n">
-        <v>9.77441132227364</v>
+        <v>9.798210349842353</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>70.31563829923464</v>
+        <v>69.57774547815502</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4595.02441100319</v>
+        <v>4570.798205893597</v>
       </c>
       <c r="C9" t="n">
-        <v>4703.538897726307</v>
+        <v>4754.810316352035</v>
       </c>
       <c r="D9" t="n">
-        <v>71.90112840377944</v>
+        <v>68.04176199652716</v>
       </c>
       <c r="E9" t="n">
-        <v>9.825221551437766</v>
+        <v>9.854248044393382</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4595.02441100319</v>
+        <v>4570.798205893597</v>
       </c>
       <c r="C10" t="n">
-        <v>4703.538897726307</v>
+        <v>4754.810316352035</v>
       </c>
       <c r="D10" t="n">
-        <v>71.90112840377944</v>
+        <v>68.04176199652716</v>
       </c>
       <c r="E10" t="n">
-        <v>9.825221551437766</v>
+        <v>9.854248044393382</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C11" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D11" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E11" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C12" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D12" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E12" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C13" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D13" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E13" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C14" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D14" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E14" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C15" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D15" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E15" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C16" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D16" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E16" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C17" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D17" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E17" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C18" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D18" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E18" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4864.407136178808</v>
+        <v>4630.489369612779</v>
       </c>
       <c r="C19" t="n">
-        <v>4778.621406938184</v>
+        <v>4661.815475546808</v>
       </c>
       <c r="D19" t="n">
-        <v>69.9365240975649</v>
+        <v>70.12603884779286</v>
       </c>
       <c r="E19" t="n">
-        <v>9.781323584399336</v>
+        <v>9.802641531214601</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4644.354839186365</v>
+        <v>4670.230274077422</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.839787632035678</v>
+        <v>9.780056926104411</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C38" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C39" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C40" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C41" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C42" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C43" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C44" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C45" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4569.624424329639</v>
+        <v>5017.922941772096</v>
       </c>
       <c r="C46" t="n">
-        <v>4690.832780988754</v>
+        <v>4695.924709354438</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.792532663551386</v>
+        <v>9.814840709464828</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E47" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E48" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E49" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E50" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E51" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E52" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E53" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E54" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4805.508222287853</v>
+        <v>4554.419028141474</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>69.39580066598027</v>
+        <v>71.27358173416775</v>
       </c>
       <c r="E55" t="n">
-        <v>9.75856653179464</v>
+        <v>9.814804083527486</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4861.403576838028</v>
+        <v>4805.701244357576</v>
       </c>
       <c r="C8" t="n">
-        <v>4780.62622261812</v>
+        <v>4797.86434754584</v>
       </c>
       <c r="D8" t="n">
-        <v>69.97317722103404</v>
+        <v>70.41132394547911</v>
       </c>
       <c r="E8" t="n">
-        <v>9.767059830005325</v>
+        <v>9.786606948373603</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4861.403576838028</v>
+        <v>4805.701244357576</v>
       </c>
       <c r="C9" t="n">
-        <v>4780.62622261812</v>
+        <v>4797.86434754584</v>
       </c>
       <c r="D9" t="n">
-        <v>69.97317722103404</v>
+        <v>70.41132394547911</v>
       </c>
       <c r="E9" t="n">
-        <v>9.767059830005325</v>
+        <v>9.786606948373603</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4861.403576838028</v>
+        <v>4805.701244357576</v>
       </c>
       <c r="C10" t="n">
-        <v>4780.62622261812</v>
+        <v>4797.86434754584</v>
       </c>
       <c r="D10" t="n">
-        <v>69.97317722103404</v>
+        <v>70.41132394547911</v>
       </c>
       <c r="E10" t="n">
-        <v>9.767059830005325</v>
+        <v>9.786606948373603</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4861.403576838028</v>
+        <v>4805.701244357576</v>
       </c>
       <c r="C11" t="n">
-        <v>4780.62622261812</v>
+        <v>4797.86434754584</v>
       </c>
       <c r="D11" t="n">
-        <v>69.97317722103404</v>
+        <v>70.41132394547911</v>
       </c>
       <c r="E11" t="n">
-        <v>9.767059830005325</v>
+        <v>9.786606948373603</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4861.403576838028</v>
+        <v>4805.701244357576</v>
       </c>
       <c r="C12" t="n">
-        <v>4780.62622261812</v>
+        <v>4797.86434754584</v>
       </c>
       <c r="D12" t="n">
-        <v>69.97317722103404</v>
+        <v>70.41132394547911</v>
       </c>
       <c r="E12" t="n">
-        <v>9.767059830005325</v>
+        <v>9.786606948373603</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4861.403576838028</v>
+        <v>4805.701244357576</v>
       </c>
       <c r="C13" t="n">
-        <v>4780.62622261812</v>
+        <v>4797.86434754584</v>
       </c>
       <c r="D13" t="n">
-        <v>69.97317722103404</v>
+        <v>70.41132394547911</v>
       </c>
       <c r="E13" t="n">
-        <v>9.767059830005325</v>
+        <v>9.786606948373603</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C14" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D14" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E14" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C15" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D15" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E15" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C16" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D16" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E16" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C17" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D17" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E17" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C18" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D18" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E18" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C19" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D19" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E19" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C20" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D20" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E20" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C21" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D21" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E21" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4875.08209086166</v>
+        <v>4833.80415693435</v>
       </c>
       <c r="C22" t="n">
-        <v>4683.074222018694</v>
+        <v>4817.082446561964</v>
       </c>
       <c r="D22" t="n">
-        <v>70.46075413690599</v>
+        <v>69.70758340344808</v>
       </c>
       <c r="E22" t="n">
-        <v>9.805499522305968</v>
+        <v>9.766050704524721</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C41" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D41" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E41" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C42" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D42" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E42" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C43" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D43" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E43" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C44" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D44" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E44" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C45" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D45" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E45" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C46" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D46" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E46" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C47" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D47" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E47" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C48" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D48" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E48" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4794.430473149519</v>
+        <v>4868.29583813259</v>
       </c>
       <c r="C49" t="n">
-        <v>4801.043641996573</v>
+        <v>4729.796370767209</v>
       </c>
       <c r="D49" t="n">
-        <v>70.29603970385554</v>
+        <v>70.62540519657463</v>
       </c>
       <c r="E49" t="n">
-        <v>9.75805558930719</v>
+        <v>9.796605825273287</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C50" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D50" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E50" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C51" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D51" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E51" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C52" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D52" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E52" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C53" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D53" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E53" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C54" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D54" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E54" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C55" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D55" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E55" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C56" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D56" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E56" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C57" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D57" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E57" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4745.505671194982</v>
+        <v>4823.266534615296</v>
       </c>
       <c r="C58" t="n">
-        <v>4656.168572802873</v>
+        <v>4660.488055944435</v>
       </c>
       <c r="D58" t="n">
-        <v>69.97700092797896</v>
+        <v>70.2431272332736</v>
       </c>
       <c r="E58" t="n">
-        <v>9.814186610569694</v>
+        <v>9.811190781395272</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E68" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>CyJ</t>
+          <t xml:space="preserve"> CyJ</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E69" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>CyI</t>
+          <t xml:space="preserve"> CyI</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E70" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>CyG</t>
+          <t xml:space="preserve"> CyG</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E71" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18358,7 +18358,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CyF</t>
+          <t xml:space="preserve"> CyF</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E72" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CyH</t>
+          <t xml:space="preserve"> CyH</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E73" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>CyC</t>
+          <t xml:space="preserve"> CyC</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E74" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>CyB</t>
+          <t xml:space="preserve"> CyB</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E75" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>CyA</t>
+          <t xml:space="preserve"> CyA</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>4734.744936263692</v>
+        <v>4870.67325692244</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>70.05053610829769</v>
+        <v>70.12732943578109</v>
       </c>
       <c r="E76" t="n">
-        <v>9.814023410848982</v>
+        <v>9.798477384796373</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>CyE</t>
+          <t xml:space="preserve"> CyE</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -18778,7 +18778,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>CyJ</t>
+          <t xml:space="preserve"> CyJ</t>
         </is>
       </c>
       <c r="H85" t="n">

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3677.22477097204</v>
+        <v>3723.819546776791</v>
       </c>
       <c r="C2" t="n">
-        <v>4667.328098519552</v>
+        <v>4714.223661215673</v>
       </c>
       <c r="D2" t="n">
-        <v>71.5790486127984</v>
+        <v>71.14464336195684</v>
       </c>
       <c r="E2" t="n">
-        <v>9.810459724431396</v>
+        <v>9.688172976103488</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3677.22477097204</v>
+        <v>3723.819546776791</v>
       </c>
       <c r="C3" t="n">
-        <v>4667.328098519552</v>
+        <v>4714.223661215673</v>
       </c>
       <c r="D3" t="n">
-        <v>71.5790486127984</v>
+        <v>71.14464336195684</v>
       </c>
       <c r="E3" t="n">
-        <v>9.810459724431396</v>
+        <v>9.688172976103488</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3677.22477097204</v>
+        <v>3723.819546776791</v>
       </c>
       <c r="C4" t="n">
-        <v>4667.328098519552</v>
+        <v>4714.223661215673</v>
       </c>
       <c r="D4" t="n">
-        <v>71.5790486127984</v>
+        <v>71.14464336195684</v>
       </c>
       <c r="E4" t="n">
-        <v>9.810459724431396</v>
+        <v>9.688172976103488</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3677.22477097204</v>
+        <v>3723.819546776791</v>
       </c>
       <c r="C5" t="n">
-        <v>4667.328098519552</v>
+        <v>4714.223661215673</v>
       </c>
       <c r="D5" t="n">
-        <v>71.5790486127984</v>
+        <v>71.14464336195684</v>
       </c>
       <c r="E5" t="n">
-        <v>9.810459724431396</v>
+        <v>9.688172976103488</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3677.22477097204</v>
+        <v>3723.819546776791</v>
       </c>
       <c r="C6" t="n">
-        <v>4667.328098519552</v>
+        <v>4714.223661215673</v>
       </c>
       <c r="D6" t="n">
-        <v>71.5790486127984</v>
+        <v>71.14464336195684</v>
       </c>
       <c r="E6" t="n">
-        <v>9.810459724431396</v>
+        <v>9.688172976103488</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3677.22477097204</v>
+        <v>3723.819546776791</v>
       </c>
       <c r="C7" t="n">
-        <v>4667.328098519552</v>
+        <v>4714.223661215673</v>
       </c>
       <c r="D7" t="n">
-        <v>71.5790486127984</v>
+        <v>71.14464336195684</v>
       </c>
       <c r="E7" t="n">
-        <v>9.810459724431396</v>
+        <v>9.688172976103488</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3677.22477097204</v>
+        <v>3723.819546776791</v>
       </c>
       <c r="C8" t="n">
-        <v>4667.328098519552</v>
+        <v>4714.223661215673</v>
       </c>
       <c r="D8" t="n">
-        <v>71.5790486127984</v>
+        <v>71.14464336195684</v>
       </c>
       <c r="E8" t="n">
-        <v>9.810459724431396</v>
+        <v>9.688172976103488</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E9" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E10" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E11" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E12" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E13" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E14" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E15" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E16" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3862.810315431763</v>
+        <v>3707.563387383587</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>69.90252934444338</v>
+        <v>67.93543976516384</v>
       </c>
       <c r="E17" t="n">
-        <v>9.844557325935602</v>
+        <v>9.815245793551588</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3547.485428733503</v>
+        <v>3800.739372155269</v>
       </c>
       <c r="C18" t="n">
-        <v>4787.425681107613</v>
+        <v>4769.923027982275</v>
       </c>
       <c r="D18" t="n">
-        <v>69.20808877423686</v>
+        <v>69.88797305730535</v>
       </c>
       <c r="E18" t="n">
-        <v>9.788124054187383</v>
+        <v>9.767494897008209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3547.485428733503</v>
+        <v>3800.739372155269</v>
       </c>
       <c r="C19" t="n">
-        <v>4787.425681107613</v>
+        <v>4769.923027982275</v>
       </c>
       <c r="D19" t="n">
-        <v>69.20808877423686</v>
+        <v>69.88797305730535</v>
       </c>
       <c r="E19" t="n">
-        <v>9.788124054187383</v>
+        <v>9.767494897008209</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3547.485428733503</v>
+        <v>3800.739372155269</v>
       </c>
       <c r="C20" t="n">
-        <v>4787.425681107613</v>
+        <v>4769.923027982275</v>
       </c>
       <c r="D20" t="n">
-        <v>69.20808877423686</v>
+        <v>69.88797305730535</v>
       </c>
       <c r="E20" t="n">
-        <v>9.788124054187383</v>
+        <v>9.767494897008209</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3547.485428733503</v>
+        <v>3800.739372155269</v>
       </c>
       <c r="C21" t="n">
-        <v>4787.425681107613</v>
+        <v>4769.923027982275</v>
       </c>
       <c r="D21" t="n">
-        <v>69.20808877423686</v>
+        <v>69.88797305730535</v>
       </c>
       <c r="E21" t="n">
-        <v>9.788124054187383</v>
+        <v>9.767494897008209</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3547.485428733503</v>
+        <v>3800.739372155269</v>
       </c>
       <c r="C22" t="n">
-        <v>4787.425681107613</v>
+        <v>4769.923027982275</v>
       </c>
       <c r="D22" t="n">
-        <v>69.20808877423686</v>
+        <v>69.88797305730535</v>
       </c>
       <c r="E22" t="n">
-        <v>9.788124054187383</v>
+        <v>9.767494897008209</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3547.485428733503</v>
+        <v>3800.739372155269</v>
       </c>
       <c r="C23" t="n">
-        <v>4787.425681107613</v>
+        <v>4769.923027982275</v>
       </c>
       <c r="D23" t="n">
-        <v>69.20808877423686</v>
+        <v>69.88797305730535</v>
       </c>
       <c r="E23" t="n">
-        <v>9.788124054187383</v>
+        <v>9.767494897008209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3547.485428733503</v>
+        <v>3800.739372155269</v>
       </c>
       <c r="C24" t="n">
-        <v>4787.425681107613</v>
+        <v>4769.923027982275</v>
       </c>
       <c r="D24" t="n">
-        <v>69.20808877423686</v>
+        <v>69.88797305730535</v>
       </c>
       <c r="E24" t="n">
-        <v>9.788124054187383</v>
+        <v>9.767494897008209</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3547.485428733503</v>
+        <v>3800.739372155269</v>
       </c>
       <c r="C25" t="n">
-        <v>4787.425681107613</v>
+        <v>4769.923027982275</v>
       </c>
       <c r="D25" t="n">
-        <v>69.20808877423686</v>
+        <v>69.88797305730535</v>
       </c>
       <c r="E25" t="n">
-        <v>9.788124054187383</v>
+        <v>9.767494897008209</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E34" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E35" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E36" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E37" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E38" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E39" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E40" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E41" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3813.816903648749</v>
+        <v>3749.246780061826</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>69.05251999003171</v>
+        <v>70.53673739116348</v>
       </c>
       <c r="E42" t="n">
-        <v>9.792761515168849</v>
+        <v>9.748201003826589</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3681.254549893114</v>
+        <v>3564.520582055133</v>
       </c>
       <c r="C43" t="n">
-        <v>4773.508155557175</v>
+        <v>4639.380753639932</v>
       </c>
       <c r="D43" t="n">
-        <v>70.28864623713505</v>
+        <v>70.44244164425717</v>
       </c>
       <c r="E43" t="n">
-        <v>9.763406987549898</v>
+        <v>9.833924774167823</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3681.254549893114</v>
+        <v>3564.520582055133</v>
       </c>
       <c r="C44" t="n">
-        <v>4773.508155557175</v>
+        <v>4639.380753639932</v>
       </c>
       <c r="D44" t="n">
-        <v>70.28864623713505</v>
+        <v>70.44244164425717</v>
       </c>
       <c r="E44" t="n">
-        <v>9.763406987549898</v>
+        <v>9.833924774167823</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3681.254549893114</v>
+        <v>3564.520582055133</v>
       </c>
       <c r="C45" t="n">
-        <v>4773.508155557175</v>
+        <v>4639.380753639932</v>
       </c>
       <c r="D45" t="n">
-        <v>70.28864623713505</v>
+        <v>70.44244164425717</v>
       </c>
       <c r="E45" t="n">
-        <v>9.763406987549898</v>
+        <v>9.833924774167823</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3681.254549893114</v>
+        <v>3564.520582055133</v>
       </c>
       <c r="C46" t="n">
-        <v>4773.508155557175</v>
+        <v>4639.380753639932</v>
       </c>
       <c r="D46" t="n">
-        <v>70.28864623713505</v>
+        <v>70.44244164425717</v>
       </c>
       <c r="E46" t="n">
-        <v>9.763406987549898</v>
+        <v>9.833924774167823</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3681.254549893114</v>
+        <v>3564.520582055133</v>
       </c>
       <c r="C47" t="n">
-        <v>4773.508155557175</v>
+        <v>4639.380753639932</v>
       </c>
       <c r="D47" t="n">
-        <v>70.28864623713505</v>
+        <v>70.44244164425717</v>
       </c>
       <c r="E47" t="n">
-        <v>9.763406987549898</v>
+        <v>9.833924774167823</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3681.254549893114</v>
+        <v>3564.520582055133</v>
       </c>
       <c r="C48" t="n">
-        <v>4773.508155557175</v>
+        <v>4639.380753639932</v>
       </c>
       <c r="D48" t="n">
-        <v>70.28864623713505</v>
+        <v>70.44244164425717</v>
       </c>
       <c r="E48" t="n">
-        <v>9.763406987549898</v>
+        <v>9.833924774167823</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3681.254549893114</v>
+        <v>3564.520582055133</v>
       </c>
       <c r="C49" t="n">
-        <v>4773.508155557175</v>
+        <v>4639.380753639932</v>
       </c>
       <c r="D49" t="n">
-        <v>70.28864623713505</v>
+        <v>70.44244164425717</v>
       </c>
       <c r="E49" t="n">
-        <v>9.763406987549898</v>
+        <v>9.833924774167823</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3681.254549893114</v>
+        <v>3564.520582055133</v>
       </c>
       <c r="C50" t="n">
-        <v>4773.508155557175</v>
+        <v>4639.380753639932</v>
       </c>
       <c r="D50" t="n">
-        <v>70.28864623713505</v>
+        <v>70.44244164425717</v>
       </c>
       <c r="E50" t="n">
-        <v>9.763406987549898</v>
+        <v>9.833924774167823</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3767.469558781723</v>
+        <v>3654.153928790168</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>70.61344095329133</v>
+        <v>68.80688309395097</v>
       </c>
       <c r="E59" t="n">
-        <v>9.736557615638576</v>
+        <v>9.777903873602469</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3767.469558781723</v>
+        <v>3654.153928790168</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>70.61344095329133</v>
+        <v>68.80688309395097</v>
       </c>
       <c r="E60" t="n">
-        <v>9.736557615638576</v>
+        <v>9.777903873602469</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3767.469558781723</v>
+        <v>3654.153928790168</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>70.61344095329133</v>
+        <v>68.80688309395097</v>
       </c>
       <c r="E61" t="n">
-        <v>9.736557615638576</v>
+        <v>9.777903873602469</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3767.469558781723</v>
+        <v>3654.153928790168</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>70.61344095329133</v>
+        <v>68.80688309395097</v>
       </c>
       <c r="E62" t="n">
-        <v>9.736557615638576</v>
+        <v>9.777903873602469</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3767.469558781723</v>
+        <v>3654.153928790168</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>70.61344095329133</v>
+        <v>68.80688309395097</v>
       </c>
       <c r="E63" t="n">
-        <v>9.736557615638576</v>
+        <v>9.777903873602469</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3767.469558781723</v>
+        <v>3654.153928790168</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>70.61344095329133</v>
+        <v>68.80688309395097</v>
       </c>
       <c r="E64" t="n">
-        <v>9.736557615638576</v>
+        <v>9.777903873602469</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3767.469558781723</v>
+        <v>3654.153928790168</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>70.61344095329133</v>
+        <v>68.80688309395097</v>
       </c>
       <c r="E65" t="n">
-        <v>9.736557615638576</v>
+        <v>9.777903873602469</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3767.469558781723</v>
+        <v>3654.153928790168</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>70.61344095329133</v>
+        <v>68.80688309395097</v>
       </c>
       <c r="E66" t="n">
-        <v>9.736557615638576</v>
+        <v>9.777903873602469</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C67" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D67" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E67" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C68" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D68" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E68" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C69" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D69" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E69" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C70" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D70" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E70" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C71" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D71" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E71" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C72" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D72" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E72" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C73" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D73" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E73" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C74" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D74" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E74" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3467.093432984663</v>
+        <v>3726.271347084654</v>
       </c>
       <c r="C75" t="n">
-        <v>4892.470782577535</v>
+        <v>4663.478735667255</v>
       </c>
       <c r="D75" t="n">
-        <v>69.59466920953844</v>
+        <v>69.4367299417582</v>
       </c>
       <c r="E75" t="n">
-        <v>9.846622277322483</v>
+        <v>9.852241960613997</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E76" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E77" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E78" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E79" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E80" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E81" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E82" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E83" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3666.452483146211</v>
+        <v>3699.144826949875</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>70.5108781023272</v>
+        <v>70.10245174137303</v>
       </c>
       <c r="E84" t="n">
-        <v>9.761806652104953</v>
+        <v>9.878635958722981</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3667.576129882872</v>
+        <v>3619.087755127303</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3638.798056236691</v>
+        <v>3676.745409503125</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>70.18116178520566</v>
+        <v>69.61428551496226</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C2" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D2" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E2" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C3" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D3" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E3" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C4" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D4" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E4" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C5" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D5" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E5" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C6" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D6" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E6" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C7" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D7" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E7" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C8" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D8" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E8" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C9" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D9" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E9" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4728.560705829292</v>
+        <v>4767.019985391617</v>
       </c>
       <c r="C10" t="n">
-        <v>4734.505219622702</v>
+        <v>4649.903031870809</v>
       </c>
       <c r="D10" t="n">
-        <v>68.83386518530691</v>
+        <v>69.96403821909774</v>
       </c>
       <c r="E10" t="n">
-        <v>9.729203055569428</v>
+        <v>9.782329934486258</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4683.51100168844</v>
+        <v>4860.592275221795</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4683.51100168844</v>
+        <v>4860.592275221795</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4683.51100168844</v>
+        <v>4860.592275221795</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4683.51100168844</v>
+        <v>4860.592275221795</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4683.51100168844</v>
+        <v>4860.592275221795</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4683.51100168844</v>
+        <v>4860.592275221795</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4683.51100168844</v>
+        <v>4860.592275221795</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4683.51100168844</v>
+        <v>4860.592275221795</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4839.057877488948</v>
+        <v>4787.244078566331</v>
       </c>
       <c r="C19" t="n">
-        <v>4626.677967293115</v>
+        <v>4664.597811616692</v>
       </c>
       <c r="D19" t="n">
-        <v>70.92802973628568</v>
+        <v>70.10592585626918</v>
       </c>
       <c r="E19" t="n">
-        <v>9.843199836148697</v>
+        <v>9.798022022976166</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4839.057877488948</v>
+        <v>4787.244078566331</v>
       </c>
       <c r="C20" t="n">
-        <v>4626.677967293115</v>
+        <v>4664.597811616692</v>
       </c>
       <c r="D20" t="n">
-        <v>70.92802973628568</v>
+        <v>70.10592585626918</v>
       </c>
       <c r="E20" t="n">
-        <v>9.843199836148697</v>
+        <v>9.798022022976166</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4839.057877488948</v>
+        <v>4787.244078566331</v>
       </c>
       <c r="C21" t="n">
-        <v>4626.677967293115</v>
+        <v>4664.597811616692</v>
       </c>
       <c r="D21" t="n">
-        <v>70.92802973628568</v>
+        <v>70.10592585626918</v>
       </c>
       <c r="E21" t="n">
-        <v>9.843199836148697</v>
+        <v>9.798022022976166</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4839.057877488948</v>
+        <v>4787.244078566331</v>
       </c>
       <c r="C22" t="n">
-        <v>4626.677967293115</v>
+        <v>4664.597811616692</v>
       </c>
       <c r="D22" t="n">
-        <v>70.92802973628568</v>
+        <v>70.10592585626918</v>
       </c>
       <c r="E22" t="n">
-        <v>9.843199836148697</v>
+        <v>9.798022022976166</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4839.057877488948</v>
+        <v>4787.244078566331</v>
       </c>
       <c r="C23" t="n">
-        <v>4626.677967293115</v>
+        <v>4664.597811616692</v>
       </c>
       <c r="D23" t="n">
-        <v>70.92802973628568</v>
+        <v>70.10592585626918</v>
       </c>
       <c r="E23" t="n">
-        <v>9.843199836148697</v>
+        <v>9.798022022976166</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4839.057877488948</v>
+        <v>4787.244078566331</v>
       </c>
       <c r="C24" t="n">
-        <v>4626.677967293115</v>
+        <v>4664.597811616692</v>
       </c>
       <c r="D24" t="n">
-        <v>70.92802973628568</v>
+        <v>70.10592585626918</v>
       </c>
       <c r="E24" t="n">
-        <v>9.843199836148697</v>
+        <v>9.798022022976166</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4631.417946559151</v>
+        <v>4680.064226300763</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.645539293210916</v>
+        <v>9.821828516244381</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4631.417946559151</v>
+        <v>4680.064226300763</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.645539293210916</v>
+        <v>9.821828516244381</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4631.417946559151</v>
+        <v>4680.064226300763</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.645539293210916</v>
+        <v>9.821828516244381</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4631.417946559151</v>
+        <v>4680.064226300763</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.645539293210916</v>
+        <v>9.821828516244381</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4631.417946559151</v>
+        <v>4680.064226300763</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.645539293210916</v>
+        <v>9.821828516244381</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4631.417946559151</v>
+        <v>4680.064226300763</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.645539293210916</v>
+        <v>9.821828516244381</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C58" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C59" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C60" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C61" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C62" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C63" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C64" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C65" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4677.674716560658</v>
+        <v>4624.878528560991</v>
       </c>
       <c r="C66" t="n">
-        <v>4753.329114935626</v>
+        <v>4719.206960919864</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.770609170300318</v>
+        <v>9.895492168276732</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C85" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D85" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E85" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C86" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D86" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E86" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C87" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D87" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E87" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C88" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D88" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E88" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C89" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D89" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E89" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C90" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D90" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E90" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C91" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D91" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E91" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C92" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D92" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E92" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4780.598707696014</v>
+        <v>4801.82602173241</v>
       </c>
       <c r="C93" t="n">
-        <v>4779.603165470866</v>
+        <v>4804.955864853127</v>
       </c>
       <c r="D93" t="n">
-        <v>70.06526819645156</v>
+        <v>69.00911587639115</v>
       </c>
       <c r="E93" t="n">
-        <v>9.716970294341335</v>
+        <v>9.866907005745166</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E103" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E104" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E105" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E106" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E107" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E108" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E109" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E110" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4814.314521704255</v>
+        <v>4836.865150281459</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>69.79562399074905</v>
+        <v>69.50568478851669</v>
       </c>
       <c r="E111" t="n">
-        <v>9.814714254593207</v>
+        <v>9.800171786628614</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E112" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E113" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E114" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E115" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E116" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E117" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E118" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E119" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4711.076159305828</v>
+        <v>4896.175840747524</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>70.299106873887</v>
+        <v>69.84121302944499</v>
       </c>
       <c r="E120" t="n">
-        <v>9.735366253797233</v>
+        <v>9.75358431735855</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>69.1692098438894</v>
+        <v>69.33764372160591</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>69.1692098438894</v>
+        <v>69.33764372160591</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>69.1692098438894</v>
+        <v>69.33764372160591</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>69.1692098438894</v>
+        <v>69.33764372160591</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>69.1692098438894</v>
+        <v>69.33764372160591</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>69.1692098438894</v>
+        <v>69.33764372160591</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>69.1692098438894</v>
+        <v>69.33764372160591</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>69.1692098438894</v>
+        <v>69.33764372160591</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E138" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E139" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E140" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E141" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E142" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E143" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E144" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E145" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>5026.868679074029</v>
+        <v>4821.2544076873</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>71.38729089309685</v>
+        <v>70.31566426358658</v>
       </c>
       <c r="E146" t="n">
-        <v>9.746414877090851</v>
+        <v>9.759947431296299</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>69.29577814150051</v>
+        <v>70.34790484540649</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C156" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D156" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E156" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C157" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D157" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E157" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C158" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D158" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E158" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C159" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D159" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E159" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C160" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D160" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E160" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C161" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D161" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E161" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C162" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D162" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E162" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C163" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D163" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E163" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4699.703348968638</v>
+        <v>4846.789577755294</v>
       </c>
       <c r="C164" t="n">
-        <v>4721.432585145131</v>
+        <v>4819.713141926006</v>
       </c>
       <c r="D164" t="n">
-        <v>70.56738342854483</v>
+        <v>69.12443248303141</v>
       </c>
       <c r="E164" t="n">
-        <v>9.794660911334528</v>
+        <v>9.839289566692328</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E165" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E166" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E167" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E168" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E169" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E170" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E171" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E172" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4693.859951077419</v>
+        <v>4848.481771753519</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>70.4276446544568</v>
+        <v>69.07500336241064</v>
       </c>
       <c r="E173" t="n">
-        <v>9.805108698288656</v>
+        <v>9.843190007815886</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>70.48310754954016</v>
+        <v>70.3579515862469</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>69.14834357755022</v>
+        <v>69.48774017764606</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>69.14834357755022</v>
+        <v>69.48774017764606</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>69.14834357755022</v>
+        <v>69.48774017764606</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>69.14834357755022</v>
+        <v>69.48774017764606</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>69.14834357755022</v>
+        <v>69.48774017764606</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>69.14834357755022</v>
+        <v>69.48774017764606</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>69.14834357755022</v>
+        <v>69.48774017764606</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>69.14834357755022</v>
+        <v>69.48774017764606</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>70.76739386555974</v>
+        <v>69.30214145939526</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>70.0645918456255</v>
+        <v>69.68985221592726</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>68.99875063543611</v>
+        <v>70.35980194393854</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>68.99875063543611</v>
+        <v>70.35980194393854</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>68.99875063543611</v>
+        <v>70.35980194393854</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>68.99875063543611</v>
+        <v>70.35980194393854</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>68.99875063543611</v>
+        <v>70.35980194393854</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>68.99875063543611</v>
+        <v>70.35980194393854</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>68.99875063543611</v>
+        <v>70.35980194393854</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>68.99875063543611</v>
+        <v>70.35980194393854</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E217" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E218" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E219" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E220" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E221" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E222" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E223" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E224" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4722.154342200678</v>
+        <v>4873.799211658864</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>70.13698482122817</v>
+        <v>69.52922635358287</v>
       </c>
       <c r="E225" t="n">
-        <v>9.817683246131018</v>
+        <v>9.731812436834504</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E226" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E227" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E228" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E229" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E230" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E231" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E232" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E233" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4829.587448966923</v>
+        <v>4812.653572510094</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>68.20805000857821</v>
+        <v>69.54573327654467</v>
       </c>
       <c r="E234" t="n">
-        <v>9.785028149746704</v>
+        <v>9.719116980737404</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E235" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E236" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E237" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E238" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E239" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E240" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E241" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E242" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4789.955378705491</v>
+        <v>4808.56182739906</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>68.3992838929679</v>
+        <v>69.27208073038622</v>
       </c>
       <c r="E243" t="n">
-        <v>9.770268393344288</v>
+        <v>9.732818855562307</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>69.39314547812242</v>
+        <v>69.70283334397091</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>69.80741435571419</v>
+        <v>69.92944604699463</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>69.80741435571419</v>
+        <v>69.92944604699463</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>69.80741435571419</v>
+        <v>69.92944604699463</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>69.80741435571419</v>
+        <v>69.92944604699463</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>69.80741435571419</v>
+        <v>69.92944604699463</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>69.80741435571419</v>
+        <v>69.92944604699463</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>69.80741435571419</v>
+        <v>69.92944604699463</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>69.80741435571419</v>
+        <v>69.92944604699463</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>69.31162539273159</v>
+        <v>69.57448426204385</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>69.31162539273159</v>
+        <v>69.57448426204385</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>69.31162539273159</v>
+        <v>69.57448426204385</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>69.31162539273159</v>
+        <v>69.57448426204385</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>69.31162539273159</v>
+        <v>69.57448426204385</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>69.31162539273159</v>
+        <v>69.57448426204385</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>69.31162539273159</v>
+        <v>69.57448426204385</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>69.31162539273159</v>
+        <v>69.57448426204385</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>70.55584383030755</v>
+        <v>70.69453938878561</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E278" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E279" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E280" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E281" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E282" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E283" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E284" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E285" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4733.00441110782</v>
+        <v>4683.872270620002</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>70.60733375501924</v>
+        <v>69.59663179037699</v>
       </c>
       <c r="E286" t="n">
-        <v>9.798210349842353</v>
+        <v>9.803648753400926</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>69.57774547815502</v>
+        <v>69.90652041599269</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4570.798205893597</v>
+        <v>4558.052488723395</v>
       </c>
       <c r="C9" t="n">
-        <v>4754.810316352035</v>
+        <v>4688.505766208966</v>
       </c>
       <c r="D9" t="n">
-        <v>68.04176199652716</v>
+        <v>70.95123181206485</v>
       </c>
       <c r="E9" t="n">
-        <v>9.854248044393382</v>
+        <v>9.756575770691427</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4570.798205893597</v>
+        <v>4558.052488723395</v>
       </c>
       <c r="C10" t="n">
-        <v>4754.810316352035</v>
+        <v>4688.505766208966</v>
       </c>
       <c r="D10" t="n">
-        <v>68.04176199652716</v>
+        <v>70.95123181206485</v>
       </c>
       <c r="E10" t="n">
-        <v>9.854248044393382</v>
+        <v>9.756575770691427</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C11" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D11" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E11" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C12" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D12" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E12" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C13" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D13" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E13" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C14" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D14" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E14" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C15" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D15" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E15" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C16" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D16" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E16" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C17" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D17" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E17" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C18" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D18" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E18" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4630.489369612779</v>
+        <v>4651.012555475608</v>
       </c>
       <c r="C19" t="n">
-        <v>4661.815475546808</v>
+        <v>4755.00201929224</v>
       </c>
       <c r="D19" t="n">
-        <v>70.12603884779286</v>
+        <v>69.68712934573155</v>
       </c>
       <c r="E19" t="n">
-        <v>9.802641531214601</v>
+        <v>9.742128143426338</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4670.230274077422</v>
+        <v>4868.64704501205</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.780056926104411</v>
+        <v>9.858704375708555</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C38" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C39" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C40" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C41" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C42" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C43" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C44" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C45" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>5017.922941772096</v>
+        <v>4765.899862802326</v>
       </c>
       <c r="C46" t="n">
-        <v>4695.924709354438</v>
+        <v>4674.722086101579</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.814840709464828</v>
+        <v>9.779587923855974</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E47" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E48" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E49" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E50" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E51" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E52" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E53" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E54" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4554.419028141474</v>
+        <v>4660.440120756442</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>71.27358173416775</v>
+        <v>66.34262836285896</v>
       </c>
       <c r="E55" t="n">
-        <v>9.814804083527486</v>
+        <v>9.892789208188319</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4805.701244357576</v>
+        <v>4934.534857870441</v>
       </c>
       <c r="C8" t="n">
-        <v>4797.86434754584</v>
+        <v>4691.768361597475</v>
       </c>
       <c r="D8" t="n">
-        <v>70.41132394547911</v>
+        <v>70.26024485307643</v>
       </c>
       <c r="E8" t="n">
-        <v>9.786606948373603</v>
+        <v>9.785934100919855</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4805.701244357576</v>
+        <v>4934.534857870441</v>
       </c>
       <c r="C9" t="n">
-        <v>4797.86434754584</v>
+        <v>4691.768361597475</v>
       </c>
       <c r="D9" t="n">
-        <v>70.41132394547911</v>
+        <v>70.26024485307643</v>
       </c>
       <c r="E9" t="n">
-        <v>9.786606948373603</v>
+        <v>9.785934100919855</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4805.701244357576</v>
+        <v>4934.534857870441</v>
       </c>
       <c r="C10" t="n">
-        <v>4797.86434754584</v>
+        <v>4691.768361597475</v>
       </c>
       <c r="D10" t="n">
-        <v>70.41132394547911</v>
+        <v>70.26024485307643</v>
       </c>
       <c r="E10" t="n">
-        <v>9.786606948373603</v>
+        <v>9.785934100919855</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4805.701244357576</v>
+        <v>4934.534857870441</v>
       </c>
       <c r="C11" t="n">
-        <v>4797.86434754584</v>
+        <v>4691.768361597475</v>
       </c>
       <c r="D11" t="n">
-        <v>70.41132394547911</v>
+        <v>70.26024485307643</v>
       </c>
       <c r="E11" t="n">
-        <v>9.786606948373603</v>
+        <v>9.785934100919855</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4805.701244357576</v>
+        <v>4934.534857870441</v>
       </c>
       <c r="C12" t="n">
-        <v>4797.86434754584</v>
+        <v>4691.768361597475</v>
       </c>
       <c r="D12" t="n">
-        <v>70.41132394547911</v>
+        <v>70.26024485307643</v>
       </c>
       <c r="E12" t="n">
-        <v>9.786606948373603</v>
+        <v>9.785934100919855</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4805.701244357576</v>
+        <v>4934.534857870441</v>
       </c>
       <c r="C13" t="n">
-        <v>4797.86434754584</v>
+        <v>4691.768361597475</v>
       </c>
       <c r="D13" t="n">
-        <v>70.41132394547911</v>
+        <v>70.26024485307643</v>
       </c>
       <c r="E13" t="n">
-        <v>9.786606948373603</v>
+        <v>9.785934100919855</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C14" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D14" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E14" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C15" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D15" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E15" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C16" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D16" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E16" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C17" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D17" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E17" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C18" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D18" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E18" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C19" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D19" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E19" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C20" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D20" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E20" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C21" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D21" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E21" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4833.80415693435</v>
+        <v>4760.793853516659</v>
       </c>
       <c r="C22" t="n">
-        <v>4817.082446561964</v>
+        <v>4762.342189145493</v>
       </c>
       <c r="D22" t="n">
-        <v>69.70758340344808</v>
+        <v>69.5119347268657</v>
       </c>
       <c r="E22" t="n">
-        <v>9.766050704524721</v>
+        <v>9.85961155938497</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C41" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D41" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E41" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C42" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D42" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E42" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C43" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D43" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E43" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C44" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D44" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E44" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C45" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D45" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E45" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C46" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D46" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E46" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C47" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D47" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E47" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C48" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D48" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E48" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4868.29583813259</v>
+        <v>5017.711913025585</v>
       </c>
       <c r="C49" t="n">
-        <v>4729.796370767209</v>
+        <v>4691.989964663897</v>
       </c>
       <c r="D49" t="n">
-        <v>70.62540519657463</v>
+        <v>70.1074767049333</v>
       </c>
       <c r="E49" t="n">
-        <v>9.796605825273287</v>
+        <v>9.846449479385308</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C50" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D50" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E50" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C51" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D51" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E51" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C52" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D52" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E52" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C53" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D53" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E53" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C54" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D54" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E54" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C55" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D55" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E55" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C56" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D56" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E56" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C57" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D57" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E57" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4823.266534615296</v>
+        <v>4818.84329063614</v>
       </c>
       <c r="C58" t="n">
-        <v>4660.488055944435</v>
+        <v>4693.167283793895</v>
       </c>
       <c r="D58" t="n">
-        <v>70.2431272332736</v>
+        <v>69.75497718878857</v>
       </c>
       <c r="E58" t="n">
-        <v>9.811190781395272</v>
+        <v>9.840953684852</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E68" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E69" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E70" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E71" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E72" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E73" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E74" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E75" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>4870.67325692244</v>
+        <v>4751.069136729237</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>70.12732943578109</v>
+        <v>70.36732611293688</v>
       </c>
       <c r="E76" t="n">
-        <v>9.798477384796373</v>
+        <v>9.808353238579425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3723.819546776791</v>
+        <v>3613.449924884459</v>
       </c>
       <c r="C2" t="n">
-        <v>4714.223661215673</v>
+        <v>4756.534914546305</v>
       </c>
       <c r="D2" t="n">
-        <v>71.14464336195684</v>
+        <v>70.03814871808459</v>
       </c>
       <c r="E2" t="n">
-        <v>9.688172976103488</v>
+        <v>9.72027837378911</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3723.819546776791</v>
+        <v>3613.449924884459</v>
       </c>
       <c r="C3" t="n">
-        <v>4714.223661215673</v>
+        <v>4756.534914546305</v>
       </c>
       <c r="D3" t="n">
-        <v>71.14464336195684</v>
+        <v>70.03814871808459</v>
       </c>
       <c r="E3" t="n">
-        <v>9.688172976103488</v>
+        <v>9.72027837378911</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3723.819546776791</v>
+        <v>3613.449924884459</v>
       </c>
       <c r="C4" t="n">
-        <v>4714.223661215673</v>
+        <v>4756.534914546305</v>
       </c>
       <c r="D4" t="n">
-        <v>71.14464336195684</v>
+        <v>70.03814871808459</v>
       </c>
       <c r="E4" t="n">
-        <v>9.688172976103488</v>
+        <v>9.72027837378911</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3723.819546776791</v>
+        <v>3613.449924884459</v>
       </c>
       <c r="C5" t="n">
-        <v>4714.223661215673</v>
+        <v>4756.534914546305</v>
       </c>
       <c r="D5" t="n">
-        <v>71.14464336195684</v>
+        <v>70.03814871808459</v>
       </c>
       <c r="E5" t="n">
-        <v>9.688172976103488</v>
+        <v>9.72027837378911</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3723.819546776791</v>
+        <v>3613.449924884459</v>
       </c>
       <c r="C6" t="n">
-        <v>4714.223661215673</v>
+        <v>4756.534914546305</v>
       </c>
       <c r="D6" t="n">
-        <v>71.14464336195684</v>
+        <v>70.03814871808459</v>
       </c>
       <c r="E6" t="n">
-        <v>9.688172976103488</v>
+        <v>9.72027837378911</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3723.819546776791</v>
+        <v>3613.449924884459</v>
       </c>
       <c r="C7" t="n">
-        <v>4714.223661215673</v>
+        <v>4756.534914546305</v>
       </c>
       <c r="D7" t="n">
-        <v>71.14464336195684</v>
+        <v>70.03814871808459</v>
       </c>
       <c r="E7" t="n">
-        <v>9.688172976103488</v>
+        <v>9.72027837378911</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3723.819546776791</v>
+        <v>3613.449924884459</v>
       </c>
       <c r="C8" t="n">
-        <v>4714.223661215673</v>
+        <v>4756.534914546305</v>
       </c>
       <c r="D8" t="n">
-        <v>71.14464336195684</v>
+        <v>70.03814871808459</v>
       </c>
       <c r="E8" t="n">
-        <v>9.688172976103488</v>
+        <v>9.72027837378911</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E9" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E10" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E11" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E12" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E13" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E14" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E15" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E16" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3707.563387383587</v>
+        <v>3713.521485649747</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>67.93543976516384</v>
+        <v>71.50173146354726</v>
       </c>
       <c r="E17" t="n">
-        <v>9.815245793551588</v>
+        <v>9.816267994685907</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3800.739372155269</v>
+        <v>3676.633956136221</v>
       </c>
       <c r="C18" t="n">
-        <v>4769.923027982275</v>
+        <v>4758.478113915841</v>
       </c>
       <c r="D18" t="n">
-        <v>69.88797305730535</v>
+        <v>69.46399709128835</v>
       </c>
       <c r="E18" t="n">
-        <v>9.767494897008209</v>
+        <v>9.77129870593085</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3800.739372155269</v>
+        <v>3676.633956136221</v>
       </c>
       <c r="C19" t="n">
-        <v>4769.923027982275</v>
+        <v>4758.478113915841</v>
       </c>
       <c r="D19" t="n">
-        <v>69.88797305730535</v>
+        <v>69.46399709128835</v>
       </c>
       <c r="E19" t="n">
-        <v>9.767494897008209</v>
+        <v>9.77129870593085</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3800.739372155269</v>
+        <v>3676.633956136221</v>
       </c>
       <c r="C20" t="n">
-        <v>4769.923027982275</v>
+        <v>4758.478113915841</v>
       </c>
       <c r="D20" t="n">
-        <v>69.88797305730535</v>
+        <v>69.46399709128835</v>
       </c>
       <c r="E20" t="n">
-        <v>9.767494897008209</v>
+        <v>9.77129870593085</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3800.739372155269</v>
+        <v>3676.633956136221</v>
       </c>
       <c r="C21" t="n">
-        <v>4769.923027982275</v>
+        <v>4758.478113915841</v>
       </c>
       <c r="D21" t="n">
-        <v>69.88797305730535</v>
+        <v>69.46399709128835</v>
       </c>
       <c r="E21" t="n">
-        <v>9.767494897008209</v>
+        <v>9.77129870593085</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3800.739372155269</v>
+        <v>3676.633956136221</v>
       </c>
       <c r="C22" t="n">
-        <v>4769.923027982275</v>
+        <v>4758.478113915841</v>
       </c>
       <c r="D22" t="n">
-        <v>69.88797305730535</v>
+        <v>69.46399709128835</v>
       </c>
       <c r="E22" t="n">
-        <v>9.767494897008209</v>
+        <v>9.77129870593085</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3800.739372155269</v>
+        <v>3676.633956136221</v>
       </c>
       <c r="C23" t="n">
-        <v>4769.923027982275</v>
+        <v>4758.478113915841</v>
       </c>
       <c r="D23" t="n">
-        <v>69.88797305730535</v>
+        <v>69.46399709128835</v>
       </c>
       <c r="E23" t="n">
-        <v>9.767494897008209</v>
+        <v>9.77129870593085</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3800.739372155269</v>
+        <v>3676.633956136221</v>
       </c>
       <c r="C24" t="n">
-        <v>4769.923027982275</v>
+        <v>4758.478113915841</v>
       </c>
       <c r="D24" t="n">
-        <v>69.88797305730535</v>
+        <v>69.46399709128835</v>
       </c>
       <c r="E24" t="n">
-        <v>9.767494897008209</v>
+        <v>9.77129870593085</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3800.739372155269</v>
+        <v>3676.633956136221</v>
       </c>
       <c r="C25" t="n">
-        <v>4769.923027982275</v>
+        <v>4758.478113915841</v>
       </c>
       <c r="D25" t="n">
-        <v>69.88797305730535</v>
+        <v>69.46399709128835</v>
       </c>
       <c r="E25" t="n">
-        <v>9.767494897008209</v>
+        <v>9.77129870593085</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E34" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E35" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E36" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E37" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E38" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E39" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E40" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E41" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3749.246780061826</v>
+        <v>3745.29489799229</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>70.53673739116348</v>
+        <v>70.12413051136262</v>
       </c>
       <c r="E42" t="n">
-        <v>9.748201003826589</v>
+        <v>9.904060871088198</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3564.520582055133</v>
+        <v>3501.778276070294</v>
       </c>
       <c r="C43" t="n">
-        <v>4639.380753639932</v>
+        <v>4805.694363996075</v>
       </c>
       <c r="D43" t="n">
-        <v>70.44244164425717</v>
+        <v>68.94321060871775</v>
       </c>
       <c r="E43" t="n">
-        <v>9.833924774167823</v>
+        <v>9.800011611217764</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3564.520582055133</v>
+        <v>3501.778276070294</v>
       </c>
       <c r="C44" t="n">
-        <v>4639.380753639932</v>
+        <v>4805.694363996075</v>
       </c>
       <c r="D44" t="n">
-        <v>70.44244164425717</v>
+        <v>68.94321060871775</v>
       </c>
       <c r="E44" t="n">
-        <v>9.833924774167823</v>
+        <v>9.800011611217764</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3564.520582055133</v>
+        <v>3501.778276070294</v>
       </c>
       <c r="C45" t="n">
-        <v>4639.380753639932</v>
+        <v>4805.694363996075</v>
       </c>
       <c r="D45" t="n">
-        <v>70.44244164425717</v>
+        <v>68.94321060871775</v>
       </c>
       <c r="E45" t="n">
-        <v>9.833924774167823</v>
+        <v>9.800011611217764</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3564.520582055133</v>
+        <v>3501.778276070294</v>
       </c>
       <c r="C46" t="n">
-        <v>4639.380753639932</v>
+        <v>4805.694363996075</v>
       </c>
       <c r="D46" t="n">
-        <v>70.44244164425717</v>
+        <v>68.94321060871775</v>
       </c>
       <c r="E46" t="n">
-        <v>9.833924774167823</v>
+        <v>9.800011611217764</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3564.520582055133</v>
+        <v>3501.778276070294</v>
       </c>
       <c r="C47" t="n">
-        <v>4639.380753639932</v>
+        <v>4805.694363996075</v>
       </c>
       <c r="D47" t="n">
-        <v>70.44244164425717</v>
+        <v>68.94321060871775</v>
       </c>
       <c r="E47" t="n">
-        <v>9.833924774167823</v>
+        <v>9.800011611217764</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3564.520582055133</v>
+        <v>3501.778276070294</v>
       </c>
       <c r="C48" t="n">
-        <v>4639.380753639932</v>
+        <v>4805.694363996075</v>
       </c>
       <c r="D48" t="n">
-        <v>70.44244164425717</v>
+        <v>68.94321060871775</v>
       </c>
       <c r="E48" t="n">
-        <v>9.833924774167823</v>
+        <v>9.800011611217764</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3564.520582055133</v>
+        <v>3501.778276070294</v>
       </c>
       <c r="C49" t="n">
-        <v>4639.380753639932</v>
+        <v>4805.694363996075</v>
       </c>
       <c r="D49" t="n">
-        <v>70.44244164425717</v>
+        <v>68.94321060871775</v>
       </c>
       <c r="E49" t="n">
-        <v>9.833924774167823</v>
+        <v>9.800011611217764</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3564.520582055133</v>
+        <v>3501.778276070294</v>
       </c>
       <c r="C50" t="n">
-        <v>4639.380753639932</v>
+        <v>4805.694363996075</v>
       </c>
       <c r="D50" t="n">
-        <v>70.44244164425717</v>
+        <v>68.94321060871775</v>
       </c>
       <c r="E50" t="n">
-        <v>9.833924774167823</v>
+        <v>9.800011611217764</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3654.153928790168</v>
+        <v>3638.699761851298</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>68.80688309395097</v>
+        <v>69.37126392102736</v>
       </c>
       <c r="E59" t="n">
-        <v>9.777903873602469</v>
+        <v>9.792909332585465</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3654.153928790168</v>
+        <v>3638.699761851298</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>68.80688309395097</v>
+        <v>69.37126392102736</v>
       </c>
       <c r="E60" t="n">
-        <v>9.777903873602469</v>
+        <v>9.792909332585465</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3654.153928790168</v>
+        <v>3638.699761851298</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>68.80688309395097</v>
+        <v>69.37126392102736</v>
       </c>
       <c r="E61" t="n">
-        <v>9.777903873602469</v>
+        <v>9.792909332585465</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3654.153928790168</v>
+        <v>3638.699761851298</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>68.80688309395097</v>
+        <v>69.37126392102736</v>
       </c>
       <c r="E62" t="n">
-        <v>9.777903873602469</v>
+        <v>9.792909332585465</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3654.153928790168</v>
+        <v>3638.699761851298</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>68.80688309395097</v>
+        <v>69.37126392102736</v>
       </c>
       <c r="E63" t="n">
-        <v>9.777903873602469</v>
+        <v>9.792909332585465</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3654.153928790168</v>
+        <v>3638.699761851298</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>68.80688309395097</v>
+        <v>69.37126392102736</v>
       </c>
       <c r="E64" t="n">
-        <v>9.777903873602469</v>
+        <v>9.792909332585465</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3654.153928790168</v>
+        <v>3638.699761851298</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>68.80688309395097</v>
+        <v>69.37126392102736</v>
       </c>
       <c r="E65" t="n">
-        <v>9.777903873602469</v>
+        <v>9.792909332585465</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3654.153928790168</v>
+        <v>3638.699761851298</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>68.80688309395097</v>
+        <v>69.37126392102736</v>
       </c>
       <c r="E66" t="n">
-        <v>9.777903873602469</v>
+        <v>9.792909332585465</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C67" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D67" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E67" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C68" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D68" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E68" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C69" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D69" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E69" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C70" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D70" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E70" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C71" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D71" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E71" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C72" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D72" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E72" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C73" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D73" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E73" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C74" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D74" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E74" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3726.271347084654</v>
+        <v>3700.705311800019</v>
       </c>
       <c r="C75" t="n">
-        <v>4663.478735667255</v>
+        <v>4654.996148561227</v>
       </c>
       <c r="D75" t="n">
-        <v>69.4367299417582</v>
+        <v>71.20014658726382</v>
       </c>
       <c r="E75" t="n">
-        <v>9.852241960613997</v>
+        <v>9.687729734078706</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E76" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E77" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E78" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E79" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E80" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E81" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E82" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E83" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3699.144826949875</v>
+        <v>3781.363722294803</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>70.10245174137303</v>
+        <v>70.74102966199469</v>
       </c>
       <c r="E84" t="n">
-        <v>9.878635958722981</v>
+        <v>9.840785716452652</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3619.087755127303</v>
+        <v>3732.030264547452</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3676.745409503125</v>
+        <v>3669.237859672644</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>69.61428551496226</v>
+        <v>69.69173120893201</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C2" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D2" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E2" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C3" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D3" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E3" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C4" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D4" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E4" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C5" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D5" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E5" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C6" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D6" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E6" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C7" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D7" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E7" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C8" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D8" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E8" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C9" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D9" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E9" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4767.019985391617</v>
+        <v>4799.799869396912</v>
       </c>
       <c r="C10" t="n">
-        <v>4649.903031870809</v>
+        <v>4763.486449222351</v>
       </c>
       <c r="D10" t="n">
-        <v>69.96403821909774</v>
+        <v>69.20454797578286</v>
       </c>
       <c r="E10" t="n">
-        <v>9.782329934486258</v>
+        <v>9.765631237247122</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4860.592275221795</v>
+        <v>4717.48076422784</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4860.592275221795</v>
+        <v>4717.48076422784</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4860.592275221795</v>
+        <v>4717.48076422784</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4860.592275221795</v>
+        <v>4717.48076422784</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4860.592275221795</v>
+        <v>4717.48076422784</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4860.592275221795</v>
+        <v>4717.48076422784</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4860.592275221795</v>
+        <v>4717.48076422784</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4860.592275221795</v>
+        <v>4717.48076422784</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4787.244078566331</v>
+        <v>4634.963750984746</v>
       </c>
       <c r="C19" t="n">
-        <v>4664.597811616692</v>
+        <v>4727.798910200396</v>
       </c>
       <c r="D19" t="n">
-        <v>70.10592585626918</v>
+        <v>69.86798301499529</v>
       </c>
       <c r="E19" t="n">
-        <v>9.798022022976166</v>
+        <v>9.796501400824583</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4787.244078566331</v>
+        <v>4634.963750984746</v>
       </c>
       <c r="C20" t="n">
-        <v>4664.597811616692</v>
+        <v>4727.798910200396</v>
       </c>
       <c r="D20" t="n">
-        <v>70.10592585626918</v>
+        <v>69.86798301499529</v>
       </c>
       <c r="E20" t="n">
-        <v>9.798022022976166</v>
+        <v>9.796501400824583</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4787.244078566331</v>
+        <v>4634.963750984746</v>
       </c>
       <c r="C21" t="n">
-        <v>4664.597811616692</v>
+        <v>4727.798910200396</v>
       </c>
       <c r="D21" t="n">
-        <v>70.10592585626918</v>
+        <v>69.86798301499529</v>
       </c>
       <c r="E21" t="n">
-        <v>9.798022022976166</v>
+        <v>9.796501400824583</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4787.244078566331</v>
+        <v>4634.963750984746</v>
       </c>
       <c r="C22" t="n">
-        <v>4664.597811616692</v>
+        <v>4727.798910200396</v>
       </c>
       <c r="D22" t="n">
-        <v>70.10592585626918</v>
+        <v>69.86798301499529</v>
       </c>
       <c r="E22" t="n">
-        <v>9.798022022976166</v>
+        <v>9.796501400824583</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4787.244078566331</v>
+        <v>4634.963750984746</v>
       </c>
       <c r="C23" t="n">
-        <v>4664.597811616692</v>
+        <v>4727.798910200396</v>
       </c>
       <c r="D23" t="n">
-        <v>70.10592585626918</v>
+        <v>69.86798301499529</v>
       </c>
       <c r="E23" t="n">
-        <v>9.798022022976166</v>
+        <v>9.796501400824583</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4787.244078566331</v>
+        <v>4634.963750984746</v>
       </c>
       <c r="C24" t="n">
-        <v>4664.597811616692</v>
+        <v>4727.798910200396</v>
       </c>
       <c r="D24" t="n">
-        <v>70.10592585626918</v>
+        <v>69.86798301499529</v>
       </c>
       <c r="E24" t="n">
-        <v>9.798022022976166</v>
+        <v>9.796501400824583</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4680.064226300763</v>
+        <v>4902.966652581226</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.821828516244381</v>
+        <v>9.812278387465815</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4680.064226300763</v>
+        <v>4902.966652581226</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.821828516244381</v>
+        <v>9.812278387465815</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4680.064226300763</v>
+        <v>4902.966652581226</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.821828516244381</v>
+        <v>9.812278387465815</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4680.064226300763</v>
+        <v>4902.966652581226</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.821828516244381</v>
+        <v>9.812278387465815</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4680.064226300763</v>
+        <v>4902.966652581226</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.821828516244381</v>
+        <v>9.812278387465815</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4680.064226300763</v>
+        <v>4902.966652581226</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.821828516244381</v>
+        <v>9.812278387465815</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C58" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C59" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C60" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C61" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C62" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C63" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C64" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C65" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4624.878528560991</v>
+        <v>4820.297675762169</v>
       </c>
       <c r="C66" t="n">
-        <v>4719.206960919864</v>
+        <v>4740.660750781546</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.895492168276732</v>
+        <v>9.836625493224169</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C85" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D85" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E85" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C86" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D86" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E86" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C87" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D87" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E87" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C88" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D88" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E88" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C89" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D89" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E89" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C90" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D90" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E90" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C91" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D91" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E91" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C92" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D92" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E92" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4801.82602173241</v>
+        <v>4667.026368414729</v>
       </c>
       <c r="C93" t="n">
-        <v>4804.955864853127</v>
+        <v>4715.539050498968</v>
       </c>
       <c r="D93" t="n">
-        <v>69.00911587639115</v>
+        <v>70.83794351726766</v>
       </c>
       <c r="E93" t="n">
-        <v>9.866907005745166</v>
+        <v>9.774201457238865</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E103" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E104" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E105" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E106" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E107" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E108" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E109" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E110" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4836.865150281459</v>
+        <v>4674.588290676559</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>69.50568478851669</v>
+        <v>68.90989750822969</v>
       </c>
       <c r="E111" t="n">
-        <v>9.800171786628614</v>
+        <v>9.752696277088852</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E112" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E113" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E114" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E115" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E116" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E117" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E118" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E119" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4896.175840747524</v>
+        <v>4927.677640363723</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>69.84121302944499</v>
+        <v>70.04905648308463</v>
       </c>
       <c r="E120" t="n">
-        <v>9.75358431735855</v>
+        <v>9.703571135570906</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>69.33764372160591</v>
+        <v>68.90711572064932</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>69.33764372160591</v>
+        <v>68.90711572064932</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>69.33764372160591</v>
+        <v>68.90711572064932</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>69.33764372160591</v>
+        <v>68.90711572064932</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>69.33764372160591</v>
+        <v>68.90711572064932</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>69.33764372160591</v>
+        <v>68.90711572064932</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>69.33764372160591</v>
+        <v>68.90711572064932</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>69.33764372160591</v>
+        <v>68.90711572064932</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E138" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E139" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E140" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E141" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E142" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E143" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E144" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E145" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4821.2544076873</v>
+        <v>4674.00384499438</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>70.31566426358658</v>
+        <v>70.49274273268966</v>
       </c>
       <c r="E146" t="n">
-        <v>9.759947431296299</v>
+        <v>9.8269004950834</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>70.34790484540649</v>
+        <v>68.92706517047984</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C156" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D156" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E156" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C157" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D157" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E157" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C158" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D158" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E158" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C159" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D159" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E159" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C160" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D160" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E160" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C161" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D161" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E161" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C162" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D162" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E162" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C163" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D163" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E163" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4846.789577755294</v>
+        <v>4940.362121933632</v>
       </c>
       <c r="C164" t="n">
-        <v>4819.713141926006</v>
+        <v>4611.380563806274</v>
       </c>
       <c r="D164" t="n">
-        <v>69.12443248303141</v>
+        <v>69.18661522733369</v>
       </c>
       <c r="E164" t="n">
-        <v>9.839289566692328</v>
+        <v>9.751662295022468</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E165" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E166" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E167" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E168" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E169" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E170" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E171" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E172" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4848.481771753519</v>
+        <v>4718.26204343491</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>69.07500336241064</v>
+        <v>70.88119151760975</v>
       </c>
       <c r="E173" t="n">
-        <v>9.843190007815886</v>
+        <v>9.799267569073956</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>70.3579515862469</v>
+        <v>69.39673194473158</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>69.48774017764606</v>
+        <v>70.05115800494431</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>69.48774017764606</v>
+        <v>70.05115800494431</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>69.48774017764606</v>
+        <v>70.05115800494431</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>69.48774017764606</v>
+        <v>70.05115800494431</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>69.48774017764606</v>
+        <v>70.05115800494431</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>69.48774017764606</v>
+        <v>70.05115800494431</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>69.48774017764606</v>
+        <v>70.05115800494431</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>69.48774017764606</v>
+        <v>70.05115800494431</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>69.30214145939526</v>
+        <v>69.78137743548827</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>69.68985221592726</v>
+        <v>68.7373230217562</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>70.35980194393854</v>
+        <v>71.02682770632141</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>70.35980194393854</v>
+        <v>71.02682770632141</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>70.35980194393854</v>
+        <v>71.02682770632141</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>70.35980194393854</v>
+        <v>71.02682770632141</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>70.35980194393854</v>
+        <v>71.02682770632141</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>70.35980194393854</v>
+        <v>71.02682770632141</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>70.35980194393854</v>
+        <v>71.02682770632141</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>70.35980194393854</v>
+        <v>71.02682770632141</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E217" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E218" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E219" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E220" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E221" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E222" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E223" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E224" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4873.799211658864</v>
+        <v>4641.183459237048</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>69.52922635358287</v>
+        <v>69.26828358287143</v>
       </c>
       <c r="E225" t="n">
-        <v>9.731812436834504</v>
+        <v>9.756966759223104</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E226" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E227" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E228" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E229" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E230" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E231" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E232" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E233" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4812.653572510094</v>
+        <v>4753.743208113791</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>69.54573327654467</v>
+        <v>69.89897750362228</v>
       </c>
       <c r="E234" t="n">
-        <v>9.719116980737404</v>
+        <v>9.803613708017036</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E235" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E236" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E237" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E238" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E239" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E240" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E241" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E242" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4808.56182739906</v>
+        <v>4758.928951548136</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>69.27208073038622</v>
+        <v>70.38215296759718</v>
       </c>
       <c r="E243" t="n">
-        <v>9.732818855562307</v>
+        <v>9.739883314025011</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>69.70283334397091</v>
+        <v>69.57000866498663</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>69.92944604699463</v>
+        <v>70.09816836873195</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>69.92944604699463</v>
+        <v>70.09816836873195</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>69.92944604699463</v>
+        <v>70.09816836873195</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>69.92944604699463</v>
+        <v>70.09816836873195</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>69.92944604699463</v>
+        <v>70.09816836873195</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>69.92944604699463</v>
+        <v>70.09816836873195</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>69.92944604699463</v>
+        <v>70.09816836873195</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>69.92944604699463</v>
+        <v>70.09816836873195</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>69.57448426204385</v>
+        <v>69.01929684474128</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>69.57448426204385</v>
+        <v>69.01929684474128</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>69.57448426204385</v>
+        <v>69.01929684474128</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>69.57448426204385</v>
+        <v>69.01929684474128</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>69.57448426204385</v>
+        <v>69.01929684474128</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>69.57448426204385</v>
+        <v>69.01929684474128</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>69.57448426204385</v>
+        <v>69.01929684474128</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>69.57448426204385</v>
+        <v>69.01929684474128</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>70.69453938878561</v>
+        <v>69.84922267791083</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E278" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E279" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E280" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E281" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E282" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E283" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E284" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E285" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4683.872270620002</v>
+        <v>4608.480586525514</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>69.59663179037699</v>
+        <v>70.84458327238713</v>
       </c>
       <c r="E286" t="n">
-        <v>9.803648753400926</v>
+        <v>9.807785170747721</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>69.90652041599269</v>
+        <v>69.37819771660401</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4558.052488723395</v>
+        <v>4756.555343712261</v>
       </c>
       <c r="C9" t="n">
-        <v>4688.505766208966</v>
+        <v>4644.227103832029</v>
       </c>
       <c r="D9" t="n">
-        <v>70.95123181206485</v>
+        <v>70.69461543586092</v>
       </c>
       <c r="E9" t="n">
-        <v>9.756575770691427</v>
+        <v>9.854561280900842</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4558.052488723395</v>
+        <v>4756.555343712261</v>
       </c>
       <c r="C10" t="n">
-        <v>4688.505766208966</v>
+        <v>4644.227103832029</v>
       </c>
       <c r="D10" t="n">
-        <v>70.95123181206485</v>
+        <v>70.69461543586092</v>
       </c>
       <c r="E10" t="n">
-        <v>9.756575770691427</v>
+        <v>9.854561280900842</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C11" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D11" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E11" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C12" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D12" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E12" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C13" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D13" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E13" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C14" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D14" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E14" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C15" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D15" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E15" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C16" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D16" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E16" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C17" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D17" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E17" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C18" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D18" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E18" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4651.012555475608</v>
+        <v>4831.49051595951</v>
       </c>
       <c r="C19" t="n">
-        <v>4755.00201929224</v>
+        <v>4756.159692270035</v>
       </c>
       <c r="D19" t="n">
-        <v>69.68712934573155</v>
+        <v>67.7098134861513</v>
       </c>
       <c r="E19" t="n">
-        <v>9.742128143426338</v>
+        <v>9.760737591100137</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4868.64704501205</v>
+        <v>4831.757820057134</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.858704375708555</v>
+        <v>9.762157740922245</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C38" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C39" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C40" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C41" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C42" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C43" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C44" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C45" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4765.899862802326</v>
+        <v>4840.530040606756</v>
       </c>
       <c r="C46" t="n">
-        <v>4674.722086101579</v>
+        <v>4798.395362307313</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.779587923855974</v>
+        <v>9.798854054738639</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E47" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E48" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E49" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E50" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E51" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E52" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E53" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E54" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4660.440120756442</v>
+        <v>4684.563319235732</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>66.34262836285896</v>
+        <v>67.37088351643908</v>
       </c>
       <c r="E55" t="n">
-        <v>9.892789208188319</v>
+        <v>9.845098030325309</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4934.534857870441</v>
+        <v>4810.786173092448</v>
       </c>
       <c r="C8" t="n">
-        <v>4691.768361597475</v>
+        <v>4736.050231333369</v>
       </c>
       <c r="D8" t="n">
-        <v>70.26024485307643</v>
+        <v>69.89362402429724</v>
       </c>
       <c r="E8" t="n">
-        <v>9.785934100919855</v>
+        <v>9.812697819799663</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4934.534857870441</v>
+        <v>4810.786173092448</v>
       </c>
       <c r="C9" t="n">
-        <v>4691.768361597475</v>
+        <v>4736.050231333369</v>
       </c>
       <c r="D9" t="n">
-        <v>70.26024485307643</v>
+        <v>69.89362402429724</v>
       </c>
       <c r="E9" t="n">
-        <v>9.785934100919855</v>
+        <v>9.812697819799663</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4934.534857870441</v>
+        <v>4810.786173092448</v>
       </c>
       <c r="C10" t="n">
-        <v>4691.768361597475</v>
+        <v>4736.050231333369</v>
       </c>
       <c r="D10" t="n">
-        <v>70.26024485307643</v>
+        <v>69.89362402429724</v>
       </c>
       <c r="E10" t="n">
-        <v>9.785934100919855</v>
+        <v>9.812697819799663</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4934.534857870441</v>
+        <v>4810.786173092448</v>
       </c>
       <c r="C11" t="n">
-        <v>4691.768361597475</v>
+        <v>4736.050231333369</v>
       </c>
       <c r="D11" t="n">
-        <v>70.26024485307643</v>
+        <v>69.89362402429724</v>
       </c>
       <c r="E11" t="n">
-        <v>9.785934100919855</v>
+        <v>9.812697819799663</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4934.534857870441</v>
+        <v>4810.786173092448</v>
       </c>
       <c r="C12" t="n">
-        <v>4691.768361597475</v>
+        <v>4736.050231333369</v>
       </c>
       <c r="D12" t="n">
-        <v>70.26024485307643</v>
+        <v>69.89362402429724</v>
       </c>
       <c r="E12" t="n">
-        <v>9.785934100919855</v>
+        <v>9.812697819799663</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4934.534857870441</v>
+        <v>4810.786173092448</v>
       </c>
       <c r="C13" t="n">
-        <v>4691.768361597475</v>
+        <v>4736.050231333369</v>
       </c>
       <c r="D13" t="n">
-        <v>70.26024485307643</v>
+        <v>69.89362402429724</v>
       </c>
       <c r="E13" t="n">
-        <v>9.785934100919855</v>
+        <v>9.812697819799663</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C14" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D14" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E14" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C15" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D15" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E15" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C16" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D16" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E16" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C17" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D17" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E17" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C18" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D18" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E18" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C19" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D19" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E19" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C20" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D20" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E20" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C21" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D21" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E21" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4760.793853516659</v>
+        <v>4896.068154355868</v>
       </c>
       <c r="C22" t="n">
-        <v>4762.342189145493</v>
+        <v>4751.997758209242</v>
       </c>
       <c r="D22" t="n">
-        <v>69.5119347268657</v>
+        <v>69.43025314189929</v>
       </c>
       <c r="E22" t="n">
-        <v>9.85961155938497</v>
+        <v>9.76620217573239</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C41" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D41" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E41" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C42" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D42" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E42" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C43" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D43" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E43" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C44" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D44" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E44" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C45" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D45" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E45" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C46" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D46" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E46" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C47" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D47" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E47" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C48" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D48" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E48" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>5017.711913025585</v>
+        <v>4889.600567783202</v>
       </c>
       <c r="C49" t="n">
-        <v>4691.989964663897</v>
+        <v>4672.343642945322</v>
       </c>
       <c r="D49" t="n">
-        <v>70.1074767049333</v>
+        <v>69.65173484398753</v>
       </c>
       <c r="E49" t="n">
-        <v>9.846449479385308</v>
+        <v>9.782975892127197</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C50" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D50" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E50" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C51" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D51" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E51" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C52" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D52" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E52" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C53" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D53" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E53" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C54" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D54" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E54" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C55" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D55" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E55" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C56" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D56" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E56" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C57" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D57" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E57" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4818.84329063614</v>
+        <v>4844.309530225283</v>
       </c>
       <c r="C58" t="n">
-        <v>4693.167283793895</v>
+        <v>4705.517738817447</v>
       </c>
       <c r="D58" t="n">
-        <v>69.75497718878857</v>
+        <v>69.50745406907329</v>
       </c>
       <c r="E58" t="n">
-        <v>9.840953684852</v>
+        <v>9.780286133307859</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E68" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E69" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E70" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E71" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E72" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E73" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E74" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E75" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>4751.069136729237</v>
+        <v>4685.933201355101</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>70.36732611293688</v>
+        <v>70.09493217623618</v>
       </c>
       <c r="E76" t="n">
-        <v>9.808353238579425</v>
+        <v>9.774691709456912</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1011" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1012" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1013" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1014" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1011" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1013" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1014" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3613.449924884459</v>
+        <v>3529.722277963507</v>
       </c>
       <c r="C2" t="n">
-        <v>4756.534914546305</v>
+        <v>4649.383221311257</v>
       </c>
       <c r="D2" t="n">
-        <v>70.03814871808459</v>
+        <v>70.19894318701971</v>
       </c>
       <c r="E2" t="n">
-        <v>9.72027837378911</v>
+        <v>9.742948808167663</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3613.449924884459</v>
+        <v>3529.722277963507</v>
       </c>
       <c r="C3" t="n">
-        <v>4756.534914546305</v>
+        <v>4649.383221311257</v>
       </c>
       <c r="D3" t="n">
-        <v>70.03814871808459</v>
+        <v>70.19894318701971</v>
       </c>
       <c r="E3" t="n">
-        <v>9.72027837378911</v>
+        <v>9.742948808167663</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3613.449924884459</v>
+        <v>3529.722277963507</v>
       </c>
       <c r="C4" t="n">
-        <v>4756.534914546305</v>
+        <v>4649.383221311257</v>
       </c>
       <c r="D4" t="n">
-        <v>70.03814871808459</v>
+        <v>70.19894318701971</v>
       </c>
       <c r="E4" t="n">
-        <v>9.72027837378911</v>
+        <v>9.742948808167663</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3613.449924884459</v>
+        <v>3529.722277963507</v>
       </c>
       <c r="C5" t="n">
-        <v>4756.534914546305</v>
+        <v>4649.383221311257</v>
       </c>
       <c r="D5" t="n">
-        <v>70.03814871808459</v>
+        <v>70.19894318701971</v>
       </c>
       <c r="E5" t="n">
-        <v>9.72027837378911</v>
+        <v>9.742948808167663</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3613.449924884459</v>
+        <v>3529.722277963507</v>
       </c>
       <c r="C6" t="n">
-        <v>4756.534914546305</v>
+        <v>4649.383221311257</v>
       </c>
       <c r="D6" t="n">
-        <v>70.03814871808459</v>
+        <v>70.19894318701971</v>
       </c>
       <c r="E6" t="n">
-        <v>9.72027837378911</v>
+        <v>9.742948808167663</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3613.449924884459</v>
+        <v>3529.722277963507</v>
       </c>
       <c r="C7" t="n">
-        <v>4756.534914546305</v>
+        <v>4649.383221311257</v>
       </c>
       <c r="D7" t="n">
-        <v>70.03814871808459</v>
+        <v>70.19894318701971</v>
       </c>
       <c r="E7" t="n">
-        <v>9.72027837378911</v>
+        <v>9.742948808167663</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3613.449924884459</v>
+        <v>3529.722277963507</v>
       </c>
       <c r="C8" t="n">
-        <v>4756.534914546305</v>
+        <v>4649.383221311257</v>
       </c>
       <c r="D8" t="n">
-        <v>70.03814871808459</v>
+        <v>70.19894318701971</v>
       </c>
       <c r="E8" t="n">
-        <v>9.72027837378911</v>
+        <v>9.742948808167663</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E9" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E10" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E11" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E12" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E14" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E15" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E16" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3713.521485649747</v>
+        <v>3767.226101057803</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>71.50173146354726</v>
+        <v>70.52260221177333</v>
       </c>
       <c r="E17" t="n">
-        <v>9.816267994685907</v>
+        <v>9.791279704306003</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3676.633956136221</v>
+        <v>3676.337062947</v>
       </c>
       <c r="C18" t="n">
-        <v>4758.478113915841</v>
+        <v>4762.582629131021</v>
       </c>
       <c r="D18" t="n">
-        <v>69.46399709128835</v>
+        <v>69.95039471902673</v>
       </c>
       <c r="E18" t="n">
-        <v>9.77129870593085</v>
+        <v>9.750715857725053</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3676.633956136221</v>
+        <v>3676.337062947</v>
       </c>
       <c r="C19" t="n">
-        <v>4758.478113915841</v>
+        <v>4762.582629131021</v>
       </c>
       <c r="D19" t="n">
-        <v>69.46399709128835</v>
+        <v>69.95039471902673</v>
       </c>
       <c r="E19" t="n">
-        <v>9.77129870593085</v>
+        <v>9.750715857725053</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3676.633956136221</v>
+        <v>3676.337062947</v>
       </c>
       <c r="C20" t="n">
-        <v>4758.478113915841</v>
+        <v>4762.582629131021</v>
       </c>
       <c r="D20" t="n">
-        <v>69.46399709128835</v>
+        <v>69.95039471902673</v>
       </c>
       <c r="E20" t="n">
-        <v>9.77129870593085</v>
+        <v>9.750715857725053</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3676.633956136221</v>
+        <v>3676.337062947</v>
       </c>
       <c r="C21" t="n">
-        <v>4758.478113915841</v>
+        <v>4762.582629131021</v>
       </c>
       <c r="D21" t="n">
-        <v>69.46399709128835</v>
+        <v>69.95039471902673</v>
       </c>
       <c r="E21" t="n">
-        <v>9.77129870593085</v>
+        <v>9.750715857725053</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3676.633956136221</v>
+        <v>3676.337062947</v>
       </c>
       <c r="C22" t="n">
-        <v>4758.478113915841</v>
+        <v>4762.582629131021</v>
       </c>
       <c r="D22" t="n">
-        <v>69.46399709128835</v>
+        <v>69.95039471902673</v>
       </c>
       <c r="E22" t="n">
-        <v>9.77129870593085</v>
+        <v>9.750715857725053</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3676.633956136221</v>
+        <v>3676.337062947</v>
       </c>
       <c r="C23" t="n">
-        <v>4758.478113915841</v>
+        <v>4762.582629131021</v>
       </c>
       <c r="D23" t="n">
-        <v>69.46399709128835</v>
+        <v>69.95039471902673</v>
       </c>
       <c r="E23" t="n">
-        <v>9.77129870593085</v>
+        <v>9.750715857725053</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3676.633956136221</v>
+        <v>3676.337062947</v>
       </c>
       <c r="C24" t="n">
-        <v>4758.478113915841</v>
+        <v>4762.582629131021</v>
       </c>
       <c r="D24" t="n">
-        <v>69.46399709128835</v>
+        <v>69.95039471902673</v>
       </c>
       <c r="E24" t="n">
-        <v>9.77129870593085</v>
+        <v>9.750715857725053</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3676.633956136221</v>
+        <v>3676.337062947</v>
       </c>
       <c r="C25" t="n">
-        <v>4758.478113915841</v>
+        <v>4762.582629131021</v>
       </c>
       <c r="D25" t="n">
-        <v>69.46399709128835</v>
+        <v>69.95039471902673</v>
       </c>
       <c r="E25" t="n">
-        <v>9.77129870593085</v>
+        <v>9.750715857725053</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E34" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E35" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E36" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E37" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E38" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E39" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E40" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E41" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3745.29489799229</v>
+        <v>3550.721018148873</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>70.12413051136262</v>
+        <v>71.39169274915605</v>
       </c>
       <c r="E42" t="n">
-        <v>9.904060871088198</v>
+        <v>9.742955726870504</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3501.778276070294</v>
+        <v>3825.878559910546</v>
       </c>
       <c r="C43" t="n">
-        <v>4805.694363996075</v>
+        <v>4701.226783680037</v>
       </c>
       <c r="D43" t="n">
-        <v>68.94321060871775</v>
+        <v>69.80379439821499</v>
       </c>
       <c r="E43" t="n">
-        <v>9.800011611217764</v>
+        <v>9.813210979936663</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3501.778276070294</v>
+        <v>3825.878559910546</v>
       </c>
       <c r="C44" t="n">
-        <v>4805.694363996075</v>
+        <v>4701.226783680037</v>
       </c>
       <c r="D44" t="n">
-        <v>68.94321060871775</v>
+        <v>69.80379439821499</v>
       </c>
       <c r="E44" t="n">
-        <v>9.800011611217764</v>
+        <v>9.813210979936663</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3501.778276070294</v>
+        <v>3825.878559910546</v>
       </c>
       <c r="C45" t="n">
-        <v>4805.694363996075</v>
+        <v>4701.226783680037</v>
       </c>
       <c r="D45" t="n">
-        <v>68.94321060871775</v>
+        <v>69.80379439821499</v>
       </c>
       <c r="E45" t="n">
-        <v>9.800011611217764</v>
+        <v>9.813210979936663</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3501.778276070294</v>
+        <v>3825.878559910546</v>
       </c>
       <c r="C46" t="n">
-        <v>4805.694363996075</v>
+        <v>4701.226783680037</v>
       </c>
       <c r="D46" t="n">
-        <v>68.94321060871775</v>
+        <v>69.80379439821499</v>
       </c>
       <c r="E46" t="n">
-        <v>9.800011611217764</v>
+        <v>9.813210979936663</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3501.778276070294</v>
+        <v>3825.878559910546</v>
       </c>
       <c r="C47" t="n">
-        <v>4805.694363996075</v>
+        <v>4701.226783680037</v>
       </c>
       <c r="D47" t="n">
-        <v>68.94321060871775</v>
+        <v>69.80379439821499</v>
       </c>
       <c r="E47" t="n">
-        <v>9.800011611217764</v>
+        <v>9.813210979936663</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3501.778276070294</v>
+        <v>3825.878559910546</v>
       </c>
       <c r="C48" t="n">
-        <v>4805.694363996075</v>
+        <v>4701.226783680037</v>
       </c>
       <c r="D48" t="n">
-        <v>68.94321060871775</v>
+        <v>69.80379439821499</v>
       </c>
       <c r="E48" t="n">
-        <v>9.800011611217764</v>
+        <v>9.813210979936663</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3501.778276070294</v>
+        <v>3825.878559910546</v>
       </c>
       <c r="C49" t="n">
-        <v>4805.694363996075</v>
+        <v>4701.226783680037</v>
       </c>
       <c r="D49" t="n">
-        <v>68.94321060871775</v>
+        <v>69.80379439821499</v>
       </c>
       <c r="E49" t="n">
-        <v>9.800011611217764</v>
+        <v>9.813210979936663</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3501.778276070294</v>
+        <v>3825.878559910546</v>
       </c>
       <c r="C50" t="n">
-        <v>4805.694363996075</v>
+        <v>4701.226783680037</v>
       </c>
       <c r="D50" t="n">
-        <v>68.94321060871775</v>
+        <v>69.80379439821499</v>
       </c>
       <c r="E50" t="n">
-        <v>9.800011611217764</v>
+        <v>9.813210979936663</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3638.699761851298</v>
+        <v>3842.232799813354</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>69.37126392102736</v>
+        <v>69.70349304197228</v>
       </c>
       <c r="E59" t="n">
-        <v>9.792909332585465</v>
+        <v>9.657890540980828</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3638.699761851298</v>
+        <v>3842.232799813354</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>69.37126392102736</v>
+        <v>69.70349304197228</v>
       </c>
       <c r="E60" t="n">
-        <v>9.792909332585465</v>
+        <v>9.657890540980828</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3638.699761851298</v>
+        <v>3842.232799813354</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>69.37126392102736</v>
+        <v>69.70349304197228</v>
       </c>
       <c r="E61" t="n">
-        <v>9.792909332585465</v>
+        <v>9.657890540980828</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3638.699761851298</v>
+        <v>3842.232799813354</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>69.37126392102736</v>
+        <v>69.70349304197228</v>
       </c>
       <c r="E62" t="n">
-        <v>9.792909332585465</v>
+        <v>9.657890540980828</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3638.699761851298</v>
+        <v>3842.232799813354</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>69.37126392102736</v>
+        <v>69.70349304197228</v>
       </c>
       <c r="E63" t="n">
-        <v>9.792909332585465</v>
+        <v>9.657890540980828</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3638.699761851298</v>
+        <v>3842.232799813354</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>69.37126392102736</v>
+        <v>69.70349304197228</v>
       </c>
       <c r="E64" t="n">
-        <v>9.792909332585465</v>
+        <v>9.657890540980828</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3638.699761851298</v>
+        <v>3842.232799813354</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>69.37126392102736</v>
+        <v>69.70349304197228</v>
       </c>
       <c r="E65" t="n">
-        <v>9.792909332585465</v>
+        <v>9.657890540980828</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3638.699761851298</v>
+        <v>3842.232799813354</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>69.37126392102736</v>
+        <v>69.70349304197228</v>
       </c>
       <c r="E66" t="n">
-        <v>9.792909332585465</v>
+        <v>9.657890540980828</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C67" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D67" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E67" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C68" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D68" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E68" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C69" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D69" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E69" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C70" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D70" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E70" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C71" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D71" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E71" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C72" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D72" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E72" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C73" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D73" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E73" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C74" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D74" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E74" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3700.705311800019</v>
+        <v>3673.374494645317</v>
       </c>
       <c r="C75" t="n">
-        <v>4654.996148561227</v>
+        <v>4781.498489934209</v>
       </c>
       <c r="D75" t="n">
-        <v>71.20014658726382</v>
+        <v>67.82707805554399</v>
       </c>
       <c r="E75" t="n">
-        <v>9.687729734078706</v>
+        <v>9.752398390939387</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E76" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E77" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E78" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E79" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E80" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E81" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E82" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E83" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3781.363722294803</v>
+        <v>3634.228051872809</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>70.74102966199469</v>
+        <v>69.94622814924261</v>
       </c>
       <c r="E84" t="n">
-        <v>9.840785716452652</v>
+        <v>9.816367132738501</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3732.030264547452</v>
+        <v>3543.698729456462</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3669.237859672644</v>
+        <v>3792.390110760783</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>69.69173120893201</v>
+        <v>72.29076410226367</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C2" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D2" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E2" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C3" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D3" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E3" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C4" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D4" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E4" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C5" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D5" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E5" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C6" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D6" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E6" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C7" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D7" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E7" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C8" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D8" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E8" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C9" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D9" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E9" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4799.799869396912</v>
+        <v>4594.390420571216</v>
       </c>
       <c r="C10" t="n">
-        <v>4763.486449222351</v>
+        <v>4796.008685202014</v>
       </c>
       <c r="D10" t="n">
-        <v>69.20454797578286</v>
+        <v>69.94136934824478</v>
       </c>
       <c r="E10" t="n">
-        <v>9.765631237247122</v>
+        <v>9.721184549560878</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4717.48076422784</v>
+        <v>4656.558504618124</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4717.48076422784</v>
+        <v>4656.558504618124</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4717.48076422784</v>
+        <v>4656.558504618124</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4717.48076422784</v>
+        <v>4656.558504618124</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4717.48076422784</v>
+        <v>4656.558504618124</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4717.48076422784</v>
+        <v>4656.558504618124</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4717.48076422784</v>
+        <v>4656.558504618124</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4717.48076422784</v>
+        <v>4656.558504618124</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4634.963750984746</v>
+        <v>4665.109070495078</v>
       </c>
       <c r="C19" t="n">
-        <v>4727.798910200396</v>
+        <v>4818.837491248135</v>
       </c>
       <c r="D19" t="n">
-        <v>69.86798301499529</v>
+        <v>69.18058555893832</v>
       </c>
       <c r="E19" t="n">
-        <v>9.796501400824583</v>
+        <v>9.800708785120808</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4634.963750984746</v>
+        <v>4665.109070495078</v>
       </c>
       <c r="C20" t="n">
-        <v>4727.798910200396</v>
+        <v>4818.837491248135</v>
       </c>
       <c r="D20" t="n">
-        <v>69.86798301499529</v>
+        <v>69.18058555893832</v>
       </c>
       <c r="E20" t="n">
-        <v>9.796501400824583</v>
+        <v>9.800708785120808</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4634.963750984746</v>
+        <v>4665.109070495078</v>
       </c>
       <c r="C21" t="n">
-        <v>4727.798910200396</v>
+        <v>4818.837491248135</v>
       </c>
       <c r="D21" t="n">
-        <v>69.86798301499529</v>
+        <v>69.18058555893832</v>
       </c>
       <c r="E21" t="n">
-        <v>9.796501400824583</v>
+        <v>9.800708785120808</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4634.963750984746</v>
+        <v>4665.109070495078</v>
       </c>
       <c r="C22" t="n">
-        <v>4727.798910200396</v>
+        <v>4818.837491248135</v>
       </c>
       <c r="D22" t="n">
-        <v>69.86798301499529</v>
+        <v>69.18058555893832</v>
       </c>
       <c r="E22" t="n">
-        <v>9.796501400824583</v>
+        <v>9.800708785120808</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4634.963750984746</v>
+        <v>4665.109070495078</v>
       </c>
       <c r="C23" t="n">
-        <v>4727.798910200396</v>
+        <v>4818.837491248135</v>
       </c>
       <c r="D23" t="n">
-        <v>69.86798301499529</v>
+        <v>69.18058555893832</v>
       </c>
       <c r="E23" t="n">
-        <v>9.796501400824583</v>
+        <v>9.800708785120808</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4634.963750984746</v>
+        <v>4665.109070495078</v>
       </c>
       <c r="C24" t="n">
-        <v>4727.798910200396</v>
+        <v>4818.837491248135</v>
       </c>
       <c r="D24" t="n">
-        <v>69.86798301499529</v>
+        <v>69.18058555893832</v>
       </c>
       <c r="E24" t="n">
-        <v>9.796501400824583</v>
+        <v>9.800708785120808</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4902.966652581226</v>
+        <v>4729.394119210941</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.812278387465815</v>
+        <v>9.714847064525902</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4902.966652581226</v>
+        <v>4729.394119210941</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.812278387465815</v>
+        <v>9.714847064525902</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4902.966652581226</v>
+        <v>4729.394119210941</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.812278387465815</v>
+        <v>9.714847064525902</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4902.966652581226</v>
+        <v>4729.394119210941</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.812278387465815</v>
+        <v>9.714847064525902</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4902.966652581226</v>
+        <v>4729.394119210941</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.812278387465815</v>
+        <v>9.714847064525902</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4902.966652581226</v>
+        <v>4729.394119210941</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.812278387465815</v>
+        <v>9.714847064525902</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C58" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C59" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C60" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C61" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C62" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C63" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C64" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C65" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4820.297675762169</v>
+        <v>4542.311186219741</v>
       </c>
       <c r="C66" t="n">
-        <v>4740.660750781546</v>
+        <v>4658.91438933258</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.836625493224169</v>
+        <v>9.853179608936284</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C85" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D85" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E85" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C86" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D86" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E86" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C87" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D87" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E87" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C88" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D88" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E88" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C89" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D89" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E89" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C90" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D90" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E90" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C91" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D91" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E91" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C92" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D92" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E92" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4667.026368414729</v>
+        <v>4970.314872998199</v>
       </c>
       <c r="C93" t="n">
-        <v>4715.539050498968</v>
+        <v>4654.067561345521</v>
       </c>
       <c r="D93" t="n">
-        <v>70.83794351726766</v>
+        <v>70.61394800305217</v>
       </c>
       <c r="E93" t="n">
-        <v>9.774201457238865</v>
+        <v>9.829340917710228</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E103" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E104" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E105" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E106" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E107" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E108" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E109" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E110" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4674.588290676559</v>
+        <v>4738.683287411985</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>68.90989750822969</v>
+        <v>70.19121995764462</v>
       </c>
       <c r="E111" t="n">
-        <v>9.752696277088852</v>
+        <v>9.813734168919812</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E112" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E113" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E114" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E115" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E116" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E117" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E118" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E119" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4927.677640363723</v>
+        <v>4769.622582711514</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>70.04905648308463</v>
+        <v>70.08092787695128</v>
       </c>
       <c r="E120" t="n">
-        <v>9.703571135570906</v>
+        <v>9.808623856540203</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>68.90711572064932</v>
+        <v>69.88884129767776</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>68.90711572064932</v>
+        <v>69.88884129767776</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>68.90711572064932</v>
+        <v>69.88884129767776</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>68.90711572064932</v>
+        <v>69.88884129767776</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>68.90711572064932</v>
+        <v>69.88884129767776</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>68.90711572064932</v>
+        <v>69.88884129767776</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>68.90711572064932</v>
+        <v>69.88884129767776</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>68.90711572064932</v>
+        <v>69.88884129767776</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E138" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E139" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E140" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E141" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E142" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E143" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E144" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E145" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4674.00384499438</v>
+        <v>4805.544775893694</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>70.49274273268966</v>
+        <v>69.03097330669134</v>
       </c>
       <c r="E146" t="n">
-        <v>9.8269004950834</v>
+        <v>9.823157778196183</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>68.92706517047984</v>
+        <v>70.24577725359413</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C156" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D156" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E156" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C157" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D157" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E157" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C158" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D158" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E158" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C159" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D159" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E159" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C160" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D160" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E160" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C161" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D161" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E161" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C162" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D162" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E162" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C163" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D163" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E163" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4940.362121933632</v>
+        <v>4839.855419108455</v>
       </c>
       <c r="C164" t="n">
-        <v>4611.380563806274</v>
+        <v>4693.014471399524</v>
       </c>
       <c r="D164" t="n">
-        <v>69.18661522733369</v>
+        <v>69.83548688663619</v>
       </c>
       <c r="E164" t="n">
-        <v>9.751662295022468</v>
+        <v>9.710424200392037</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E165" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E166" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E167" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E168" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E169" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E170" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E171" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E172" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4718.26204343491</v>
+        <v>4661.238228658897</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>70.88119151760975</v>
+        <v>70.31295787868363</v>
       </c>
       <c r="E173" t="n">
-        <v>9.799267569073956</v>
+        <v>9.813499354735118</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>69.39673194473158</v>
+        <v>70.98551175222855</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>70.05115800494431</v>
+        <v>70.68555964207395</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>70.05115800494431</v>
+        <v>70.68555964207395</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>70.05115800494431</v>
+        <v>70.68555964207395</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>70.05115800494431</v>
+        <v>70.68555964207395</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>70.05115800494431</v>
+        <v>70.68555964207395</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>70.05115800494431</v>
+        <v>70.68555964207395</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>70.05115800494431</v>
+        <v>70.68555964207395</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>70.05115800494431</v>
+        <v>70.68555964207395</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>69.78137743548827</v>
+        <v>69.69104033821934</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>68.7373230217562</v>
+        <v>69.73194007219944</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>71.02682770632141</v>
+        <v>71.02485542255269</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>71.02682770632141</v>
+        <v>71.02485542255269</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>71.02682770632141</v>
+        <v>71.02485542255269</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>71.02682770632141</v>
+        <v>71.02485542255269</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>71.02682770632141</v>
+        <v>71.02485542255269</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>71.02682770632141</v>
+        <v>71.02485542255269</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>71.02682770632141</v>
+        <v>71.02485542255269</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>71.02682770632141</v>
+        <v>71.02485542255269</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E217" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E218" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E219" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E220" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E221" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E222" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E223" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E224" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4641.183459237048</v>
+        <v>4817.069854747491</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>69.26828358287143</v>
+        <v>69.97458005614688</v>
       </c>
       <c r="E225" t="n">
-        <v>9.756966759223104</v>
+        <v>9.803065568413183</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E226" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E227" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E228" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E229" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E230" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E231" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E232" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E233" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4753.743208113791</v>
+        <v>4758.523405846223</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>69.89897750362228</v>
+        <v>69.76171963613294</v>
       </c>
       <c r="E234" t="n">
-        <v>9.803613708017036</v>
+        <v>9.848743102761047</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E235" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E236" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E237" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E238" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E239" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E240" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E241" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E242" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4758.928951548136</v>
+        <v>4648.290740657591</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>70.38215296759718</v>
+        <v>69.69481260818095</v>
       </c>
       <c r="E243" t="n">
-        <v>9.739883314025011</v>
+        <v>9.798824671445407</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>69.57000866498663</v>
+        <v>70.08779835710128</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>70.09816836873195</v>
+        <v>70.06044666038218</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>70.09816836873195</v>
+        <v>70.06044666038218</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>70.09816836873195</v>
+        <v>70.06044666038218</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>70.09816836873195</v>
+        <v>70.06044666038218</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>70.09816836873195</v>
+        <v>70.06044666038218</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>70.09816836873195</v>
+        <v>70.06044666038218</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>70.09816836873195</v>
+        <v>70.06044666038218</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>70.09816836873195</v>
+        <v>70.06044666038218</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>69.01929684474128</v>
+        <v>70.99080278363598</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>69.01929684474128</v>
+        <v>70.99080278363598</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>69.01929684474128</v>
+        <v>70.99080278363598</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>69.01929684474128</v>
+        <v>70.99080278363598</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>69.01929684474128</v>
+        <v>70.99080278363598</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>69.01929684474128</v>
+        <v>70.99080278363598</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>69.01929684474128</v>
+        <v>70.99080278363598</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>69.01929684474128</v>
+        <v>70.99080278363598</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>69.84922267791083</v>
+        <v>69.72638699377002</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E278" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E279" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E280" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E281" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E282" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E283" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E284" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E285" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4608.480586525514</v>
+        <v>4697.483200003927</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>70.84458327238713</v>
+        <v>70.02040077356737</v>
       </c>
       <c r="E286" t="n">
-        <v>9.807785170747721</v>
+        <v>9.795345832169154</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>69.37819771660401</v>
+        <v>70.28810510557854</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4756.555343712261</v>
+        <v>4727.883022105597</v>
       </c>
       <c r="C9" t="n">
-        <v>4644.227103832029</v>
+        <v>4731.707800477644</v>
       </c>
       <c r="D9" t="n">
-        <v>70.69461543586092</v>
+        <v>69.01378574285665</v>
       </c>
       <c r="E9" t="n">
-        <v>9.854561280900842</v>
+        <v>9.839392487767135</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4756.555343712261</v>
+        <v>4727.883022105597</v>
       </c>
       <c r="C10" t="n">
-        <v>4644.227103832029</v>
+        <v>4731.707800477644</v>
       </c>
       <c r="D10" t="n">
-        <v>70.69461543586092</v>
+        <v>69.01378574285665</v>
       </c>
       <c r="E10" t="n">
-        <v>9.854561280900842</v>
+        <v>9.839392487767135</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C11" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D11" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E11" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C12" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D12" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E12" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C13" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D13" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E13" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C14" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D14" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E14" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C15" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D15" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E15" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C16" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D16" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E16" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C17" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D17" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E17" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C18" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D18" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E18" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4831.49051595951</v>
+        <v>4679.443579049568</v>
       </c>
       <c r="C19" t="n">
-        <v>4756.159692270035</v>
+        <v>4731.016764778606</v>
       </c>
       <c r="D19" t="n">
-        <v>67.7098134861513</v>
+        <v>71.72215018340964</v>
       </c>
       <c r="E19" t="n">
-        <v>9.760737591100137</v>
+        <v>9.76506748003192</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4831.757820057134</v>
+        <v>4589.615619134413</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.762157740922245</v>
+        <v>9.828779160245</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C38" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C39" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C40" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C41" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C42" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C43" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C44" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C45" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4840.530040606756</v>
+        <v>4785.641266803495</v>
       </c>
       <c r="C46" t="n">
-        <v>4798.395362307313</v>
+        <v>4671.983748213919</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.798854054738639</v>
+        <v>9.777554114906501</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E47" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E48" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E49" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E50" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E51" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E52" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E53" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E54" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4684.563319235732</v>
+        <v>4805.778733141216</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>67.37088351643908</v>
+        <v>67.65524378905874</v>
       </c>
       <c r="E55" t="n">
-        <v>9.845098030325309</v>
+        <v>9.784290401895788</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4810.786173092448</v>
+        <v>4834.673055290887</v>
       </c>
       <c r="C8" t="n">
-        <v>4736.050231333369</v>
+        <v>4688.260176270369</v>
       </c>
       <c r="D8" t="n">
-        <v>69.89362402429724</v>
+        <v>69.86314303263497</v>
       </c>
       <c r="E8" t="n">
-        <v>9.812697819799663</v>
+        <v>9.82675330434942</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4810.786173092448</v>
+        <v>4834.673055290887</v>
       </c>
       <c r="C9" t="n">
-        <v>4736.050231333369</v>
+        <v>4688.260176270369</v>
       </c>
       <c r="D9" t="n">
-        <v>69.89362402429724</v>
+        <v>69.86314303263497</v>
       </c>
       <c r="E9" t="n">
-        <v>9.812697819799663</v>
+        <v>9.82675330434942</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4810.786173092448</v>
+        <v>4834.673055290887</v>
       </c>
       <c r="C10" t="n">
-        <v>4736.050231333369</v>
+        <v>4688.260176270369</v>
       </c>
       <c r="D10" t="n">
-        <v>69.89362402429724</v>
+        <v>69.86314303263497</v>
       </c>
       <c r="E10" t="n">
-        <v>9.812697819799663</v>
+        <v>9.82675330434942</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4810.786173092448</v>
+        <v>4834.673055290887</v>
       </c>
       <c r="C11" t="n">
-        <v>4736.050231333369</v>
+        <v>4688.260176270369</v>
       </c>
       <c r="D11" t="n">
-        <v>69.89362402429724</v>
+        <v>69.86314303263497</v>
       </c>
       <c r="E11" t="n">
-        <v>9.812697819799663</v>
+        <v>9.82675330434942</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4810.786173092448</v>
+        <v>4834.673055290887</v>
       </c>
       <c r="C12" t="n">
-        <v>4736.050231333369</v>
+        <v>4688.260176270369</v>
       </c>
       <c r="D12" t="n">
-        <v>69.89362402429724</v>
+        <v>69.86314303263497</v>
       </c>
       <c r="E12" t="n">
-        <v>9.812697819799663</v>
+        <v>9.82675330434942</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4810.786173092448</v>
+        <v>4834.673055290887</v>
       </c>
       <c r="C13" t="n">
-        <v>4736.050231333369</v>
+        <v>4688.260176270369</v>
       </c>
       <c r="D13" t="n">
-        <v>69.89362402429724</v>
+        <v>69.86314303263497</v>
       </c>
       <c r="E13" t="n">
-        <v>9.812697819799663</v>
+        <v>9.82675330434942</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C14" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D14" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E14" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C15" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D15" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E15" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C16" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D16" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E16" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C17" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D17" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E17" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C18" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D18" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E18" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C19" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D19" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E19" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C20" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D20" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E20" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C21" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D21" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E21" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4896.068154355868</v>
+        <v>4798.896022052781</v>
       </c>
       <c r="C22" t="n">
-        <v>4751.997758209242</v>
+        <v>4651.134071046648</v>
       </c>
       <c r="D22" t="n">
-        <v>69.43025314189929</v>
+        <v>70.66326200498172</v>
       </c>
       <c r="E22" t="n">
-        <v>9.76620217573239</v>
+        <v>9.790388318668004</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C41" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D41" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E41" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C42" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D42" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E42" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C43" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D43" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E43" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C44" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D44" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E44" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C45" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D45" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E45" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C46" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D46" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E46" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C47" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D47" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E47" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C48" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D48" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E48" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4889.600567783202</v>
+        <v>4744.114354214537</v>
       </c>
       <c r="C49" t="n">
-        <v>4672.343642945322</v>
+        <v>4612.132886670041</v>
       </c>
       <c r="D49" t="n">
-        <v>69.65173484398753</v>
+        <v>69.99809248002805</v>
       </c>
       <c r="E49" t="n">
-        <v>9.782975892127197</v>
+        <v>9.771176169728502</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C50" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D50" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E50" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C51" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D51" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E51" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C52" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D52" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E52" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C53" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D53" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E53" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C54" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D54" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E54" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C55" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D55" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E55" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C56" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D56" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E56" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C57" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D57" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E57" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4844.309530225283</v>
+        <v>4825.000315820692</v>
       </c>
       <c r="C58" t="n">
-        <v>4705.517738817447</v>
+        <v>4729.482555026775</v>
       </c>
       <c r="D58" t="n">
-        <v>69.50745406907329</v>
+        <v>70.52270634434679</v>
       </c>
       <c r="E58" t="n">
-        <v>9.780286133307859</v>
+        <v>9.866896993333068</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E68" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E69" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E70" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E71" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E72" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E73" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E74" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E75" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>4685.933201355101</v>
+        <v>4685.440699296729</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>70.09493217623618</v>
+        <v>69.21167454441824</v>
       </c>
       <c r="E76" t="n">
-        <v>9.774691709456912</v>
+        <v>9.751015706783022</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1011" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1012" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1013" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1014" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1011" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1013" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1014" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3529.722277963507</v>
+        <v>3667.352549416596</v>
       </c>
       <c r="C2" t="n">
-        <v>4649.383221311257</v>
+        <v>4691.184480387613</v>
       </c>
       <c r="D2" t="n">
-        <v>70.19894318701971</v>
+        <v>69.42741867823287</v>
       </c>
       <c r="E2" t="n">
-        <v>9.742948808167663</v>
+        <v>9.800539813903402</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3529.722277963507</v>
+        <v>3667.352549416596</v>
       </c>
       <c r="C3" t="n">
-        <v>4649.383221311257</v>
+        <v>4691.184480387613</v>
       </c>
       <c r="D3" t="n">
-        <v>70.19894318701971</v>
+        <v>69.42741867823287</v>
       </c>
       <c r="E3" t="n">
-        <v>9.742948808167663</v>
+        <v>9.800539813903402</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3529.722277963507</v>
+        <v>3667.352549416596</v>
       </c>
       <c r="C4" t="n">
-        <v>4649.383221311257</v>
+        <v>4691.184480387613</v>
       </c>
       <c r="D4" t="n">
-        <v>70.19894318701971</v>
+        <v>69.42741867823287</v>
       </c>
       <c r="E4" t="n">
-        <v>9.742948808167663</v>
+        <v>9.800539813903402</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3529.722277963507</v>
+        <v>3667.352549416596</v>
       </c>
       <c r="C5" t="n">
-        <v>4649.383221311257</v>
+        <v>4691.184480387613</v>
       </c>
       <c r="D5" t="n">
-        <v>70.19894318701971</v>
+        <v>69.42741867823287</v>
       </c>
       <c r="E5" t="n">
-        <v>9.742948808167663</v>
+        <v>9.800539813903402</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3529.722277963507</v>
+        <v>3667.352549416596</v>
       </c>
       <c r="C6" t="n">
-        <v>4649.383221311257</v>
+        <v>4691.184480387613</v>
       </c>
       <c r="D6" t="n">
-        <v>70.19894318701971</v>
+        <v>69.42741867823287</v>
       </c>
       <c r="E6" t="n">
-        <v>9.742948808167663</v>
+        <v>9.800539813903402</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3529.722277963507</v>
+        <v>3667.352549416596</v>
       </c>
       <c r="C7" t="n">
-        <v>4649.383221311257</v>
+        <v>4691.184480387613</v>
       </c>
       <c r="D7" t="n">
-        <v>70.19894318701971</v>
+        <v>69.42741867823287</v>
       </c>
       <c r="E7" t="n">
-        <v>9.742948808167663</v>
+        <v>9.800539813903402</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3529.722277963507</v>
+        <v>3667.352549416596</v>
       </c>
       <c r="C8" t="n">
-        <v>4649.383221311257</v>
+        <v>4691.184480387613</v>
       </c>
       <c r="D8" t="n">
-        <v>70.19894318701971</v>
+        <v>69.42741867823287</v>
       </c>
       <c r="E8" t="n">
-        <v>9.742948808167663</v>
+        <v>9.800539813903402</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E9" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E10" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E11" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E12" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E13" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E14" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E15" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E16" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3767.226101057803</v>
+        <v>3574.589291312178</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>70.52260221177333</v>
+        <v>69.34074099569818</v>
       </c>
       <c r="E17" t="n">
-        <v>9.791279704306003</v>
+        <v>9.774351482047051</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3676.337062947</v>
+        <v>3537.310049119191</v>
       </c>
       <c r="C18" t="n">
-        <v>4762.582629131021</v>
+        <v>4714.12691443082</v>
       </c>
       <c r="D18" t="n">
-        <v>69.95039471902673</v>
+        <v>69.62599682166548</v>
       </c>
       <c r="E18" t="n">
-        <v>9.750715857725053</v>
+        <v>9.867740356637844</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3676.337062947</v>
+        <v>3537.310049119191</v>
       </c>
       <c r="C19" t="n">
-        <v>4762.582629131021</v>
+        <v>4714.12691443082</v>
       </c>
       <c r="D19" t="n">
-        <v>69.95039471902673</v>
+        <v>69.62599682166548</v>
       </c>
       <c r="E19" t="n">
-        <v>9.750715857725053</v>
+        <v>9.867740356637844</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3676.337062947</v>
+        <v>3537.310049119191</v>
       </c>
       <c r="C20" t="n">
-        <v>4762.582629131021</v>
+        <v>4714.12691443082</v>
       </c>
       <c r="D20" t="n">
-        <v>69.95039471902673</v>
+        <v>69.62599682166548</v>
       </c>
       <c r="E20" t="n">
-        <v>9.750715857725053</v>
+        <v>9.867740356637844</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3676.337062947</v>
+        <v>3537.310049119191</v>
       </c>
       <c r="C21" t="n">
-        <v>4762.582629131021</v>
+        <v>4714.12691443082</v>
       </c>
       <c r="D21" t="n">
-        <v>69.95039471902673</v>
+        <v>69.62599682166548</v>
       </c>
       <c r="E21" t="n">
-        <v>9.750715857725053</v>
+        <v>9.867740356637844</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3676.337062947</v>
+        <v>3537.310049119191</v>
       </c>
       <c r="C22" t="n">
-        <v>4762.582629131021</v>
+        <v>4714.12691443082</v>
       </c>
       <c r="D22" t="n">
-        <v>69.95039471902673</v>
+        <v>69.62599682166548</v>
       </c>
       <c r="E22" t="n">
-        <v>9.750715857725053</v>
+        <v>9.867740356637844</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3676.337062947</v>
+        <v>3537.310049119191</v>
       </c>
       <c r="C23" t="n">
-        <v>4762.582629131021</v>
+        <v>4714.12691443082</v>
       </c>
       <c r="D23" t="n">
-        <v>69.95039471902673</v>
+        <v>69.62599682166548</v>
       </c>
       <c r="E23" t="n">
-        <v>9.750715857725053</v>
+        <v>9.867740356637844</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3676.337062947</v>
+        <v>3537.310049119191</v>
       </c>
       <c r="C24" t="n">
-        <v>4762.582629131021</v>
+        <v>4714.12691443082</v>
       </c>
       <c r="D24" t="n">
-        <v>69.95039471902673</v>
+        <v>69.62599682166548</v>
       </c>
       <c r="E24" t="n">
-        <v>9.750715857725053</v>
+        <v>9.867740356637844</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3676.337062947</v>
+        <v>3537.310049119191</v>
       </c>
       <c r="C25" t="n">
-        <v>4762.582629131021</v>
+        <v>4714.12691443082</v>
       </c>
       <c r="D25" t="n">
-        <v>69.95039471902673</v>
+        <v>69.62599682166548</v>
       </c>
       <c r="E25" t="n">
-        <v>9.750715857725053</v>
+        <v>9.867740356637844</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E34" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E35" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E36" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E37" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E38" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E39" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E40" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E41" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3550.721018148873</v>
+        <v>3556.769053787871</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>71.39169274915605</v>
+        <v>70.17621362384783</v>
       </c>
       <c r="E42" t="n">
-        <v>9.742955726870504</v>
+        <v>9.834406047735296</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3825.878559910546</v>
+        <v>3794.935097232165</v>
       </c>
       <c r="C43" t="n">
-        <v>4701.226783680037</v>
+        <v>4790.338151724871</v>
       </c>
       <c r="D43" t="n">
-        <v>69.80379439821499</v>
+        <v>70.07035828943685</v>
       </c>
       <c r="E43" t="n">
-        <v>9.813210979936663</v>
+        <v>9.69913500739497</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3825.878559910546</v>
+        <v>3794.935097232165</v>
       </c>
       <c r="C44" t="n">
-        <v>4701.226783680037</v>
+        <v>4790.338151724871</v>
       </c>
       <c r="D44" t="n">
-        <v>69.80379439821499</v>
+        <v>70.07035828943685</v>
       </c>
       <c r="E44" t="n">
-        <v>9.813210979936663</v>
+        <v>9.69913500739497</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3825.878559910546</v>
+        <v>3794.935097232165</v>
       </c>
       <c r="C45" t="n">
-        <v>4701.226783680037</v>
+        <v>4790.338151724871</v>
       </c>
       <c r="D45" t="n">
-        <v>69.80379439821499</v>
+        <v>70.07035828943685</v>
       </c>
       <c r="E45" t="n">
-        <v>9.813210979936663</v>
+        <v>9.69913500739497</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3825.878559910546</v>
+        <v>3794.935097232165</v>
       </c>
       <c r="C46" t="n">
-        <v>4701.226783680037</v>
+        <v>4790.338151724871</v>
       </c>
       <c r="D46" t="n">
-        <v>69.80379439821499</v>
+        <v>70.07035828943685</v>
       </c>
       <c r="E46" t="n">
-        <v>9.813210979936663</v>
+        <v>9.69913500739497</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3825.878559910546</v>
+        <v>3794.935097232165</v>
       </c>
       <c r="C47" t="n">
-        <v>4701.226783680037</v>
+        <v>4790.338151724871</v>
       </c>
       <c r="D47" t="n">
-        <v>69.80379439821499</v>
+        <v>70.07035828943685</v>
       </c>
       <c r="E47" t="n">
-        <v>9.813210979936663</v>
+        <v>9.69913500739497</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3825.878559910546</v>
+        <v>3794.935097232165</v>
       </c>
       <c r="C48" t="n">
-        <v>4701.226783680037</v>
+        <v>4790.338151724871</v>
       </c>
       <c r="D48" t="n">
-        <v>69.80379439821499</v>
+        <v>70.07035828943685</v>
       </c>
       <c r="E48" t="n">
-        <v>9.813210979936663</v>
+        <v>9.69913500739497</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3825.878559910546</v>
+        <v>3794.935097232165</v>
       </c>
       <c r="C49" t="n">
-        <v>4701.226783680037</v>
+        <v>4790.338151724871</v>
       </c>
       <c r="D49" t="n">
-        <v>69.80379439821499</v>
+        <v>70.07035828943685</v>
       </c>
       <c r="E49" t="n">
-        <v>9.813210979936663</v>
+        <v>9.69913500739497</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3825.878559910546</v>
+        <v>3794.935097232165</v>
       </c>
       <c r="C50" t="n">
-        <v>4701.226783680037</v>
+        <v>4790.338151724871</v>
       </c>
       <c r="D50" t="n">
-        <v>69.80379439821499</v>
+        <v>70.07035828943685</v>
       </c>
       <c r="E50" t="n">
-        <v>9.813210979936663</v>
+        <v>9.69913500739497</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3842.232799813354</v>
+        <v>3820.840528090371</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>69.70349304197228</v>
+        <v>69.69205742969135</v>
       </c>
       <c r="E59" t="n">
-        <v>9.657890540980828</v>
+        <v>9.661701318109792</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3842.232799813354</v>
+        <v>3820.840528090371</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>69.70349304197228</v>
+        <v>69.69205742969135</v>
       </c>
       <c r="E60" t="n">
-        <v>9.657890540980828</v>
+        <v>9.661701318109792</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3842.232799813354</v>
+        <v>3820.840528090371</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>69.70349304197228</v>
+        <v>69.69205742969135</v>
       </c>
       <c r="E61" t="n">
-        <v>9.657890540980828</v>
+        <v>9.661701318109792</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3842.232799813354</v>
+        <v>3820.840528090371</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>69.70349304197228</v>
+        <v>69.69205742969135</v>
       </c>
       <c r="E62" t="n">
-        <v>9.657890540980828</v>
+        <v>9.661701318109792</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3842.232799813354</v>
+        <v>3820.840528090371</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>69.70349304197228</v>
+        <v>69.69205742969135</v>
       </c>
       <c r="E63" t="n">
-        <v>9.657890540980828</v>
+        <v>9.661701318109792</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3842.232799813354</v>
+        <v>3820.840528090371</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>69.70349304197228</v>
+        <v>69.69205742969135</v>
       </c>
       <c r="E64" t="n">
-        <v>9.657890540980828</v>
+        <v>9.661701318109792</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3842.232799813354</v>
+        <v>3820.840528090371</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>69.70349304197228</v>
+        <v>69.69205742969135</v>
       </c>
       <c r="E65" t="n">
-        <v>9.657890540980828</v>
+        <v>9.661701318109792</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3842.232799813354</v>
+        <v>3820.840528090371</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>69.70349304197228</v>
+        <v>69.69205742969135</v>
       </c>
       <c r="E66" t="n">
-        <v>9.657890540980828</v>
+        <v>9.661701318109792</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C67" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D67" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E67" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C68" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D68" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E68" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C69" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D69" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E69" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C70" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D70" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E70" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C71" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D71" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E71" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C72" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D72" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E72" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C73" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D73" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E73" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C74" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D74" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E74" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3673.374494645317</v>
+        <v>3815.589334762092</v>
       </c>
       <c r="C75" t="n">
-        <v>4781.498489934209</v>
+        <v>4645.714289345865</v>
       </c>
       <c r="D75" t="n">
-        <v>67.82707805554399</v>
+        <v>71.11663457767169</v>
       </c>
       <c r="E75" t="n">
-        <v>9.752398390939387</v>
+        <v>9.784927549954341</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E76" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E77" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E78" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E79" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E80" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E81" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E82" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E83" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3634.228051872809</v>
+        <v>3642.796195883239</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>69.94622814924261</v>
+        <v>70.0359254499751</v>
       </c>
       <c r="E84" t="n">
-        <v>9.816367132738501</v>
+        <v>9.686260515385118</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3543.698729456462</v>
+        <v>3628.345012286849</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3792.390110760783</v>
+        <v>3670.531455464144</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>72.29076410226367</v>
+        <v>69.65693932307431</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C2" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D2" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E2" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C3" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D3" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E3" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C4" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D4" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E4" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C5" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D5" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E5" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C6" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D6" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E6" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C7" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D7" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E7" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C8" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D8" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E8" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C9" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D9" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E9" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4594.390420571216</v>
+        <v>4794.334131994378</v>
       </c>
       <c r="C10" t="n">
-        <v>4796.008685202014</v>
+        <v>4679.52390642628</v>
       </c>
       <c r="D10" t="n">
-        <v>69.94136934824478</v>
+        <v>70.10107568403592</v>
       </c>
       <c r="E10" t="n">
-        <v>9.721184549560878</v>
+        <v>9.738034086888538</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4656.558504618124</v>
+        <v>4937.636137093007</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4656.558504618124</v>
+        <v>4937.636137093007</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4656.558504618124</v>
+        <v>4937.636137093007</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4656.558504618124</v>
+        <v>4937.636137093007</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4656.558504618124</v>
+        <v>4937.636137093007</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4656.558504618124</v>
+        <v>4937.636137093007</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4656.558504618124</v>
+        <v>4937.636137093007</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4656.558504618124</v>
+        <v>4937.636137093007</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4665.109070495078</v>
+        <v>4862.037686999288</v>
       </c>
       <c r="C19" t="n">
-        <v>4818.837491248135</v>
+        <v>4700.245878243205</v>
       </c>
       <c r="D19" t="n">
-        <v>69.18058555893832</v>
+        <v>69.4379724794879</v>
       </c>
       <c r="E19" t="n">
-        <v>9.800708785120808</v>
+        <v>9.804895537193792</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4665.109070495078</v>
+        <v>4862.037686999288</v>
       </c>
       <c r="C20" t="n">
-        <v>4818.837491248135</v>
+        <v>4700.245878243205</v>
       </c>
       <c r="D20" t="n">
-        <v>69.18058555893832</v>
+        <v>69.4379724794879</v>
       </c>
       <c r="E20" t="n">
-        <v>9.800708785120808</v>
+        <v>9.804895537193792</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4665.109070495078</v>
+        <v>4862.037686999288</v>
       </c>
       <c r="C21" t="n">
-        <v>4818.837491248135</v>
+        <v>4700.245878243205</v>
       </c>
       <c r="D21" t="n">
-        <v>69.18058555893832</v>
+        <v>69.4379724794879</v>
       </c>
       <c r="E21" t="n">
-        <v>9.800708785120808</v>
+        <v>9.804895537193792</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4665.109070495078</v>
+        <v>4862.037686999288</v>
       </c>
       <c r="C22" t="n">
-        <v>4818.837491248135</v>
+        <v>4700.245878243205</v>
       </c>
       <c r="D22" t="n">
-        <v>69.18058555893832</v>
+        <v>69.4379724794879</v>
       </c>
       <c r="E22" t="n">
-        <v>9.800708785120808</v>
+        <v>9.804895537193792</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4665.109070495078</v>
+        <v>4862.037686999288</v>
       </c>
       <c r="C23" t="n">
-        <v>4818.837491248135</v>
+        <v>4700.245878243205</v>
       </c>
       <c r="D23" t="n">
-        <v>69.18058555893832</v>
+        <v>69.4379724794879</v>
       </c>
       <c r="E23" t="n">
-        <v>9.800708785120808</v>
+        <v>9.804895537193792</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4665.109070495078</v>
+        <v>4862.037686999288</v>
       </c>
       <c r="C24" t="n">
-        <v>4818.837491248135</v>
+        <v>4700.245878243205</v>
       </c>
       <c r="D24" t="n">
-        <v>69.18058555893832</v>
+        <v>69.4379724794879</v>
       </c>
       <c r="E24" t="n">
-        <v>9.800708785120808</v>
+        <v>9.804895537193792</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4729.394119210941</v>
+        <v>4577.945097762189</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.714847064525902</v>
+        <v>9.840259694802388</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4729.394119210941</v>
+        <v>4577.945097762189</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.714847064525902</v>
+        <v>9.840259694802388</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4729.394119210941</v>
+        <v>4577.945097762189</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.714847064525902</v>
+        <v>9.840259694802388</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4729.394119210941</v>
+        <v>4577.945097762189</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.714847064525902</v>
+        <v>9.840259694802388</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4729.394119210941</v>
+        <v>4577.945097762189</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.714847064525902</v>
+        <v>9.840259694802388</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4729.394119210941</v>
+        <v>4577.945097762189</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.714847064525902</v>
+        <v>9.840259694802388</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C58" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C59" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C60" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C61" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C62" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C63" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C64" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C65" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4542.311186219741</v>
+        <v>4823.143189500282</v>
       </c>
       <c r="C66" t="n">
-        <v>4658.91438933258</v>
+        <v>4711.811895606045</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.853179608936284</v>
+        <v>9.819738605824375</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C85" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D85" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E85" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C86" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D86" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E86" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C87" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D87" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E87" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C88" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D88" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E88" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C89" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D89" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E89" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C90" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D90" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E90" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C91" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D91" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E91" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C92" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D92" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E92" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4970.314872998199</v>
+        <v>4760.33228368133</v>
       </c>
       <c r="C93" t="n">
-        <v>4654.067561345521</v>
+        <v>4772.033255760176</v>
       </c>
       <c r="D93" t="n">
-        <v>70.61394800305217</v>
+        <v>70.51638594219855</v>
       </c>
       <c r="E93" t="n">
-        <v>9.829340917710228</v>
+        <v>9.814935192212179</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E103" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E104" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E105" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E106" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E107" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E108" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E109" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E110" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4738.683287411985</v>
+        <v>4733.509961432022</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>70.19121995764462</v>
+        <v>69.47230358717829</v>
       </c>
       <c r="E111" t="n">
-        <v>9.813734168919812</v>
+        <v>9.812778438168181</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E112" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E113" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E114" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E115" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E116" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E117" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E118" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E119" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4769.622582711514</v>
+        <v>4773.552561111464</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>70.08092787695128</v>
+        <v>69.19506513915445</v>
       </c>
       <c r="E120" t="n">
-        <v>9.808623856540203</v>
+        <v>9.81317850448171</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>69.88884129767776</v>
+        <v>69.57710104166041</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>69.88884129767776</v>
+        <v>69.57710104166041</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>69.88884129767776</v>
+        <v>69.57710104166041</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>69.88884129767776</v>
+        <v>69.57710104166041</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>69.88884129767776</v>
+        <v>69.57710104166041</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>69.88884129767776</v>
+        <v>69.57710104166041</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>69.88884129767776</v>
+        <v>69.57710104166041</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>69.88884129767776</v>
+        <v>69.57710104166041</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E138" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E139" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E140" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E141" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E142" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E143" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E144" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E145" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4805.544775893694</v>
+        <v>4743.901056171136</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>69.03097330669134</v>
+        <v>71.02288282638619</v>
       </c>
       <c r="E146" t="n">
-        <v>9.823157778196183</v>
+        <v>9.820505807996453</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>70.24577725359413</v>
+        <v>69.27731564103564</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C156" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D156" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E156" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C157" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D157" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E157" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C158" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D158" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E158" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C159" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D159" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E159" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C160" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D160" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E160" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C161" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D161" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E161" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C162" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D162" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E162" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C163" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D163" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E163" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4839.855419108455</v>
+        <v>4790.013798083587</v>
       </c>
       <c r="C164" t="n">
-        <v>4693.014471399524</v>
+        <v>4761.271900782138</v>
       </c>
       <c r="D164" t="n">
-        <v>69.83548688663619</v>
+        <v>69.39910623538191</v>
       </c>
       <c r="E164" t="n">
-        <v>9.710424200392037</v>
+        <v>9.846810653362265</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E165" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E166" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E167" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E168" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E169" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E170" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E171" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E172" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4661.238228658897</v>
+        <v>4773.413919229131</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>70.31295787868363</v>
+        <v>69.94576903197235</v>
       </c>
       <c r="E173" t="n">
-        <v>9.813499354735118</v>
+        <v>9.750641569253341</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>70.98551175222855</v>
+        <v>70.37290948092019</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>70.68555964207395</v>
+        <v>71.09990494775538</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>70.68555964207395</v>
+        <v>71.09990494775538</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>70.68555964207395</v>
+        <v>71.09990494775538</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>70.68555964207395</v>
+        <v>71.09990494775538</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>70.68555964207395</v>
+        <v>71.09990494775538</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>70.68555964207395</v>
+        <v>71.09990494775538</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>70.68555964207395</v>
+        <v>71.09990494775538</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>70.68555964207395</v>
+        <v>71.09990494775538</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>69.69104033821934</v>
+        <v>69.58472020319617</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>69.73194007219944</v>
+        <v>71.47922511410459</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>71.02485542255269</v>
+        <v>69.8390301235041</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>71.02485542255269</v>
+        <v>69.8390301235041</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>71.02485542255269</v>
+        <v>69.8390301235041</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>71.02485542255269</v>
+        <v>69.8390301235041</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>71.02485542255269</v>
+        <v>69.8390301235041</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>71.02485542255269</v>
+        <v>69.8390301235041</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>71.02485542255269</v>
+        <v>69.8390301235041</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>71.02485542255269</v>
+        <v>69.8390301235041</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E217" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E218" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E219" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E220" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E221" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E222" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E223" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E224" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4817.069854747491</v>
+        <v>4778.334757445454</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>69.97458005614688</v>
+        <v>69.77056405591416</v>
       </c>
       <c r="E225" t="n">
-        <v>9.803065568413183</v>
+        <v>9.835434373068738</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E226" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E227" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E228" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E229" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E230" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E231" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E232" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E233" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4758.523405846223</v>
+        <v>4832.598586225788</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>69.76171963613294</v>
+        <v>68.76612474169055</v>
       </c>
       <c r="E234" t="n">
-        <v>9.848743102761047</v>
+        <v>9.762961402225399</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E235" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E236" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E237" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E238" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E239" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E240" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E241" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E242" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4648.290740657591</v>
+        <v>4813.554632935036</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>69.69481260818095</v>
+        <v>69.49081236404648</v>
       </c>
       <c r="E243" t="n">
-        <v>9.798824671445407</v>
+        <v>9.740334260432908</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>70.08779835710128</v>
+        <v>69.93895044140405</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>70.06044666038218</v>
+        <v>71.01174637772709</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>70.06044666038218</v>
+        <v>71.01174637772709</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>70.06044666038218</v>
+        <v>71.01174637772709</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>70.06044666038218</v>
+        <v>71.01174637772709</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>70.06044666038218</v>
+        <v>71.01174637772709</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>70.06044666038218</v>
+        <v>71.01174637772709</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>70.06044666038218</v>
+        <v>71.01174637772709</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>70.06044666038218</v>
+        <v>71.01174637772709</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>70.99080278363598</v>
+        <v>70.49308847962557</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>70.99080278363598</v>
+        <v>70.49308847962557</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>70.99080278363598</v>
+        <v>70.49308847962557</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>70.99080278363598</v>
+        <v>70.49308847962557</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>70.99080278363598</v>
+        <v>70.49308847962557</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>70.99080278363598</v>
+        <v>70.49308847962557</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>70.99080278363598</v>
+        <v>70.49308847962557</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>70.99080278363598</v>
+        <v>70.49308847962557</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>69.72638699377002</v>
+        <v>69.78226142981015</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E278" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E279" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E280" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E281" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E282" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E283" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E284" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E285" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4697.483200003927</v>
+        <v>4894.024261686965</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>70.02040077356737</v>
+        <v>70.49068613924327</v>
       </c>
       <c r="E286" t="n">
-        <v>9.795345832169154</v>
+        <v>9.784719130300253</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>70.28810510557854</v>
+        <v>69.44474655739096</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4727.883022105597</v>
+        <v>4883.350686061549</v>
       </c>
       <c r="C9" t="n">
-        <v>4731.707800477644</v>
+        <v>4794.471967661788</v>
       </c>
       <c r="D9" t="n">
-        <v>69.01378574285665</v>
+        <v>69.82978553303087</v>
       </c>
       <c r="E9" t="n">
-        <v>9.839392487767135</v>
+        <v>9.741839907300712</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4727.883022105597</v>
+        <v>4883.350686061549</v>
       </c>
       <c r="C10" t="n">
-        <v>4731.707800477644</v>
+        <v>4794.471967661788</v>
       </c>
       <c r="D10" t="n">
-        <v>69.01378574285665</v>
+        <v>69.82978553303087</v>
       </c>
       <c r="E10" t="n">
-        <v>9.839392487767135</v>
+        <v>9.741839907300712</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C11" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D11" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E11" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C12" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D12" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E12" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C13" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D13" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E13" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C14" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D14" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E14" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C15" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D15" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E15" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C16" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D16" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E16" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C17" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D17" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E17" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C18" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D18" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E18" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4679.443579049568</v>
+        <v>4881.129276836827</v>
       </c>
       <c r="C19" t="n">
-        <v>4731.016764778606</v>
+        <v>4789.269414198336</v>
       </c>
       <c r="D19" t="n">
-        <v>71.72215018340964</v>
+        <v>70.38361346307086</v>
       </c>
       <c r="E19" t="n">
-        <v>9.76506748003192</v>
+        <v>9.859463040773873</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4589.615619134413</v>
+        <v>4782.180604629327</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.828779160245</v>
+        <v>9.80750672951552</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C38" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C39" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C40" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C41" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C42" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C43" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C44" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C45" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4785.641266803495</v>
+        <v>4794.772768973959</v>
       </c>
       <c r="C46" t="n">
-        <v>4671.983748213919</v>
+        <v>4710.252097249342</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.777554114906501</v>
+        <v>9.856131301456257</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E47" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E48" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E49" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E50" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E51" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E52" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E53" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E54" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4805.778733141216</v>
+        <v>4737.884219999657</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>67.65524378905874</v>
+        <v>70.86942184474894</v>
       </c>
       <c r="E55" t="n">
-        <v>9.784290401895788</v>
+        <v>9.774215085038575</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4834.673055290887</v>
+        <v>4837.137242185284</v>
       </c>
       <c r="C8" t="n">
-        <v>4688.260176270369</v>
+        <v>4795.669193688367</v>
       </c>
       <c r="D8" t="n">
-        <v>69.86314303263497</v>
+        <v>69.47563123521618</v>
       </c>
       <c r="E8" t="n">
-        <v>9.82675330434942</v>
+        <v>9.830712946772181</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4834.673055290887</v>
+        <v>4837.137242185284</v>
       </c>
       <c r="C9" t="n">
-        <v>4688.260176270369</v>
+        <v>4795.669193688367</v>
       </c>
       <c r="D9" t="n">
-        <v>69.86314303263497</v>
+        <v>69.47563123521618</v>
       </c>
       <c r="E9" t="n">
-        <v>9.82675330434942</v>
+        <v>9.830712946772181</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4834.673055290887</v>
+        <v>4837.137242185284</v>
       </c>
       <c r="C10" t="n">
-        <v>4688.260176270369</v>
+        <v>4795.669193688367</v>
       </c>
       <c r="D10" t="n">
-        <v>69.86314303263497</v>
+        <v>69.47563123521618</v>
       </c>
       <c r="E10" t="n">
-        <v>9.82675330434942</v>
+        <v>9.830712946772181</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4834.673055290887</v>
+        <v>4837.137242185284</v>
       </c>
       <c r="C11" t="n">
-        <v>4688.260176270369</v>
+        <v>4795.669193688367</v>
       </c>
       <c r="D11" t="n">
-        <v>69.86314303263497</v>
+        <v>69.47563123521618</v>
       </c>
       <c r="E11" t="n">
-        <v>9.82675330434942</v>
+        <v>9.830712946772181</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4834.673055290887</v>
+        <v>4837.137242185284</v>
       </c>
       <c r="C12" t="n">
-        <v>4688.260176270369</v>
+        <v>4795.669193688367</v>
       </c>
       <c r="D12" t="n">
-        <v>69.86314303263497</v>
+        <v>69.47563123521618</v>
       </c>
       <c r="E12" t="n">
-        <v>9.82675330434942</v>
+        <v>9.830712946772181</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4834.673055290887</v>
+        <v>4837.137242185284</v>
       </c>
       <c r="C13" t="n">
-        <v>4688.260176270369</v>
+        <v>4795.669193688367</v>
       </c>
       <c r="D13" t="n">
-        <v>69.86314303263497</v>
+        <v>69.47563123521618</v>
       </c>
       <c r="E13" t="n">
-        <v>9.82675330434942</v>
+        <v>9.830712946772181</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C14" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D14" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E14" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C15" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D15" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E15" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C16" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D16" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E16" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C17" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D17" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E17" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C18" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D18" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E18" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C19" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D19" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E19" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C20" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D20" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E20" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C21" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D21" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E21" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4798.896022052781</v>
+        <v>4805.912438177824</v>
       </c>
       <c r="C22" t="n">
-        <v>4651.134071046648</v>
+        <v>4822.838556594054</v>
       </c>
       <c r="D22" t="n">
-        <v>70.66326200498172</v>
+        <v>71.08665938764362</v>
       </c>
       <c r="E22" t="n">
-        <v>9.790388318668004</v>
+        <v>9.900487312175528</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C41" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D41" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E41" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C42" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D42" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E42" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C43" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D43" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E43" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C44" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D44" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E44" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C45" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D45" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E45" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C46" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D46" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E46" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C47" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D47" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E47" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C48" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D48" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E48" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4744.114354214537</v>
+        <v>4747.504053684243</v>
       </c>
       <c r="C49" t="n">
-        <v>4612.132886670041</v>
+        <v>4748.836133077224</v>
       </c>
       <c r="D49" t="n">
-        <v>69.99809248002805</v>
+        <v>69.62979034518709</v>
       </c>
       <c r="E49" t="n">
-        <v>9.771176169728502</v>
+        <v>9.836574939270582</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C50" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D50" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E50" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C51" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D51" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E51" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C52" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D52" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E52" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C53" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D53" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E53" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C54" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D54" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E54" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C55" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D55" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E55" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C56" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D56" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E56" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C57" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D57" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E57" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4825.000315820692</v>
+        <v>4852.188138783637</v>
       </c>
       <c r="C58" t="n">
-        <v>4729.482555026775</v>
+        <v>4658.422412027732</v>
       </c>
       <c r="D58" t="n">
-        <v>70.52270634434679</v>
+        <v>70.69348308950445</v>
       </c>
       <c r="E58" t="n">
-        <v>9.866896993333068</v>
+        <v>9.73605799704567</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E68" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E69" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E70" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E71" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E72" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E73" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E74" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E75" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>4685.440699296729</v>
+        <v>4924.94228916578</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>69.21167454441824</v>
+        <v>70.01979309066986</v>
       </c>
       <c r="E76" t="n">
-        <v>9.751015706783022</v>
+        <v>9.723550232565749</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3667.352549416596</v>
+        <v>3721.100888202775</v>
       </c>
       <c r="C2" t="n">
-        <v>4691.184480387613</v>
+        <v>4650.162967700945</v>
       </c>
       <c r="D2" t="n">
-        <v>69.42741867823287</v>
+        <v>69.76463678042934</v>
       </c>
       <c r="E2" t="n">
-        <v>9.800539813903402</v>
+        <v>9.746988340713504</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3667.352549416596</v>
+        <v>3721.100888202775</v>
       </c>
       <c r="C3" t="n">
-        <v>4691.184480387613</v>
+        <v>4650.162967700945</v>
       </c>
       <c r="D3" t="n">
-        <v>69.42741867823287</v>
+        <v>69.76463678042934</v>
       </c>
       <c r="E3" t="n">
-        <v>9.800539813903402</v>
+        <v>9.746988340713504</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3667.352549416596</v>
+        <v>3721.100888202775</v>
       </c>
       <c r="C4" t="n">
-        <v>4691.184480387613</v>
+        <v>4650.162967700945</v>
       </c>
       <c r="D4" t="n">
-        <v>69.42741867823287</v>
+        <v>69.76463678042934</v>
       </c>
       <c r="E4" t="n">
-        <v>9.800539813903402</v>
+        <v>9.746988340713504</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3667.352549416596</v>
+        <v>3721.100888202775</v>
       </c>
       <c r="C5" t="n">
-        <v>4691.184480387613</v>
+        <v>4650.162967700945</v>
       </c>
       <c r="D5" t="n">
-        <v>69.42741867823287</v>
+        <v>69.76463678042934</v>
       </c>
       <c r="E5" t="n">
-        <v>9.800539813903402</v>
+        <v>9.746988340713504</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3667.352549416596</v>
+        <v>3721.100888202775</v>
       </c>
       <c r="C6" t="n">
-        <v>4691.184480387613</v>
+        <v>4650.162967700945</v>
       </c>
       <c r="D6" t="n">
-        <v>69.42741867823287</v>
+        <v>69.76463678042934</v>
       </c>
       <c r="E6" t="n">
-        <v>9.800539813903402</v>
+        <v>9.746988340713504</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3667.352549416596</v>
+        <v>3721.100888202775</v>
       </c>
       <c r="C7" t="n">
-        <v>4691.184480387613</v>
+        <v>4650.162967700945</v>
       </c>
       <c r="D7" t="n">
-        <v>69.42741867823287</v>
+        <v>69.76463678042934</v>
       </c>
       <c r="E7" t="n">
-        <v>9.800539813903402</v>
+        <v>9.746988340713504</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3667.352549416596</v>
+        <v>3721.100888202775</v>
       </c>
       <c r="C8" t="n">
-        <v>4691.184480387613</v>
+        <v>4650.162967700945</v>
       </c>
       <c r="D8" t="n">
-        <v>69.42741867823287</v>
+        <v>69.76463678042934</v>
       </c>
       <c r="E8" t="n">
-        <v>9.800539813903402</v>
+        <v>9.746988340713504</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E9" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E10" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E11" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E12" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E13" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E14" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E15" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E16" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3574.589291312178</v>
+        <v>3668.353539934823</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>69.34074099569818</v>
+        <v>69.63852167564269</v>
       </c>
       <c r="E17" t="n">
-        <v>9.774351482047051</v>
+        <v>9.79651543537325</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3537.310049119191</v>
+        <v>3471.599569750793</v>
       </c>
       <c r="C18" t="n">
-        <v>4714.12691443082</v>
+        <v>4697.859067930611</v>
       </c>
       <c r="D18" t="n">
-        <v>69.62599682166548</v>
+        <v>69.67033392261146</v>
       </c>
       <c r="E18" t="n">
-        <v>9.867740356637844</v>
+        <v>9.938347884747165</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3537.310049119191</v>
+        <v>3471.599569750793</v>
       </c>
       <c r="C19" t="n">
-        <v>4714.12691443082</v>
+        <v>4697.859067930611</v>
       </c>
       <c r="D19" t="n">
-        <v>69.62599682166548</v>
+        <v>69.67033392261146</v>
       </c>
       <c r="E19" t="n">
-        <v>9.867740356637844</v>
+        <v>9.938347884747165</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3537.310049119191</v>
+        <v>3471.599569750793</v>
       </c>
       <c r="C20" t="n">
-        <v>4714.12691443082</v>
+        <v>4697.859067930611</v>
       </c>
       <c r="D20" t="n">
-        <v>69.62599682166548</v>
+        <v>69.67033392261146</v>
       </c>
       <c r="E20" t="n">
-        <v>9.867740356637844</v>
+        <v>9.938347884747165</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3537.310049119191</v>
+        <v>3471.599569750793</v>
       </c>
       <c r="C21" t="n">
-        <v>4714.12691443082</v>
+        <v>4697.859067930611</v>
       </c>
       <c r="D21" t="n">
-        <v>69.62599682166548</v>
+        <v>69.67033392261146</v>
       </c>
       <c r="E21" t="n">
-        <v>9.867740356637844</v>
+        <v>9.938347884747165</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3537.310049119191</v>
+        <v>3471.599569750793</v>
       </c>
       <c r="C22" t="n">
-        <v>4714.12691443082</v>
+        <v>4697.859067930611</v>
       </c>
       <c r="D22" t="n">
-        <v>69.62599682166548</v>
+        <v>69.67033392261146</v>
       </c>
       <c r="E22" t="n">
-        <v>9.867740356637844</v>
+        <v>9.938347884747165</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3537.310049119191</v>
+        <v>3471.599569750793</v>
       </c>
       <c r="C23" t="n">
-        <v>4714.12691443082</v>
+        <v>4697.859067930611</v>
       </c>
       <c r="D23" t="n">
-        <v>69.62599682166548</v>
+        <v>69.67033392261146</v>
       </c>
       <c r="E23" t="n">
-        <v>9.867740356637844</v>
+        <v>9.938347884747165</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3537.310049119191</v>
+        <v>3471.599569750793</v>
       </c>
       <c r="C24" t="n">
-        <v>4714.12691443082</v>
+        <v>4697.859067930611</v>
       </c>
       <c r="D24" t="n">
-        <v>69.62599682166548</v>
+        <v>69.67033392261146</v>
       </c>
       <c r="E24" t="n">
-        <v>9.867740356637844</v>
+        <v>9.938347884747165</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3537.310049119191</v>
+        <v>3471.599569750793</v>
       </c>
       <c r="C25" t="n">
-        <v>4714.12691443082</v>
+        <v>4697.859067930611</v>
       </c>
       <c r="D25" t="n">
-        <v>69.62599682166548</v>
+        <v>69.67033392261146</v>
       </c>
       <c r="E25" t="n">
-        <v>9.867740356637844</v>
+        <v>9.938347884747165</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E34" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E35" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E36" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E37" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E38" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E39" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E40" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E41" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3556.769053787871</v>
+        <v>3555.299969190277</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>70.17621362384783</v>
+        <v>68.93367547483243</v>
       </c>
       <c r="E42" t="n">
-        <v>9.834406047735296</v>
+        <v>9.791050541722592</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3794.935097232165</v>
+        <v>3635.478922352336</v>
       </c>
       <c r="C43" t="n">
-        <v>4790.338151724871</v>
+        <v>4777.478141261803</v>
       </c>
       <c r="D43" t="n">
-        <v>70.07035828943685</v>
+        <v>70.19722778789016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.69913500739497</v>
+        <v>9.639423410068945</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3794.935097232165</v>
+        <v>3635.478922352336</v>
       </c>
       <c r="C44" t="n">
-        <v>4790.338151724871</v>
+        <v>4777.478141261803</v>
       </c>
       <c r="D44" t="n">
-        <v>70.07035828943685</v>
+        <v>70.19722778789016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.69913500739497</v>
+        <v>9.639423410068945</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3794.935097232165</v>
+        <v>3635.478922352336</v>
       </c>
       <c r="C45" t="n">
-        <v>4790.338151724871</v>
+        <v>4777.478141261803</v>
       </c>
       <c r="D45" t="n">
-        <v>70.07035828943685</v>
+        <v>70.19722778789016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.69913500739497</v>
+        <v>9.639423410068945</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3794.935097232165</v>
+        <v>3635.478922352336</v>
       </c>
       <c r="C46" t="n">
-        <v>4790.338151724871</v>
+        <v>4777.478141261803</v>
       </c>
       <c r="D46" t="n">
-        <v>70.07035828943685</v>
+        <v>70.19722778789016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.69913500739497</v>
+        <v>9.639423410068945</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3794.935097232165</v>
+        <v>3635.478922352336</v>
       </c>
       <c r="C47" t="n">
-        <v>4790.338151724871</v>
+        <v>4777.478141261803</v>
       </c>
       <c r="D47" t="n">
-        <v>70.07035828943685</v>
+        <v>70.19722778789016</v>
       </c>
       <c r="E47" t="n">
-        <v>9.69913500739497</v>
+        <v>9.639423410068945</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3794.935097232165</v>
+        <v>3635.478922352336</v>
       </c>
       <c r="C48" t="n">
-        <v>4790.338151724871</v>
+        <v>4777.478141261803</v>
       </c>
       <c r="D48" t="n">
-        <v>70.07035828943685</v>
+        <v>70.19722778789016</v>
       </c>
       <c r="E48" t="n">
-        <v>9.69913500739497</v>
+        <v>9.639423410068945</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3794.935097232165</v>
+        <v>3635.478922352336</v>
       </c>
       <c r="C49" t="n">
-        <v>4790.338151724871</v>
+        <v>4777.478141261803</v>
       </c>
       <c r="D49" t="n">
-        <v>70.07035828943685</v>
+        <v>70.19722778789016</v>
       </c>
       <c r="E49" t="n">
-        <v>9.69913500739497</v>
+        <v>9.639423410068945</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3794.935097232165</v>
+        <v>3635.478922352336</v>
       </c>
       <c r="C50" t="n">
-        <v>4790.338151724871</v>
+        <v>4777.478141261803</v>
       </c>
       <c r="D50" t="n">
-        <v>70.07035828943685</v>
+        <v>70.19722778789016</v>
       </c>
       <c r="E50" t="n">
-        <v>9.69913500739497</v>
+        <v>9.639423410068945</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3820.840528090371</v>
+        <v>3614.289501876458</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>69.69205742969135</v>
+        <v>69.87591884616755</v>
       </c>
       <c r="E59" t="n">
-        <v>9.661701318109792</v>
+        <v>9.759223012324137</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3820.840528090371</v>
+        <v>3614.289501876458</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>69.69205742969135</v>
+        <v>69.87591884616755</v>
       </c>
       <c r="E60" t="n">
-        <v>9.661701318109792</v>
+        <v>9.759223012324137</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3820.840528090371</v>
+        <v>3614.289501876458</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>69.69205742969135</v>
+        <v>69.87591884616755</v>
       </c>
       <c r="E61" t="n">
-        <v>9.661701318109792</v>
+        <v>9.759223012324137</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3820.840528090371</v>
+        <v>3614.289501876458</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>69.69205742969135</v>
+        <v>69.87591884616755</v>
       </c>
       <c r="E62" t="n">
-        <v>9.661701318109792</v>
+        <v>9.759223012324137</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3820.840528090371</v>
+        <v>3614.289501876458</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>69.69205742969135</v>
+        <v>69.87591884616755</v>
       </c>
       <c r="E63" t="n">
-        <v>9.661701318109792</v>
+        <v>9.759223012324137</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3820.840528090371</v>
+        <v>3614.289501876458</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>69.69205742969135</v>
+        <v>69.87591884616755</v>
       </c>
       <c r="E64" t="n">
-        <v>9.661701318109792</v>
+        <v>9.759223012324137</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3820.840528090371</v>
+        <v>3614.289501876458</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>69.69205742969135</v>
+        <v>69.87591884616755</v>
       </c>
       <c r="E65" t="n">
-        <v>9.661701318109792</v>
+        <v>9.759223012324137</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3820.840528090371</v>
+        <v>3614.289501876458</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>69.69205742969135</v>
+        <v>69.87591884616755</v>
       </c>
       <c r="E66" t="n">
-        <v>9.661701318109792</v>
+        <v>9.759223012324137</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C67" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D67" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E67" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C68" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D68" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E68" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C69" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D69" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E69" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C70" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D70" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E70" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C71" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D71" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E71" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C72" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D72" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E72" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C73" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D73" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E73" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C74" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D74" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E74" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3815.589334762092</v>
+        <v>3688.04531770759</v>
       </c>
       <c r="C75" t="n">
-        <v>4645.714289345865</v>
+        <v>4697.766041079425</v>
       </c>
       <c r="D75" t="n">
-        <v>71.11663457767169</v>
+        <v>70.89670794463002</v>
       </c>
       <c r="E75" t="n">
-        <v>9.784927549954341</v>
+        <v>9.737723362356434</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E76" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E77" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E78" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E79" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E80" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E81" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E82" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E83" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3642.796195883239</v>
+        <v>3643.295818315458</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>70.0359254499751</v>
+        <v>68.41824090538536</v>
       </c>
       <c r="E84" t="n">
-        <v>9.686260515385118</v>
+        <v>9.817682821654648</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3628.345012286849</v>
+        <v>3676.548677721259</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3670.531455464144</v>
+        <v>3686.872048833678</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>69.65693932307431</v>
+        <v>70.25898746385676</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C2" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D2" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E2" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C3" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D3" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E3" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C4" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D4" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E4" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C5" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D5" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E5" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C6" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D6" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E6" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C7" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D7" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E7" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C8" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D8" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E8" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C9" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D9" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E9" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4794.334131994378</v>
+        <v>4871.53309664009</v>
       </c>
       <c r="C10" t="n">
-        <v>4679.52390642628</v>
+        <v>4787.41759524081</v>
       </c>
       <c r="D10" t="n">
-        <v>70.10107568403592</v>
+        <v>69.91893372119756</v>
       </c>
       <c r="E10" t="n">
-        <v>9.738034086888538</v>
+        <v>9.745469364117872</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4937.636137093007</v>
+        <v>4827.313068039786</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4937.636137093007</v>
+        <v>4827.313068039786</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4937.636137093007</v>
+        <v>4827.313068039786</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4937.636137093007</v>
+        <v>4827.313068039786</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4937.636137093007</v>
+        <v>4827.313068039786</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4937.636137093007</v>
+        <v>4827.313068039786</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4937.636137093007</v>
+        <v>4827.313068039786</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4937.636137093007</v>
+        <v>4827.313068039786</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4862.037686999288</v>
+        <v>4801.275344167294</v>
       </c>
       <c r="C19" t="n">
-        <v>4700.245878243205</v>
+        <v>4781.422055609708</v>
       </c>
       <c r="D19" t="n">
-        <v>69.4379724794879</v>
+        <v>69.81397917883916</v>
       </c>
       <c r="E19" t="n">
-        <v>9.804895537193792</v>
+        <v>9.78218775311365</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4862.037686999288</v>
+        <v>4801.275344167294</v>
       </c>
       <c r="C20" t="n">
-        <v>4700.245878243205</v>
+        <v>4781.422055609708</v>
       </c>
       <c r="D20" t="n">
-        <v>69.4379724794879</v>
+        <v>69.81397917883916</v>
       </c>
       <c r="E20" t="n">
-        <v>9.804895537193792</v>
+        <v>9.78218775311365</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4862.037686999288</v>
+        <v>4801.275344167294</v>
       </c>
       <c r="C21" t="n">
-        <v>4700.245878243205</v>
+        <v>4781.422055609708</v>
       </c>
       <c r="D21" t="n">
-        <v>69.4379724794879</v>
+        <v>69.81397917883916</v>
       </c>
       <c r="E21" t="n">
-        <v>9.804895537193792</v>
+        <v>9.78218775311365</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4862.037686999288</v>
+        <v>4801.275344167294</v>
       </c>
       <c r="C22" t="n">
-        <v>4700.245878243205</v>
+        <v>4781.422055609708</v>
       </c>
       <c r="D22" t="n">
-        <v>69.4379724794879</v>
+        <v>69.81397917883916</v>
       </c>
       <c r="E22" t="n">
-        <v>9.804895537193792</v>
+        <v>9.78218775311365</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4862.037686999288</v>
+        <v>4801.275344167294</v>
       </c>
       <c r="C23" t="n">
-        <v>4700.245878243205</v>
+        <v>4781.422055609708</v>
       </c>
       <c r="D23" t="n">
-        <v>69.4379724794879</v>
+        <v>69.81397917883916</v>
       </c>
       <c r="E23" t="n">
-        <v>9.804895537193792</v>
+        <v>9.78218775311365</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4862.037686999288</v>
+        <v>4801.275344167294</v>
       </c>
       <c r="C24" t="n">
-        <v>4700.245878243205</v>
+        <v>4781.422055609708</v>
       </c>
       <c r="D24" t="n">
-        <v>69.4379724794879</v>
+        <v>69.81397917883916</v>
       </c>
       <c r="E24" t="n">
-        <v>9.804895537193792</v>
+        <v>9.78218775311365</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4577.945097762189</v>
+        <v>4838.019928411581</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.840259694802388</v>
+        <v>9.746665401826597</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4577.945097762189</v>
+        <v>4838.019928411581</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.840259694802388</v>
+        <v>9.746665401826597</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4577.945097762189</v>
+        <v>4838.019928411581</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.840259694802388</v>
+        <v>9.746665401826597</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4577.945097762189</v>
+        <v>4838.019928411581</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.840259694802388</v>
+        <v>9.746665401826597</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4577.945097762189</v>
+        <v>4838.019928411581</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.840259694802388</v>
+        <v>9.746665401826597</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4577.945097762189</v>
+        <v>4838.019928411581</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.840259694802388</v>
+        <v>9.746665401826597</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C58" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C59" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C60" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C61" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C62" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C63" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C64" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C65" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4823.143189500282</v>
+        <v>4684.664724620801</v>
       </c>
       <c r="C66" t="n">
-        <v>4711.811895606045</v>
+        <v>4637.760125838415</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.819738605824375</v>
+        <v>9.81648164198862</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C85" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D85" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E85" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C86" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D86" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E86" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C87" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D87" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E87" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C88" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D88" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E88" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C89" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D89" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E89" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C90" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D90" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E90" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C91" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D91" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E91" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C92" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D92" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E92" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4760.33228368133</v>
+        <v>4772.28433216851</v>
       </c>
       <c r="C93" t="n">
-        <v>4772.033255760176</v>
+        <v>4749.937682924538</v>
       </c>
       <c r="D93" t="n">
-        <v>70.51638594219855</v>
+        <v>70.60290819459331</v>
       </c>
       <c r="E93" t="n">
-        <v>9.814935192212179</v>
+        <v>9.740517184921277</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E103" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E104" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E105" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E106" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E107" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E108" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E109" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E110" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4733.509961432022</v>
+        <v>4776.651852837095</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>69.47230358717829</v>
+        <v>70.80910304762479</v>
       </c>
       <c r="E111" t="n">
-        <v>9.812778438168181</v>
+        <v>9.89196120538395</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E112" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E113" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E114" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E115" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E116" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E117" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E118" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E119" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4773.552561111464</v>
+        <v>4632.494431062628</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>69.19506513915445</v>
+        <v>68.68024459142077</v>
       </c>
       <c r="E120" t="n">
-        <v>9.81317850448171</v>
+        <v>9.890833848052665</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>69.57710104166041</v>
+        <v>69.83496277595624</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>69.57710104166041</v>
+        <v>69.83496277595624</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>69.57710104166041</v>
+        <v>69.83496277595624</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>69.57710104166041</v>
+        <v>69.83496277595624</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>69.57710104166041</v>
+        <v>69.83496277595624</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>69.57710104166041</v>
+        <v>69.83496277595624</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>69.57710104166041</v>
+        <v>69.83496277595624</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>69.57710104166041</v>
+        <v>69.83496277595624</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E138" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E139" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E140" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E141" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E142" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E143" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E144" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E145" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4743.901056171136</v>
+        <v>4813.740606909135</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>71.02288282638619</v>
+        <v>69.78343295768163</v>
       </c>
       <c r="E146" t="n">
-        <v>9.820505807996453</v>
+        <v>9.801863234446659</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>69.27731564103564</v>
+        <v>70.05242866902289</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C156" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D156" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E156" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C157" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D157" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E157" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C158" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D158" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E158" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C159" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D159" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E159" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C160" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D160" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E160" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C161" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D161" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E161" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C162" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D162" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E162" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C163" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D163" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E163" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4790.013798083587</v>
+        <v>4853.955652549915</v>
       </c>
       <c r="C164" t="n">
-        <v>4761.271900782138</v>
+        <v>4704.742995570398</v>
       </c>
       <c r="D164" t="n">
-        <v>69.39910623538191</v>
+        <v>71.40327748623022</v>
       </c>
       <c r="E164" t="n">
-        <v>9.846810653362265</v>
+        <v>9.825740933458507</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E165" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E166" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E167" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E168" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E169" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E170" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E171" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E172" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4773.413919229131</v>
+        <v>4559.437484486178</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>69.94576903197235</v>
+        <v>69.54592412938628</v>
       </c>
       <c r="E173" t="n">
-        <v>9.750641569253341</v>
+        <v>9.750336172650721</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>70.37290948092019</v>
+        <v>69.76964986452775</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>71.09990494775538</v>
+        <v>69.81420003913512</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>71.09990494775538</v>
+        <v>69.81420003913512</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>71.09990494775538</v>
+        <v>69.81420003913512</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>71.09990494775538</v>
+        <v>69.81420003913512</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>71.09990494775538</v>
+        <v>69.81420003913512</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>71.09990494775538</v>
+        <v>69.81420003913512</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>71.09990494775538</v>
+        <v>69.81420003913512</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>71.09990494775538</v>
+        <v>69.81420003913512</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>69.58472020319617</v>
+        <v>69.52513505091876</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>71.47922511410459</v>
+        <v>69.42877257108779</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>69.8390301235041</v>
+        <v>69.91491729954019</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>69.8390301235041</v>
+        <v>69.91491729954019</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>69.8390301235041</v>
+        <v>69.91491729954019</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>69.8390301235041</v>
+        <v>69.91491729954019</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>69.8390301235041</v>
+        <v>69.91491729954019</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>69.8390301235041</v>
+        <v>69.91491729954019</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>69.8390301235041</v>
+        <v>69.91491729954019</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>69.8390301235041</v>
+        <v>69.91491729954019</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E217" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E218" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E219" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E220" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E221" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E222" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E223" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E224" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4778.334757445454</v>
+        <v>4719.131079597044</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>69.77056405591416</v>
+        <v>69.70626929378422</v>
       </c>
       <c r="E225" t="n">
-        <v>9.835434373068738</v>
+        <v>9.824738254662764</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E226" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E227" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E228" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E229" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E230" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E231" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E232" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E233" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4832.598586225788</v>
+        <v>4647.041672865173</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>68.76612474169055</v>
+        <v>70.14292958077496</v>
       </c>
       <c r="E234" t="n">
-        <v>9.762961402225399</v>
+        <v>9.810343603367645</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E235" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E236" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E237" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E238" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E239" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E240" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E241" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E242" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4813.554632935036</v>
+        <v>4740.263849832095</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>69.49081236404648</v>
+        <v>68.99534913178971</v>
       </c>
       <c r="E243" t="n">
-        <v>9.740334260432908</v>
+        <v>9.907936173632537</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>69.93895044140405</v>
+        <v>69.26133541304752</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>71.01174637772709</v>
+        <v>69.33287062425903</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>71.01174637772709</v>
+        <v>69.33287062425903</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>71.01174637772709</v>
+        <v>69.33287062425903</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>71.01174637772709</v>
+        <v>69.33287062425903</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>71.01174637772709</v>
+        <v>69.33287062425903</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>71.01174637772709</v>
+        <v>69.33287062425903</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>71.01174637772709</v>
+        <v>69.33287062425903</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>71.01174637772709</v>
+        <v>69.33287062425903</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>70.49308847962557</v>
+        <v>70.48850037840914</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>70.49308847962557</v>
+        <v>70.48850037840914</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>70.49308847962557</v>
+        <v>70.48850037840914</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>70.49308847962557</v>
+        <v>70.48850037840914</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>70.49308847962557</v>
+        <v>70.48850037840914</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>70.49308847962557</v>
+        <v>70.48850037840914</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>70.49308847962557</v>
+        <v>70.48850037840914</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>70.49308847962557</v>
+        <v>70.48850037840914</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>69.78226142981015</v>
+        <v>70.97738251649193</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E278" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E279" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E280" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E281" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E282" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E283" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E284" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E285" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4894.024261686965</v>
+        <v>4850.48815745817</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>70.49068613924327</v>
+        <v>70.39421068323482</v>
       </c>
       <c r="E286" t="n">
-        <v>9.784719130300253</v>
+        <v>9.834925685729893</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>69.44474655739096</v>
+        <v>70.13511616709282</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4883.350686061549</v>
+        <v>4864.309324020272</v>
       </c>
       <c r="C9" t="n">
-        <v>4794.471967661788</v>
+        <v>4737.398768302743</v>
       </c>
       <c r="D9" t="n">
-        <v>69.82978553303087</v>
+        <v>69.53618948677523</v>
       </c>
       <c r="E9" t="n">
-        <v>9.741839907300712</v>
+        <v>9.794352278933861</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4883.350686061549</v>
+        <v>4864.309324020272</v>
       </c>
       <c r="C10" t="n">
-        <v>4794.471967661788</v>
+        <v>4737.398768302743</v>
       </c>
       <c r="D10" t="n">
-        <v>69.82978553303087</v>
+        <v>69.53618948677523</v>
       </c>
       <c r="E10" t="n">
-        <v>9.741839907300712</v>
+        <v>9.794352278933861</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C11" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D11" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E11" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C12" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D12" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E12" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C13" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D13" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E13" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C14" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D14" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E14" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C15" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D15" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E15" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C16" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D16" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E16" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C17" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D17" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E17" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C18" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D18" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E18" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4881.129276836827</v>
+        <v>4653.634328585266</v>
       </c>
       <c r="C19" t="n">
-        <v>4789.269414198336</v>
+        <v>4736.728082910243</v>
       </c>
       <c r="D19" t="n">
-        <v>70.38361346307086</v>
+        <v>72.50717290138688</v>
       </c>
       <c r="E19" t="n">
-        <v>9.859463040773873</v>
+        <v>9.841882323178179</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4782.180604629327</v>
+        <v>4739.784973454033</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.80750672951552</v>
+        <v>9.849241210389629</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C38" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C39" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C40" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C41" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C42" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C43" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C44" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C45" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4794.772768973959</v>
+        <v>4828.269746311252</v>
       </c>
       <c r="C46" t="n">
-        <v>4710.252097249342</v>
+        <v>4723.64917853051</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.856131301456257</v>
+        <v>9.799439890518673</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E47" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E48" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E49" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E50" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E51" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E52" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E53" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E54" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4737.884219999657</v>
+        <v>4867.013396093238</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>70.86942184474894</v>
+        <v>70.60874183902304</v>
       </c>
       <c r="E55" t="n">
-        <v>9.774215085038575</v>
+        <v>9.823055832757397</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4837.137242185284</v>
+        <v>4709.186870677035</v>
       </c>
       <c r="C8" t="n">
-        <v>4795.669193688367</v>
+        <v>4753.733972158218</v>
       </c>
       <c r="D8" t="n">
-        <v>69.47563123521618</v>
+        <v>70.40939206241529</v>
       </c>
       <c r="E8" t="n">
-        <v>9.830712946772181</v>
+        <v>9.784555302093278</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4837.137242185284</v>
+        <v>4709.186870677035</v>
       </c>
       <c r="C9" t="n">
-        <v>4795.669193688367</v>
+        <v>4753.733972158218</v>
       </c>
       <c r="D9" t="n">
-        <v>69.47563123521618</v>
+        <v>70.40939206241529</v>
       </c>
       <c r="E9" t="n">
-        <v>9.830712946772181</v>
+        <v>9.784555302093278</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4837.137242185284</v>
+        <v>4709.186870677035</v>
       </c>
       <c r="C10" t="n">
-        <v>4795.669193688367</v>
+        <v>4753.733972158218</v>
       </c>
       <c r="D10" t="n">
-        <v>69.47563123521618</v>
+        <v>70.40939206241529</v>
       </c>
       <c r="E10" t="n">
-        <v>9.830712946772181</v>
+        <v>9.784555302093278</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4837.137242185284</v>
+        <v>4709.186870677035</v>
       </c>
       <c r="C11" t="n">
-        <v>4795.669193688367</v>
+        <v>4753.733972158218</v>
       </c>
       <c r="D11" t="n">
-        <v>69.47563123521618</v>
+        <v>70.40939206241529</v>
       </c>
       <c r="E11" t="n">
-        <v>9.830712946772181</v>
+        <v>9.784555302093278</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4837.137242185284</v>
+        <v>4709.186870677035</v>
       </c>
       <c r="C12" t="n">
-        <v>4795.669193688367</v>
+        <v>4753.733972158218</v>
       </c>
       <c r="D12" t="n">
-        <v>69.47563123521618</v>
+        <v>70.40939206241529</v>
       </c>
       <c r="E12" t="n">
-        <v>9.830712946772181</v>
+        <v>9.784555302093278</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4837.137242185284</v>
+        <v>4709.186870677035</v>
       </c>
       <c r="C13" t="n">
-        <v>4795.669193688367</v>
+        <v>4753.733972158218</v>
       </c>
       <c r="D13" t="n">
-        <v>69.47563123521618</v>
+        <v>70.40939206241529</v>
       </c>
       <c r="E13" t="n">
-        <v>9.830712946772181</v>
+        <v>9.784555302093278</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C14" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D14" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E14" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C15" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D15" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E15" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C16" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D16" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E16" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C17" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D17" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E17" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C18" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D18" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E18" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C19" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D19" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E19" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C20" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D20" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E20" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C21" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D21" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E21" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4805.912438177824</v>
+        <v>4954.524480090651</v>
       </c>
       <c r="C22" t="n">
-        <v>4822.838556594054</v>
+        <v>4796.463396600176</v>
       </c>
       <c r="D22" t="n">
-        <v>71.08665938764362</v>
+        <v>70.39896163403893</v>
       </c>
       <c r="E22" t="n">
-        <v>9.900487312175528</v>
+        <v>9.7895026513192</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C41" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D41" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E41" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C42" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D42" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E42" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C43" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D43" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E43" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C44" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D44" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E44" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C45" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D45" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E45" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C46" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D46" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E46" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C47" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D47" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E47" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C48" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D48" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E48" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4747.504053684243</v>
+        <v>4852.636455266733</v>
       </c>
       <c r="C49" t="n">
-        <v>4748.836133077224</v>
+        <v>4643.612899571972</v>
       </c>
       <c r="D49" t="n">
-        <v>69.62979034518709</v>
+        <v>70.8436709335904</v>
       </c>
       <c r="E49" t="n">
-        <v>9.836574939270582</v>
+        <v>9.794346560622076</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C50" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D50" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E50" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C51" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D51" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E51" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C52" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D52" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E52" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C53" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D53" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E53" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C54" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D54" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E54" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C55" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D55" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E55" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C56" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D56" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E56" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C57" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D57" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E57" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4852.188138783637</v>
+        <v>4981.302967900136</v>
       </c>
       <c r="C58" t="n">
-        <v>4658.422412027732</v>
+        <v>4809.869674534458</v>
       </c>
       <c r="D58" t="n">
-        <v>70.69348308950445</v>
+        <v>70.47737826209452</v>
       </c>
       <c r="E58" t="n">
-        <v>9.73605799704567</v>
+        <v>9.793471497144969</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E68" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E69" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E70" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E71" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E72" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E73" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E74" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E75" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>4924.94228916578</v>
+        <v>5008.392403734773</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>70.01979309066986</v>
+        <v>69.50708676716094</v>
       </c>
       <c r="E76" t="n">
-        <v>9.723550232565749</v>
+        <v>9.717758181547518</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3721.100888202775</v>
+        <v>3516.36043616241</v>
       </c>
       <c r="C2" t="n">
-        <v>4650.162967700945</v>
+        <v>4902.840910768027</v>
       </c>
       <c r="D2" t="n">
-        <v>69.76463678042934</v>
+        <v>71.44808551886588</v>
       </c>
       <c r="E2" t="n">
-        <v>9.746988340713504</v>
+        <v>9.727642840775827</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3721.100888202775</v>
+        <v>3516.36043616241</v>
       </c>
       <c r="C3" t="n">
-        <v>4650.162967700945</v>
+        <v>4902.840910768027</v>
       </c>
       <c r="D3" t="n">
-        <v>69.76463678042934</v>
+        <v>71.44808551886588</v>
       </c>
       <c r="E3" t="n">
-        <v>9.746988340713504</v>
+        <v>9.727642840775827</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3721.100888202775</v>
+        <v>3516.36043616241</v>
       </c>
       <c r="C4" t="n">
-        <v>4650.162967700945</v>
+        <v>4902.840910768027</v>
       </c>
       <c r="D4" t="n">
-        <v>69.76463678042934</v>
+        <v>71.44808551886588</v>
       </c>
       <c r="E4" t="n">
-        <v>9.746988340713504</v>
+        <v>9.727642840775827</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3721.100888202775</v>
+        <v>3516.36043616241</v>
       </c>
       <c r="C5" t="n">
-        <v>4650.162967700945</v>
+        <v>4902.840910768027</v>
       </c>
       <c r="D5" t="n">
-        <v>69.76463678042934</v>
+        <v>71.44808551886588</v>
       </c>
       <c r="E5" t="n">
-        <v>9.746988340713504</v>
+        <v>9.727642840775827</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3721.100888202775</v>
+        <v>3516.36043616241</v>
       </c>
       <c r="C6" t="n">
-        <v>4650.162967700945</v>
+        <v>4902.840910768027</v>
       </c>
       <c r="D6" t="n">
-        <v>69.76463678042934</v>
+        <v>71.44808551886588</v>
       </c>
       <c r="E6" t="n">
-        <v>9.746988340713504</v>
+        <v>9.727642840775827</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3721.100888202775</v>
+        <v>3516.36043616241</v>
       </c>
       <c r="C7" t="n">
-        <v>4650.162967700945</v>
+        <v>4902.840910768027</v>
       </c>
       <c r="D7" t="n">
-        <v>69.76463678042934</v>
+        <v>71.44808551886588</v>
       </c>
       <c r="E7" t="n">
-        <v>9.746988340713504</v>
+        <v>9.727642840775827</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3721.100888202775</v>
+        <v>3516.36043616241</v>
       </c>
       <c r="C8" t="n">
-        <v>4650.162967700945</v>
+        <v>4902.840910768027</v>
       </c>
       <c r="D8" t="n">
-        <v>69.76463678042934</v>
+        <v>71.44808551886588</v>
       </c>
       <c r="E8" t="n">
-        <v>9.746988340713504</v>
+        <v>9.727642840775827</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E9" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E10" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E11" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E12" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E13" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E14" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E15" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E16" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3668.353539934823</v>
+        <v>3621.892609327232</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>69.63852167564269</v>
+        <v>70.27870729422801</v>
       </c>
       <c r="E17" t="n">
-        <v>9.79651543537325</v>
+        <v>9.946555961326172</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3471.599569750793</v>
+        <v>3718.510363769929</v>
       </c>
       <c r="C18" t="n">
-        <v>4697.859067930611</v>
+        <v>4769.50929233265</v>
       </c>
       <c r="D18" t="n">
-        <v>69.67033392261146</v>
+        <v>68.76884096623806</v>
       </c>
       <c r="E18" t="n">
-        <v>9.938347884747165</v>
+        <v>9.863473717894079</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3471.599569750793</v>
+        <v>3718.510363769929</v>
       </c>
       <c r="C19" t="n">
-        <v>4697.859067930611</v>
+        <v>4769.50929233265</v>
       </c>
       <c r="D19" t="n">
-        <v>69.67033392261146</v>
+        <v>68.76884096623806</v>
       </c>
       <c r="E19" t="n">
-        <v>9.938347884747165</v>
+        <v>9.863473717894079</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3471.599569750793</v>
+        <v>3718.510363769929</v>
       </c>
       <c r="C20" t="n">
-        <v>4697.859067930611</v>
+        <v>4769.50929233265</v>
       </c>
       <c r="D20" t="n">
-        <v>69.67033392261146</v>
+        <v>68.76884096623806</v>
       </c>
       <c r="E20" t="n">
-        <v>9.938347884747165</v>
+        <v>9.863473717894079</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3471.599569750793</v>
+        <v>3718.510363769929</v>
       </c>
       <c r="C21" t="n">
-        <v>4697.859067930611</v>
+        <v>4769.50929233265</v>
       </c>
       <c r="D21" t="n">
-        <v>69.67033392261146</v>
+        <v>68.76884096623806</v>
       </c>
       <c r="E21" t="n">
-        <v>9.938347884747165</v>
+        <v>9.863473717894079</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3471.599569750793</v>
+        <v>3718.510363769929</v>
       </c>
       <c r="C22" t="n">
-        <v>4697.859067930611</v>
+        <v>4769.50929233265</v>
       </c>
       <c r="D22" t="n">
-        <v>69.67033392261146</v>
+        <v>68.76884096623806</v>
       </c>
       <c r="E22" t="n">
-        <v>9.938347884747165</v>
+        <v>9.863473717894079</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3471.599569750793</v>
+        <v>3718.510363769929</v>
       </c>
       <c r="C23" t="n">
-        <v>4697.859067930611</v>
+        <v>4769.50929233265</v>
       </c>
       <c r="D23" t="n">
-        <v>69.67033392261146</v>
+        <v>68.76884096623806</v>
       </c>
       <c r="E23" t="n">
-        <v>9.938347884747165</v>
+        <v>9.863473717894079</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3471.599569750793</v>
+        <v>3718.510363769929</v>
       </c>
       <c r="C24" t="n">
-        <v>4697.859067930611</v>
+        <v>4769.50929233265</v>
       </c>
       <c r="D24" t="n">
-        <v>69.67033392261146</v>
+        <v>68.76884096623806</v>
       </c>
       <c r="E24" t="n">
-        <v>9.938347884747165</v>
+        <v>9.863473717894079</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3471.599569750793</v>
+        <v>3718.510363769929</v>
       </c>
       <c r="C25" t="n">
-        <v>4697.859067930611</v>
+        <v>4769.50929233265</v>
       </c>
       <c r="D25" t="n">
-        <v>69.67033392261146</v>
+        <v>68.76884096623806</v>
       </c>
       <c r="E25" t="n">
-        <v>9.938347884747165</v>
+        <v>9.863473717894079</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E34" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E35" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E36" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E37" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E38" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E39" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E40" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E41" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3555.299969190277</v>
+        <v>3553.229010704612</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>68.93367547483243</v>
+        <v>71.10255630545119</v>
       </c>
       <c r="E42" t="n">
-        <v>9.791050541722592</v>
+        <v>9.93960379393118</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3635.478922352336</v>
+        <v>3751.144937986573</v>
       </c>
       <c r="C43" t="n">
-        <v>4777.478141261803</v>
+        <v>4695.158470316313</v>
       </c>
       <c r="D43" t="n">
-        <v>70.19722778789016</v>
+        <v>70.25869401957921</v>
       </c>
       <c r="E43" t="n">
-        <v>9.639423410068945</v>
+        <v>9.833740910704231</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3635.478922352336</v>
+        <v>3751.144937986573</v>
       </c>
       <c r="C44" t="n">
-        <v>4777.478141261803</v>
+        <v>4695.158470316313</v>
       </c>
       <c r="D44" t="n">
-        <v>70.19722778789016</v>
+        <v>70.25869401957921</v>
       </c>
       <c r="E44" t="n">
-        <v>9.639423410068945</v>
+        <v>9.833740910704231</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3635.478922352336</v>
+        <v>3751.144937986573</v>
       </c>
       <c r="C45" t="n">
-        <v>4777.478141261803</v>
+        <v>4695.158470316313</v>
       </c>
       <c r="D45" t="n">
-        <v>70.19722778789016</v>
+        <v>70.25869401957921</v>
       </c>
       <c r="E45" t="n">
-        <v>9.639423410068945</v>
+        <v>9.833740910704231</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3635.478922352336</v>
+        <v>3751.144937986573</v>
       </c>
       <c r="C46" t="n">
-        <v>4777.478141261803</v>
+        <v>4695.158470316313</v>
       </c>
       <c r="D46" t="n">
-        <v>70.19722778789016</v>
+        <v>70.25869401957921</v>
       </c>
       <c r="E46" t="n">
-        <v>9.639423410068945</v>
+        <v>9.833740910704231</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3635.478922352336</v>
+        <v>3751.144937986573</v>
       </c>
       <c r="C47" t="n">
-        <v>4777.478141261803</v>
+        <v>4695.158470316313</v>
       </c>
       <c r="D47" t="n">
-        <v>70.19722778789016</v>
+        <v>70.25869401957921</v>
       </c>
       <c r="E47" t="n">
-        <v>9.639423410068945</v>
+        <v>9.833740910704231</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3635.478922352336</v>
+        <v>3751.144937986573</v>
       </c>
       <c r="C48" t="n">
-        <v>4777.478141261803</v>
+        <v>4695.158470316313</v>
       </c>
       <c r="D48" t="n">
-        <v>70.19722778789016</v>
+        <v>70.25869401957921</v>
       </c>
       <c r="E48" t="n">
-        <v>9.639423410068945</v>
+        <v>9.833740910704231</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3635.478922352336</v>
+        <v>3751.144937986573</v>
       </c>
       <c r="C49" t="n">
-        <v>4777.478141261803</v>
+        <v>4695.158470316313</v>
       </c>
       <c r="D49" t="n">
-        <v>70.19722778789016</v>
+        <v>70.25869401957921</v>
       </c>
       <c r="E49" t="n">
-        <v>9.639423410068945</v>
+        <v>9.833740910704231</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3635.478922352336</v>
+        <v>3751.144937986573</v>
       </c>
       <c r="C50" t="n">
-        <v>4777.478141261803</v>
+        <v>4695.158470316313</v>
       </c>
       <c r="D50" t="n">
-        <v>70.19722778789016</v>
+        <v>70.25869401957921</v>
       </c>
       <c r="E50" t="n">
-        <v>9.639423410068945</v>
+        <v>9.833740910704231</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3614.289501876458</v>
+        <v>3700.664525136198</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>69.87591884616755</v>
+        <v>70.01631906797988</v>
       </c>
       <c r="E59" t="n">
-        <v>9.759223012324137</v>
+        <v>9.800133186911019</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3614.289501876458</v>
+        <v>3700.664525136198</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>69.87591884616755</v>
+        <v>70.01631906797988</v>
       </c>
       <c r="E60" t="n">
-        <v>9.759223012324137</v>
+        <v>9.800133186911019</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3614.289501876458</v>
+        <v>3700.664525136198</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>69.87591884616755</v>
+        <v>70.01631906797988</v>
       </c>
       <c r="E61" t="n">
-        <v>9.759223012324137</v>
+        <v>9.800133186911019</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3614.289501876458</v>
+        <v>3700.664525136198</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>69.87591884616755</v>
+        <v>70.01631906797988</v>
       </c>
       <c r="E62" t="n">
-        <v>9.759223012324137</v>
+        <v>9.800133186911019</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3614.289501876458</v>
+        <v>3700.664525136198</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>69.87591884616755</v>
+        <v>70.01631906797988</v>
       </c>
       <c r="E63" t="n">
-        <v>9.759223012324137</v>
+        <v>9.800133186911019</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3614.289501876458</v>
+        <v>3700.664525136198</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>69.87591884616755</v>
+        <v>70.01631906797988</v>
       </c>
       <c r="E64" t="n">
-        <v>9.759223012324137</v>
+        <v>9.800133186911019</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3614.289501876458</v>
+        <v>3700.664525136198</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>69.87591884616755</v>
+        <v>70.01631906797988</v>
       </c>
       <c r="E65" t="n">
-        <v>9.759223012324137</v>
+        <v>9.800133186911019</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3614.289501876458</v>
+        <v>3700.664525136198</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>69.87591884616755</v>
+        <v>70.01631906797988</v>
       </c>
       <c r="E66" t="n">
-        <v>9.759223012324137</v>
+        <v>9.800133186911019</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C67" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D67" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E67" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C68" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D68" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E68" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C69" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D69" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E69" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C70" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D70" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E70" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C71" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D71" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E71" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C72" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D72" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E72" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C73" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D73" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E73" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C74" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D74" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E74" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3688.04531770759</v>
+        <v>3751.411192755974</v>
       </c>
       <c r="C75" t="n">
-        <v>4697.766041079425</v>
+        <v>4678.703020580467</v>
       </c>
       <c r="D75" t="n">
-        <v>70.89670794463002</v>
+        <v>69.96124784059494</v>
       </c>
       <c r="E75" t="n">
-        <v>9.737723362356434</v>
+        <v>9.725093366987078</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E76" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E77" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E78" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E79" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E80" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E81" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E82" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E83" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3643.295818315458</v>
+        <v>3707.980432367612</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>68.41824090538536</v>
+        <v>69.63172119455726</v>
       </c>
       <c r="E84" t="n">
-        <v>9.817682821654648</v>
+        <v>9.865037452328568</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3676.548677721259</v>
+        <v>3609.54521584521</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3686.872048833678</v>
+        <v>3625.417669617485</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>70.25898746385676</v>
+        <v>69.70646619592725</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C2" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D2" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E2" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C3" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D3" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E3" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C4" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D4" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E4" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C5" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D5" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E5" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C6" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D6" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E6" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C7" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D7" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E7" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C8" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D8" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E8" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C9" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D9" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E9" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4871.53309664009</v>
+        <v>4774.598532217488</v>
       </c>
       <c r="C10" t="n">
-        <v>4787.41759524081</v>
+        <v>4665.456275874493</v>
       </c>
       <c r="D10" t="n">
-        <v>69.91893372119756</v>
+        <v>69.48877769547093</v>
       </c>
       <c r="E10" t="n">
-        <v>9.745469364117872</v>
+        <v>9.824618154099889</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4827.313068039786</v>
+        <v>4651.516920699172</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4827.313068039786</v>
+        <v>4651.516920699172</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4827.313068039786</v>
+        <v>4651.516920699172</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4827.313068039786</v>
+        <v>4651.516920699172</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4827.313068039786</v>
+        <v>4651.516920699172</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4827.313068039786</v>
+        <v>4651.516920699172</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4827.313068039786</v>
+        <v>4651.516920699172</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4827.313068039786</v>
+        <v>4651.516920699172</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4801.275344167294</v>
+        <v>4794.563249767533</v>
       </c>
       <c r="C19" t="n">
-        <v>4781.422055609708</v>
+        <v>4679.778552242967</v>
       </c>
       <c r="D19" t="n">
-        <v>69.81397917883916</v>
+        <v>70.2985995760194</v>
       </c>
       <c r="E19" t="n">
-        <v>9.78218775311365</v>
+        <v>9.782922551107184</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4801.275344167294</v>
+        <v>4794.563249767533</v>
       </c>
       <c r="C20" t="n">
-        <v>4781.422055609708</v>
+        <v>4679.778552242967</v>
       </c>
       <c r="D20" t="n">
-        <v>69.81397917883916</v>
+        <v>70.2985995760194</v>
       </c>
       <c r="E20" t="n">
-        <v>9.78218775311365</v>
+        <v>9.782922551107184</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4801.275344167294</v>
+        <v>4794.563249767533</v>
       </c>
       <c r="C21" t="n">
-        <v>4781.422055609708</v>
+        <v>4679.778552242967</v>
       </c>
       <c r="D21" t="n">
-        <v>69.81397917883916</v>
+        <v>70.2985995760194</v>
       </c>
       <c r="E21" t="n">
-        <v>9.78218775311365</v>
+        <v>9.782922551107184</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4801.275344167294</v>
+        <v>4794.563249767533</v>
       </c>
       <c r="C22" t="n">
-        <v>4781.422055609708</v>
+        <v>4679.778552242967</v>
       </c>
       <c r="D22" t="n">
-        <v>69.81397917883916</v>
+        <v>70.2985995760194</v>
       </c>
       <c r="E22" t="n">
-        <v>9.78218775311365</v>
+        <v>9.782922551107184</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4801.275344167294</v>
+        <v>4794.563249767533</v>
       </c>
       <c r="C23" t="n">
-        <v>4781.422055609708</v>
+        <v>4679.778552242967</v>
       </c>
       <c r="D23" t="n">
-        <v>69.81397917883916</v>
+        <v>70.2985995760194</v>
       </c>
       <c r="E23" t="n">
-        <v>9.78218775311365</v>
+        <v>9.782922551107184</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4801.275344167294</v>
+        <v>4794.563249767533</v>
       </c>
       <c r="C24" t="n">
-        <v>4781.422055609708</v>
+        <v>4679.778552242967</v>
       </c>
       <c r="D24" t="n">
-        <v>69.81397917883916</v>
+        <v>70.2985995760194</v>
       </c>
       <c r="E24" t="n">
-        <v>9.78218775311365</v>
+        <v>9.782922551107184</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4838.019928411581</v>
+        <v>4705.650356917566</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.746665401826597</v>
+        <v>9.83367853697232</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4838.019928411581</v>
+        <v>4705.650356917566</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.746665401826597</v>
+        <v>9.83367853697232</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4838.019928411581</v>
+        <v>4705.650356917566</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.746665401826597</v>
+        <v>9.83367853697232</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4838.019928411581</v>
+        <v>4705.650356917566</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.746665401826597</v>
+        <v>9.83367853697232</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4838.019928411581</v>
+        <v>4705.650356917566</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.746665401826597</v>
+        <v>9.83367853697232</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4838.019928411581</v>
+        <v>4705.650356917566</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.746665401826597</v>
+        <v>9.83367853697232</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C58" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C59" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C60" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C61" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C62" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C63" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C64" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C65" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4684.664724620801</v>
+        <v>4793.307542640707</v>
       </c>
       <c r="C66" t="n">
-        <v>4637.760125838415</v>
+        <v>4664.515338046651</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.81648164198862</v>
+        <v>9.774691113910988</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C85" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D85" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E85" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C86" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D86" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E86" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C87" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D87" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E87" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C88" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D88" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E88" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C89" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D89" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E89" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C90" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D90" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E90" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C91" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D91" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E91" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C92" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D92" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E92" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4772.28433216851</v>
+        <v>4472.257267164909</v>
       </c>
       <c r="C93" t="n">
-        <v>4749.937682924538</v>
+        <v>4791.998766473377</v>
       </c>
       <c r="D93" t="n">
-        <v>70.60290819459331</v>
+        <v>70.75901111759943</v>
       </c>
       <c r="E93" t="n">
-        <v>9.740517184921277</v>
+        <v>9.872660649235813</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E103" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E104" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E105" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E106" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E107" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E108" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E109" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E110" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4776.651852837095</v>
+        <v>4750.854498499695</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>70.80910304762479</v>
+        <v>70.04668043889767</v>
       </c>
       <c r="E111" t="n">
-        <v>9.89196120538395</v>
+        <v>9.820116326327298</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E112" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E113" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E114" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E115" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E116" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E117" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E118" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E119" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4632.494431062628</v>
+        <v>4869.359837285735</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>68.68024459142077</v>
+        <v>69.55506361221785</v>
       </c>
       <c r="E120" t="n">
-        <v>9.890833848052665</v>
+        <v>9.854927765561476</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>69.83496277595624</v>
+        <v>70.04293291272398</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>69.83496277595624</v>
+        <v>70.04293291272398</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>69.83496277595624</v>
+        <v>70.04293291272398</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>69.83496277595624</v>
+        <v>70.04293291272398</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>69.83496277595624</v>
+        <v>70.04293291272398</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>69.83496277595624</v>
+        <v>70.04293291272398</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>69.83496277595624</v>
+        <v>70.04293291272398</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>69.83496277595624</v>
+        <v>70.04293291272398</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E138" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E139" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E140" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E141" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E142" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E143" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E144" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E145" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4813.740606909135</v>
+        <v>4632.300712552484</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>69.78343295768163</v>
+        <v>69.99074137260241</v>
       </c>
       <c r="E146" t="n">
-        <v>9.801863234446659</v>
+        <v>9.791560967845477</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>70.05242866902289</v>
+        <v>68.90283564558754</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C156" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D156" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E156" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C157" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D157" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E157" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C158" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D158" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E158" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C159" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D159" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E159" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C160" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D160" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E160" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C161" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D161" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E161" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C162" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D162" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E162" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C163" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D163" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E163" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4853.955652549915</v>
+        <v>4904.428613512907</v>
       </c>
       <c r="C164" t="n">
-        <v>4704.742995570398</v>
+        <v>4683.539554370221</v>
       </c>
       <c r="D164" t="n">
-        <v>71.40327748623022</v>
+        <v>70.27607050446346</v>
       </c>
       <c r="E164" t="n">
-        <v>9.825740933458507</v>
+        <v>9.764240959150968</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E165" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E166" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E167" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E168" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E169" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E170" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E171" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E172" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4559.437484486178</v>
+        <v>4642.542665716994</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>69.54592412938628</v>
+        <v>69.83965730368364</v>
       </c>
       <c r="E173" t="n">
-        <v>9.750336172650721</v>
+        <v>9.887863451862858</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>69.76964986452775</v>
+        <v>69.66555911507099</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>69.81420003913512</v>
+        <v>70.2476867529807</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>69.81420003913512</v>
+        <v>70.2476867529807</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>69.81420003913512</v>
+        <v>70.2476867529807</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>69.81420003913512</v>
+        <v>70.2476867529807</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>69.81420003913512</v>
+        <v>70.2476867529807</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>69.81420003913512</v>
+        <v>70.2476867529807</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>69.81420003913512</v>
+        <v>70.2476867529807</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>69.81420003913512</v>
+        <v>70.2476867529807</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>69.52513505091876</v>
+        <v>69.7749991425482</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>69.42877257108779</v>
+        <v>69.7157048545816</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>69.91491729954019</v>
+        <v>70.26499943722968</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>69.91491729954019</v>
+        <v>70.26499943722968</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>69.91491729954019</v>
+        <v>70.26499943722968</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>69.91491729954019</v>
+        <v>70.26499943722968</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>69.91491729954019</v>
+        <v>70.26499943722968</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>69.91491729954019</v>
+        <v>70.26499943722968</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>69.91491729954019</v>
+        <v>70.26499943722968</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>69.91491729954019</v>
+        <v>70.26499943722968</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E217" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E218" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E219" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E220" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E221" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E222" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E223" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E224" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4719.131079597044</v>
+        <v>4580.807076062625</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>69.70626929378422</v>
+        <v>70.07244214660574</v>
       </c>
       <c r="E225" t="n">
-        <v>9.824738254662764</v>
+        <v>9.795421789358508</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E226" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E227" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E228" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E229" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E230" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E231" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E232" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E233" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4647.041672865173</v>
+        <v>4699.600539419762</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>70.14292958077496</v>
+        <v>69.6086468881431</v>
       </c>
       <c r="E234" t="n">
-        <v>9.810343603367645</v>
+        <v>9.736795681521276</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E235" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E236" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E237" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E238" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E239" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E240" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E241" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E242" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4740.263849832095</v>
+        <v>4736.889026005258</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>68.99534913178971</v>
+        <v>69.61272222354901</v>
       </c>
       <c r="E243" t="n">
-        <v>9.907936173632537</v>
+        <v>9.783919676652179</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>69.26133541304752</v>
+        <v>69.7874612482083</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>69.33287062425903</v>
+        <v>70.2433905095572</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>69.33287062425903</v>
+        <v>70.2433905095572</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>69.33287062425903</v>
+        <v>70.2433905095572</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>69.33287062425903</v>
+        <v>70.2433905095572</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>69.33287062425903</v>
+        <v>70.2433905095572</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>69.33287062425903</v>
+        <v>70.2433905095572</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>69.33287062425903</v>
+        <v>70.2433905095572</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>69.33287062425903</v>
+        <v>70.2433905095572</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>70.48850037840914</v>
+        <v>70.64392222892366</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>70.48850037840914</v>
+        <v>70.64392222892366</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>70.48850037840914</v>
+        <v>70.64392222892366</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>70.48850037840914</v>
+        <v>70.64392222892366</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>70.48850037840914</v>
+        <v>70.64392222892366</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>70.48850037840914</v>
+        <v>70.64392222892366</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>70.48850037840914</v>
+        <v>70.64392222892366</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>70.48850037840914</v>
+        <v>70.64392222892366</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>70.97738251649193</v>
+        <v>70.45830994084278</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E278" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E279" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E280" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E281" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E282" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E283" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E284" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E285" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4850.48815745817</v>
+        <v>4714.465353950697</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>70.39421068323482</v>
+        <v>70.22142241113536</v>
       </c>
       <c r="E286" t="n">
-        <v>9.834925685729893</v>
+        <v>9.781071463456298</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>70.13511616709282</v>
+        <v>69.56968994571652</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4864.309324020272</v>
+        <v>4598.622418974557</v>
       </c>
       <c r="C9" t="n">
-        <v>4737.398768302743</v>
+        <v>4718.533119938051</v>
       </c>
       <c r="D9" t="n">
-        <v>69.53618948677523</v>
+        <v>71.01763620065762</v>
       </c>
       <c r="E9" t="n">
-        <v>9.794352278933861</v>
+        <v>9.83313928840932</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4864.309324020272</v>
+        <v>4598.622418974557</v>
       </c>
       <c r="C10" t="n">
-        <v>4737.398768302743</v>
+        <v>4718.533119938051</v>
       </c>
       <c r="D10" t="n">
-        <v>69.53618948677523</v>
+        <v>71.01763620065762</v>
       </c>
       <c r="E10" t="n">
-        <v>9.794352278933861</v>
+        <v>9.83313928840932</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C11" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D11" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E11" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C12" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D12" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E12" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C13" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D13" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E13" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C14" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D14" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E14" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C15" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D15" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E15" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C16" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D16" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E16" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C17" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D17" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E17" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C18" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D18" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E18" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4653.634328585266</v>
+        <v>4842.839396315591</v>
       </c>
       <c r="C19" t="n">
-        <v>4736.728082910243</v>
+        <v>4643.408396046882</v>
       </c>
       <c r="D19" t="n">
-        <v>72.50717290138688</v>
+        <v>70.02009444719549</v>
       </c>
       <c r="E19" t="n">
-        <v>9.841882323178179</v>
+        <v>9.902329488638873</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4739.784973454033</v>
+        <v>4682.754607523107</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.849241210389629</v>
+        <v>9.79583342552556</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C38" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C39" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C40" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C41" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C42" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C43" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C44" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C45" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4828.269746311252</v>
+        <v>4861.403020217749</v>
       </c>
       <c r="C46" t="n">
-        <v>4723.64917853051</v>
+        <v>4688.251660157403</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.799439890518673</v>
+        <v>9.816085263055461</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E47" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E48" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E49" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E50" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E51" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E52" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E53" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E54" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4867.013396093238</v>
+        <v>4720.769296724382</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>70.60874183902304</v>
+        <v>68.63339736906126</v>
       </c>
       <c r="E55" t="n">
-        <v>9.823055832757397</v>
+        <v>9.685518311340479</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4709.186870677035</v>
+        <v>4843.913464884692</v>
       </c>
       <c r="C8" t="n">
-        <v>4753.733972158218</v>
+        <v>4740.121462849019</v>
       </c>
       <c r="D8" t="n">
-        <v>70.40939206241529</v>
+        <v>70.4456693740504</v>
       </c>
       <c r="E8" t="n">
-        <v>9.784555302093278</v>
+        <v>9.767172548756891</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4709.186870677035</v>
+        <v>4843.913464884692</v>
       </c>
       <c r="C9" t="n">
-        <v>4753.733972158218</v>
+        <v>4740.121462849019</v>
       </c>
       <c r="D9" t="n">
-        <v>70.40939206241529</v>
+        <v>70.4456693740504</v>
       </c>
       <c r="E9" t="n">
-        <v>9.784555302093278</v>
+        <v>9.767172548756891</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4709.186870677035</v>
+        <v>4843.913464884692</v>
       </c>
       <c r="C10" t="n">
-        <v>4753.733972158218</v>
+        <v>4740.121462849019</v>
       </c>
       <c r="D10" t="n">
-        <v>70.40939206241529</v>
+        <v>70.4456693740504</v>
       </c>
       <c r="E10" t="n">
-        <v>9.784555302093278</v>
+        <v>9.767172548756891</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4709.186870677035</v>
+        <v>4843.913464884692</v>
       </c>
       <c r="C11" t="n">
-        <v>4753.733972158218</v>
+        <v>4740.121462849019</v>
       </c>
       <c r="D11" t="n">
-        <v>70.40939206241529</v>
+        <v>70.4456693740504</v>
       </c>
       <c r="E11" t="n">
-        <v>9.784555302093278</v>
+        <v>9.767172548756891</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4709.186870677035</v>
+        <v>4843.913464884692</v>
       </c>
       <c r="C12" t="n">
-        <v>4753.733972158218</v>
+        <v>4740.121462849019</v>
       </c>
       <c r="D12" t="n">
-        <v>70.40939206241529</v>
+        <v>70.4456693740504</v>
       </c>
       <c r="E12" t="n">
-        <v>9.784555302093278</v>
+        <v>9.767172548756891</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4709.186870677035</v>
+        <v>4843.913464884692</v>
       </c>
       <c r="C13" t="n">
-        <v>4753.733972158218</v>
+        <v>4740.121462849019</v>
       </c>
       <c r="D13" t="n">
-        <v>70.40939206241529</v>
+        <v>70.4456693740504</v>
       </c>
       <c r="E13" t="n">
-        <v>9.784555302093278</v>
+        <v>9.767172548756891</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C14" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D14" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E14" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C15" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D15" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E15" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C16" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D16" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E16" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C17" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D17" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E17" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C18" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D18" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E18" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C19" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D19" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E19" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C20" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D20" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E20" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C21" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D21" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E21" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4954.524480090651</v>
+        <v>4933.383786811864</v>
       </c>
       <c r="C22" t="n">
-        <v>4796.463396600176</v>
+        <v>4740.505920492059</v>
       </c>
       <c r="D22" t="n">
-        <v>70.39896163403893</v>
+        <v>70.0758440445024</v>
       </c>
       <c r="E22" t="n">
-        <v>9.7895026513192</v>
+        <v>9.865204258988671</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C41" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D41" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E41" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C42" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D42" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E42" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C43" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D43" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E43" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C44" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D44" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E44" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C45" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D45" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E45" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C46" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D46" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E46" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C47" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D47" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E47" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C48" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D48" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E48" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4852.636455266733</v>
+        <v>4789.286718229779</v>
       </c>
       <c r="C49" t="n">
-        <v>4643.612899571972</v>
+        <v>4747.396231100574</v>
       </c>
       <c r="D49" t="n">
-        <v>70.8436709335904</v>
+        <v>70.42735103027854</v>
       </c>
       <c r="E49" t="n">
-        <v>9.794346560622076</v>
+        <v>9.704253742594773</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C50" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D50" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E50" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C51" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D51" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E51" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C52" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D52" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E52" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C53" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D53" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E53" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C54" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D54" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E54" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C55" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D55" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E55" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C56" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D56" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E56" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C57" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D57" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E57" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4981.302967900136</v>
+        <v>4830.303194944316</v>
       </c>
       <c r="C58" t="n">
-        <v>4809.869674534458</v>
+        <v>4742.156128635223</v>
       </c>
       <c r="D58" t="n">
-        <v>70.47737826209452</v>
+        <v>71.01230345948487</v>
       </c>
       <c r="E58" t="n">
-        <v>9.793471497144969</v>
+        <v>9.789179913035957</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E68" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E69" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E70" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E71" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E72" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E73" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E74" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E75" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>5008.392403734773</v>
+        <v>5118.175627243483</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>69.50708676716094</v>
+        <v>69.44131523796112</v>
       </c>
       <c r="E76" t="n">
-        <v>9.717758181547518</v>
+        <v>9.735316673345816</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1011" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1012" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1013" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1014" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1011" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1013" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1014" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3516.36043616241</v>
+        <v>3733.872566086321</v>
       </c>
       <c r="C2" t="n">
-        <v>4902.840910768027</v>
+        <v>4762.042250489361</v>
       </c>
       <c r="D2" t="n">
-        <v>71.44808551886588</v>
+        <v>70.94508199877907</v>
       </c>
       <c r="E2" t="n">
-        <v>9.727642840775827</v>
+        <v>9.757822183949694</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3516.36043616241</v>
+        <v>3733.872566086321</v>
       </c>
       <c r="C3" t="n">
-        <v>4902.840910768027</v>
+        <v>4762.042250489361</v>
       </c>
       <c r="D3" t="n">
-        <v>71.44808551886588</v>
+        <v>70.94508199877907</v>
       </c>
       <c r="E3" t="n">
-        <v>9.727642840775827</v>
+        <v>9.757822183949694</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3516.36043616241</v>
+        <v>3733.872566086321</v>
       </c>
       <c r="C4" t="n">
-        <v>4902.840910768027</v>
+        <v>4762.042250489361</v>
       </c>
       <c r="D4" t="n">
-        <v>71.44808551886588</v>
+        <v>70.94508199877907</v>
       </c>
       <c r="E4" t="n">
-        <v>9.727642840775827</v>
+        <v>9.757822183949694</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3516.36043616241</v>
+        <v>3733.872566086321</v>
       </c>
       <c r="C5" t="n">
-        <v>4902.840910768027</v>
+        <v>4762.042250489361</v>
       </c>
       <c r="D5" t="n">
-        <v>71.44808551886588</v>
+        <v>70.94508199877907</v>
       </c>
       <c r="E5" t="n">
-        <v>9.727642840775827</v>
+        <v>9.757822183949694</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3516.36043616241</v>
+        <v>3733.872566086321</v>
       </c>
       <c r="C6" t="n">
-        <v>4902.840910768027</v>
+        <v>4762.042250489361</v>
       </c>
       <c r="D6" t="n">
-        <v>71.44808551886588</v>
+        <v>70.94508199877907</v>
       </c>
       <c r="E6" t="n">
-        <v>9.727642840775827</v>
+        <v>9.757822183949694</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3516.36043616241</v>
+        <v>3733.872566086321</v>
       </c>
       <c r="C7" t="n">
-        <v>4902.840910768027</v>
+        <v>4762.042250489361</v>
       </c>
       <c r="D7" t="n">
-        <v>71.44808551886588</v>
+        <v>70.94508199877907</v>
       </c>
       <c r="E7" t="n">
-        <v>9.727642840775827</v>
+        <v>9.757822183949694</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3516.36043616241</v>
+        <v>3733.872566086321</v>
       </c>
       <c r="C8" t="n">
-        <v>4902.840910768027</v>
+        <v>4762.042250489361</v>
       </c>
       <c r="D8" t="n">
-        <v>71.44808551886588</v>
+        <v>70.94508199877907</v>
       </c>
       <c r="E8" t="n">
-        <v>9.727642840775827</v>
+        <v>9.757822183949694</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E9" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E10" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E11" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E12" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E13" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E14" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E15" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E16" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3621.892609327232</v>
+        <v>3676.074444088686</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>70.27870729422801</v>
+        <v>68.94657953594199</v>
       </c>
       <c r="E17" t="n">
-        <v>9.946555961326172</v>
+        <v>9.723799538690059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3718.510363769929</v>
+        <v>3511.236836246226</v>
       </c>
       <c r="C18" t="n">
-        <v>4769.50929233265</v>
+        <v>4677.779724915639</v>
       </c>
       <c r="D18" t="n">
-        <v>68.76884096623806</v>
+        <v>72.61327679182673</v>
       </c>
       <c r="E18" t="n">
-        <v>9.863473717894079</v>
+        <v>9.892376939818925</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3718.510363769929</v>
+        <v>3511.236836246226</v>
       </c>
       <c r="C19" t="n">
-        <v>4769.50929233265</v>
+        <v>4677.779724915639</v>
       </c>
       <c r="D19" t="n">
-        <v>68.76884096623806</v>
+        <v>72.61327679182673</v>
       </c>
       <c r="E19" t="n">
-        <v>9.863473717894079</v>
+        <v>9.892376939818925</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3718.510363769929</v>
+        <v>3511.236836246226</v>
       </c>
       <c r="C20" t="n">
-        <v>4769.50929233265</v>
+        <v>4677.779724915639</v>
       </c>
       <c r="D20" t="n">
-        <v>68.76884096623806</v>
+        <v>72.61327679182673</v>
       </c>
       <c r="E20" t="n">
-        <v>9.863473717894079</v>
+        <v>9.892376939818925</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3718.510363769929</v>
+        <v>3511.236836246226</v>
       </c>
       <c r="C21" t="n">
-        <v>4769.50929233265</v>
+        <v>4677.779724915639</v>
       </c>
       <c r="D21" t="n">
-        <v>68.76884096623806</v>
+        <v>72.61327679182673</v>
       </c>
       <c r="E21" t="n">
-        <v>9.863473717894079</v>
+        <v>9.892376939818925</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3718.510363769929</v>
+        <v>3511.236836246226</v>
       </c>
       <c r="C22" t="n">
-        <v>4769.50929233265</v>
+        <v>4677.779724915639</v>
       </c>
       <c r="D22" t="n">
-        <v>68.76884096623806</v>
+        <v>72.61327679182673</v>
       </c>
       <c r="E22" t="n">
-        <v>9.863473717894079</v>
+        <v>9.892376939818925</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3718.510363769929</v>
+        <v>3511.236836246226</v>
       </c>
       <c r="C23" t="n">
-        <v>4769.50929233265</v>
+        <v>4677.779724915639</v>
       </c>
       <c r="D23" t="n">
-        <v>68.76884096623806</v>
+        <v>72.61327679182673</v>
       </c>
       <c r="E23" t="n">
-        <v>9.863473717894079</v>
+        <v>9.892376939818925</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3718.510363769929</v>
+        <v>3511.236836246226</v>
       </c>
       <c r="C24" t="n">
-        <v>4769.50929233265</v>
+        <v>4677.779724915639</v>
       </c>
       <c r="D24" t="n">
-        <v>68.76884096623806</v>
+        <v>72.61327679182673</v>
       </c>
       <c r="E24" t="n">
-        <v>9.863473717894079</v>
+        <v>9.892376939818925</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3718.510363769929</v>
+        <v>3511.236836246226</v>
       </c>
       <c r="C25" t="n">
-        <v>4769.50929233265</v>
+        <v>4677.779724915639</v>
       </c>
       <c r="D25" t="n">
-        <v>68.76884096623806</v>
+        <v>72.61327679182673</v>
       </c>
       <c r="E25" t="n">
-        <v>9.863473717894079</v>
+        <v>9.892376939818925</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E34" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E35" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E36" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E37" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E38" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E39" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E40" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E41" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3553.229010704612</v>
+        <v>3568.873298583129</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>71.10255630545119</v>
+        <v>69.02273044561912</v>
       </c>
       <c r="E42" t="n">
-        <v>9.93960379393118</v>
+        <v>9.852705516038956</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3751.144937986573</v>
+        <v>3501.639630099333</v>
       </c>
       <c r="C43" t="n">
-        <v>4695.158470316313</v>
+        <v>4865.241383024405</v>
       </c>
       <c r="D43" t="n">
-        <v>70.25869401957921</v>
+        <v>69.40961148982737</v>
       </c>
       <c r="E43" t="n">
-        <v>9.833740910704231</v>
+        <v>9.848136703738259</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3751.144937986573</v>
+        <v>3501.639630099333</v>
       </c>
       <c r="C44" t="n">
-        <v>4695.158470316313</v>
+        <v>4865.241383024405</v>
       </c>
       <c r="D44" t="n">
-        <v>70.25869401957921</v>
+        <v>69.40961148982737</v>
       </c>
       <c r="E44" t="n">
-        <v>9.833740910704231</v>
+        <v>9.848136703738259</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3751.144937986573</v>
+        <v>3501.639630099333</v>
       </c>
       <c r="C45" t="n">
-        <v>4695.158470316313</v>
+        <v>4865.241383024405</v>
       </c>
       <c r="D45" t="n">
-        <v>70.25869401957921</v>
+        <v>69.40961148982737</v>
       </c>
       <c r="E45" t="n">
-        <v>9.833740910704231</v>
+        <v>9.848136703738259</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3751.144937986573</v>
+        <v>3501.639630099333</v>
       </c>
       <c r="C46" t="n">
-        <v>4695.158470316313</v>
+        <v>4865.241383024405</v>
       </c>
       <c r="D46" t="n">
-        <v>70.25869401957921</v>
+        <v>69.40961148982737</v>
       </c>
       <c r="E46" t="n">
-        <v>9.833740910704231</v>
+        <v>9.848136703738259</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3751.144937986573</v>
+        <v>3501.639630099333</v>
       </c>
       <c r="C47" t="n">
-        <v>4695.158470316313</v>
+        <v>4865.241383024405</v>
       </c>
       <c r="D47" t="n">
-        <v>70.25869401957921</v>
+        <v>69.40961148982737</v>
       </c>
       <c r="E47" t="n">
-        <v>9.833740910704231</v>
+        <v>9.848136703738259</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3751.144937986573</v>
+        <v>3501.639630099333</v>
       </c>
       <c r="C48" t="n">
-        <v>4695.158470316313</v>
+        <v>4865.241383024405</v>
       </c>
       <c r="D48" t="n">
-        <v>70.25869401957921</v>
+        <v>69.40961148982737</v>
       </c>
       <c r="E48" t="n">
-        <v>9.833740910704231</v>
+        <v>9.848136703738259</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3751.144937986573</v>
+        <v>3501.639630099333</v>
       </c>
       <c r="C49" t="n">
-        <v>4695.158470316313</v>
+        <v>4865.241383024405</v>
       </c>
       <c r="D49" t="n">
-        <v>70.25869401957921</v>
+        <v>69.40961148982737</v>
       </c>
       <c r="E49" t="n">
-        <v>9.833740910704231</v>
+        <v>9.848136703738259</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3751.144937986573</v>
+        <v>3501.639630099333</v>
       </c>
       <c r="C50" t="n">
-        <v>4695.158470316313</v>
+        <v>4865.241383024405</v>
       </c>
       <c r="D50" t="n">
-        <v>70.25869401957921</v>
+        <v>69.40961148982737</v>
       </c>
       <c r="E50" t="n">
-        <v>9.833740910704231</v>
+        <v>9.848136703738259</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3700.664525136198</v>
+        <v>3802.295878542447</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>70.01631906797988</v>
+        <v>69.35787144249684</v>
       </c>
       <c r="E59" t="n">
-        <v>9.800133186911019</v>
+        <v>9.650997921459485</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3700.664525136198</v>
+        <v>3802.295878542447</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>70.01631906797988</v>
+        <v>69.35787144249684</v>
       </c>
       <c r="E60" t="n">
-        <v>9.800133186911019</v>
+        <v>9.650997921459485</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3700.664525136198</v>
+        <v>3802.295878542447</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>70.01631906797988</v>
+        <v>69.35787144249684</v>
       </c>
       <c r="E61" t="n">
-        <v>9.800133186911019</v>
+        <v>9.650997921459485</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3700.664525136198</v>
+        <v>3802.295878542447</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>70.01631906797988</v>
+        <v>69.35787144249684</v>
       </c>
       <c r="E62" t="n">
-        <v>9.800133186911019</v>
+        <v>9.650997921459485</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3700.664525136198</v>
+        <v>3802.295878542447</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>70.01631906797988</v>
+        <v>69.35787144249684</v>
       </c>
       <c r="E63" t="n">
-        <v>9.800133186911019</v>
+        <v>9.650997921459485</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3700.664525136198</v>
+        <v>3802.295878542447</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>70.01631906797988</v>
+        <v>69.35787144249684</v>
       </c>
       <c r="E64" t="n">
-        <v>9.800133186911019</v>
+        <v>9.650997921459485</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3700.664525136198</v>
+        <v>3802.295878542447</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>70.01631906797988</v>
+        <v>69.35787144249684</v>
       </c>
       <c r="E65" t="n">
-        <v>9.800133186911019</v>
+        <v>9.650997921459485</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3700.664525136198</v>
+        <v>3802.295878542447</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>70.01631906797988</v>
+        <v>69.35787144249684</v>
       </c>
       <c r="E66" t="n">
-        <v>9.800133186911019</v>
+        <v>9.650997921459485</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C67" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D67" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E67" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C68" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D68" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E68" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C69" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D69" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E69" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C70" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D70" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E70" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C71" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D71" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E71" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C72" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D72" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E72" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C73" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D73" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E73" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C74" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D74" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E74" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3751.411192755974</v>
+        <v>3769.507132310846</v>
       </c>
       <c r="C75" t="n">
-        <v>4678.703020580467</v>
+        <v>4766.309407240651</v>
       </c>
       <c r="D75" t="n">
-        <v>69.96124784059494</v>
+        <v>70.07320899493018</v>
       </c>
       <c r="E75" t="n">
-        <v>9.725093366987078</v>
+        <v>9.801331209418166</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E76" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E77" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E78" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E79" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E80" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E81" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E82" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E83" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3707.980432367612</v>
+        <v>3540.438669729821</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>69.63172119455726</v>
+        <v>69.14683432131881</v>
       </c>
       <c r="E84" t="n">
-        <v>9.865037452328568</v>
+        <v>9.785450942909678</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3609.54521584521</v>
+        <v>3475.129255254785</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3625.417669617485</v>
+        <v>3706.07040007993</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>69.70646619592725</v>
+        <v>70.27745770784962</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C2" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D2" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E2" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C3" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D3" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E3" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C4" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D4" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E4" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C5" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D5" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E5" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C6" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D6" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E6" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C7" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D7" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E7" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C8" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D8" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E8" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C9" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D9" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E9" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4774.598532217488</v>
+        <v>4722.352668979807</v>
       </c>
       <c r="C10" t="n">
-        <v>4665.456275874493</v>
+        <v>4837.034559357449</v>
       </c>
       <c r="D10" t="n">
-        <v>69.48877769547093</v>
+        <v>69.41636785127299</v>
       </c>
       <c r="E10" t="n">
-        <v>9.824618154099889</v>
+        <v>9.766868245018241</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4651.516920699172</v>
+        <v>4799.435563455888</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4651.516920699172</v>
+        <v>4799.435563455888</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4651.516920699172</v>
+        <v>4799.435563455888</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4651.516920699172</v>
+        <v>4799.435563455888</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4651.516920699172</v>
+        <v>4799.435563455888</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4651.516920699172</v>
+        <v>4799.435563455888</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4651.516920699172</v>
+        <v>4799.435563455888</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4651.516920699172</v>
+        <v>4799.435563455888</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4794.563249767533</v>
+        <v>4656.62780552088</v>
       </c>
       <c r="C19" t="n">
-        <v>4679.778552242967</v>
+        <v>4776.945085888157</v>
       </c>
       <c r="D19" t="n">
-        <v>70.2985995760194</v>
+        <v>70.02687629534954</v>
       </c>
       <c r="E19" t="n">
-        <v>9.782922551107184</v>
+        <v>9.825508166051611</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4794.563249767533</v>
+        <v>4656.62780552088</v>
       </c>
       <c r="C20" t="n">
-        <v>4679.778552242967</v>
+        <v>4776.945085888157</v>
       </c>
       <c r="D20" t="n">
-        <v>70.2985995760194</v>
+        <v>70.02687629534954</v>
       </c>
       <c r="E20" t="n">
-        <v>9.782922551107184</v>
+        <v>9.825508166051611</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4794.563249767533</v>
+        <v>4656.62780552088</v>
       </c>
       <c r="C21" t="n">
-        <v>4679.778552242967</v>
+        <v>4776.945085888157</v>
       </c>
       <c r="D21" t="n">
-        <v>70.2985995760194</v>
+        <v>70.02687629534954</v>
       </c>
       <c r="E21" t="n">
-        <v>9.782922551107184</v>
+        <v>9.825508166051611</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4794.563249767533</v>
+        <v>4656.62780552088</v>
       </c>
       <c r="C22" t="n">
-        <v>4679.778552242967</v>
+        <v>4776.945085888157</v>
       </c>
       <c r="D22" t="n">
-        <v>70.2985995760194</v>
+        <v>70.02687629534954</v>
       </c>
       <c r="E22" t="n">
-        <v>9.782922551107184</v>
+        <v>9.825508166051611</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4794.563249767533</v>
+        <v>4656.62780552088</v>
       </c>
       <c r="C23" t="n">
-        <v>4679.778552242967</v>
+        <v>4776.945085888157</v>
       </c>
       <c r="D23" t="n">
-        <v>70.2985995760194</v>
+        <v>70.02687629534954</v>
       </c>
       <c r="E23" t="n">
-        <v>9.782922551107184</v>
+        <v>9.825508166051611</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4794.563249767533</v>
+        <v>4656.62780552088</v>
       </c>
       <c r="C24" t="n">
-        <v>4679.778552242967</v>
+        <v>4776.945085888157</v>
       </c>
       <c r="D24" t="n">
-        <v>70.2985995760194</v>
+        <v>70.02687629534954</v>
       </c>
       <c r="E24" t="n">
-        <v>9.782922551107184</v>
+        <v>9.825508166051611</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4705.650356917566</v>
+        <v>4926.170556224769</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.83367853697232</v>
+        <v>9.760839024090087</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4705.650356917566</v>
+        <v>4926.170556224769</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.83367853697232</v>
+        <v>9.760839024090087</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4705.650356917566</v>
+        <v>4926.170556224769</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.83367853697232</v>
+        <v>9.760839024090087</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4705.650356917566</v>
+        <v>4926.170556224769</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.83367853697232</v>
+        <v>9.760839024090087</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4705.650356917566</v>
+        <v>4926.170556224769</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.83367853697232</v>
+        <v>9.760839024090087</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4705.650356917566</v>
+        <v>4926.170556224769</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.83367853697232</v>
+        <v>9.760839024090087</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C58" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C59" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C60" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C61" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C62" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C63" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C64" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C65" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4793.307542640707</v>
+        <v>4598.749786216902</v>
       </c>
       <c r="C66" t="n">
-        <v>4664.515338046651</v>
+        <v>4813.888435547179</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.774691113910988</v>
+        <v>9.839431407329537</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C85" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D85" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E85" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C86" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D86" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E86" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C87" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D87" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E87" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C88" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D88" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E88" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C89" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D89" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E89" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C90" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D90" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E90" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C91" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D91" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E91" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C92" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D92" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E92" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4472.257267164909</v>
+        <v>4739.202132618747</v>
       </c>
       <c r="C93" t="n">
-        <v>4791.998766473377</v>
+        <v>4649.464137283271</v>
       </c>
       <c r="D93" t="n">
-        <v>70.75901111759943</v>
+        <v>70.84212137396302</v>
       </c>
       <c r="E93" t="n">
-        <v>9.872660649235813</v>
+        <v>9.714218744133275</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E103" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E104" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E105" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E106" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E107" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E108" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E109" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E110" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4750.854498499695</v>
+        <v>5050.736797720104</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>70.04668043889767</v>
+        <v>70.21547467126349</v>
       </c>
       <c r="E111" t="n">
-        <v>9.820116326327298</v>
+        <v>9.7901415535112</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E112" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E113" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E114" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E115" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E116" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E117" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E118" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E119" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4869.359837285735</v>
+        <v>4662.66498066895</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>69.55506361221785</v>
+        <v>69.77389683369628</v>
       </c>
       <c r="E120" t="n">
-        <v>9.854927765561476</v>
+        <v>9.746772635788572</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>70.04293291272398</v>
+        <v>69.25045762814059</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>70.04293291272398</v>
+        <v>69.25045762814059</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>70.04293291272398</v>
+        <v>69.25045762814059</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>70.04293291272398</v>
+        <v>69.25045762814059</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>70.04293291272398</v>
+        <v>69.25045762814059</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>70.04293291272398</v>
+        <v>69.25045762814059</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>70.04293291272398</v>
+        <v>69.25045762814059</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>70.04293291272398</v>
+        <v>69.25045762814059</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E138" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E139" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E140" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E141" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E142" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E143" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E144" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E145" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4632.300712552484</v>
+        <v>4802.274145035206</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>69.99074137260241</v>
+        <v>70.43256645986865</v>
       </c>
       <c r="E146" t="n">
-        <v>9.791560967845477</v>
+        <v>9.817186231563127</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>68.90283564558754</v>
+        <v>70.04175431449845</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C156" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D156" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E156" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C157" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D157" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E157" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C158" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D158" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E158" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C159" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D159" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E159" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C160" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D160" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E160" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C161" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D161" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E161" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C162" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D162" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E162" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C163" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D163" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E163" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4904.428613512907</v>
+        <v>4684.776277099581</v>
       </c>
       <c r="C164" t="n">
-        <v>4683.539554370221</v>
+        <v>4821.063204529642</v>
       </c>
       <c r="D164" t="n">
-        <v>70.27607050446346</v>
+        <v>68.88922728346515</v>
       </c>
       <c r="E164" t="n">
-        <v>9.764240959150968</v>
+        <v>9.845913581574125</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E165" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E166" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E167" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E168" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E169" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E170" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E171" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E172" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4642.542665716994</v>
+        <v>4798.196266569208</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>69.83965730368364</v>
+        <v>70.50715233725457</v>
       </c>
       <c r="E173" t="n">
-        <v>9.887863451862858</v>
+        <v>9.881099161351033</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>69.66555911507099</v>
+        <v>69.20340121637811</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>70.2476867529807</v>
+        <v>69.75978814065564</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>70.2476867529807</v>
+        <v>69.75978814065564</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>70.2476867529807</v>
+        <v>69.75978814065564</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>70.2476867529807</v>
+        <v>69.75978814065564</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>70.2476867529807</v>
+        <v>69.75978814065564</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>70.2476867529807</v>
+        <v>69.75978814065564</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>70.2476867529807</v>
+        <v>69.75978814065564</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>70.2476867529807</v>
+        <v>69.75978814065564</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>69.7749991425482</v>
+        <v>70.21232578064516</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>69.7157048545816</v>
+        <v>71.08499112492903</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>70.26499943722968</v>
+        <v>69.67994181440568</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>70.26499943722968</v>
+        <v>69.67994181440568</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>70.26499943722968</v>
+        <v>69.67994181440568</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>70.26499943722968</v>
+        <v>69.67994181440568</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>70.26499943722968</v>
+        <v>69.67994181440568</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>70.26499943722968</v>
+        <v>69.67994181440568</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>70.26499943722968</v>
+        <v>69.67994181440568</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>70.26499943722968</v>
+        <v>69.67994181440568</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E217" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E218" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E219" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E220" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E221" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E222" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E223" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E224" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4580.807076062625</v>
+        <v>4715.655992884796</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>70.07244214660574</v>
+        <v>70.20232490614639</v>
       </c>
       <c r="E225" t="n">
-        <v>9.795421789358508</v>
+        <v>9.755291410047482</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E226" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E227" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E228" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E229" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E230" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E231" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E232" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E233" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4699.600539419762</v>
+        <v>4706.558069158722</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>69.6086468881431</v>
+        <v>69.85889945484878</v>
       </c>
       <c r="E234" t="n">
-        <v>9.736795681521276</v>
+        <v>9.757938312542217</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E235" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E236" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E237" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E238" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E239" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E240" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E241" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E242" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4736.889026005258</v>
+        <v>4733.978089782445</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>69.61272222354901</v>
+        <v>69.50515409537118</v>
       </c>
       <c r="E243" t="n">
-        <v>9.783919676652179</v>
+        <v>9.75845969427597</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75323196631959</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>70.2433905095572</v>
+        <v>70.09895126799435</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>70.2433905095572</v>
+        <v>70.09895126799435</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>70.2433905095572</v>
+        <v>70.09895126799435</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>70.2433905095572</v>
+        <v>70.09895126799435</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>70.2433905095572</v>
+        <v>70.09895126799435</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>70.2433905095572</v>
+        <v>70.09895126799435</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>70.2433905095572</v>
+        <v>70.09895126799435</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>70.2433905095572</v>
+        <v>70.09895126799435</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>70.64392222892366</v>
+        <v>69.50329784969206</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>70.64392222892366</v>
+        <v>69.50329784969206</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>70.64392222892366</v>
+        <v>69.50329784969206</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>70.64392222892366</v>
+        <v>69.50329784969206</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>70.64392222892366</v>
+        <v>69.50329784969206</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>70.64392222892366</v>
+        <v>69.50329784969206</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>70.64392222892366</v>
+        <v>69.50329784969206</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>70.64392222892366</v>
+        <v>69.50329784969206</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>70.45830994084278</v>
+        <v>69.60994258173217</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E278" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E279" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E280" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E281" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E282" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E283" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E284" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E285" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4714.465353950697</v>
+        <v>4705.28271618686</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>70.22142241113536</v>
+        <v>70.57370971215909</v>
       </c>
       <c r="E286" t="n">
-        <v>9.781071463456298</v>
+        <v>9.721040822280994</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>69.56968994571652</v>
+        <v>69.55362903935561</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4598.622418974557</v>
+        <v>4560.316811994861</v>
       </c>
       <c r="C9" t="n">
-        <v>4718.533119938051</v>
+        <v>4704.164505072464</v>
       </c>
       <c r="D9" t="n">
-        <v>71.01763620065762</v>
+        <v>68.90673358696083</v>
       </c>
       <c r="E9" t="n">
-        <v>9.83313928840932</v>
+        <v>9.836232821886277</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4598.622418974557</v>
+        <v>4560.316811994861</v>
       </c>
       <c r="C10" t="n">
-        <v>4718.533119938051</v>
+        <v>4704.164505072464</v>
       </c>
       <c r="D10" t="n">
-        <v>71.01763620065762</v>
+        <v>68.90673358696083</v>
       </c>
       <c r="E10" t="n">
-        <v>9.83313928840932</v>
+        <v>9.836232821886277</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C11" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D11" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E11" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C12" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E12" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C13" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D13" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E13" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C14" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D14" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E14" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C15" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D15" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E15" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C16" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D16" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E16" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C17" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D17" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E17" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C18" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D18" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E18" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4842.839396315591</v>
+        <v>4743.400798821868</v>
       </c>
       <c r="C19" t="n">
-        <v>4643.408396046882</v>
+        <v>4748.767521345507</v>
       </c>
       <c r="D19" t="n">
-        <v>70.02009444719549</v>
+        <v>69.39093106252868</v>
       </c>
       <c r="E19" t="n">
-        <v>9.902329488638873</v>
+        <v>9.714305292672471</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4682.754607523107</v>
+        <v>4897.806736074624</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.79583342552556</v>
+        <v>9.834813254099233</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C38" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C39" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C40" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C41" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C42" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C43" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C44" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C45" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4861.403020217749</v>
+        <v>4726.345796680481</v>
       </c>
       <c r="C46" t="n">
-        <v>4688.251660157403</v>
+        <v>4722.568175554135</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.816085263055461</v>
+        <v>9.804119357644041</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E47" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E48" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E49" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E50" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E51" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E52" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E53" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E54" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4720.769296724382</v>
+        <v>4707.84478272149</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>68.63339736906126</v>
+        <v>69.39854288698487</v>
       </c>
       <c r="E55" t="n">
-        <v>9.685518311340479</v>
+        <v>9.820572443927503</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4843.913464884692</v>
+        <v>5001.539940744322</v>
       </c>
       <c r="C8" t="n">
-        <v>4740.121462849019</v>
+        <v>4819.686813328404</v>
       </c>
       <c r="D8" t="n">
-        <v>70.4456693740504</v>
+        <v>70.76237497330217</v>
       </c>
       <c r="E8" t="n">
-        <v>9.767172548756891</v>
+        <v>9.818583800672563</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4843.913464884692</v>
+        <v>5001.539940744322</v>
       </c>
       <c r="C9" t="n">
-        <v>4740.121462849019</v>
+        <v>4819.686813328404</v>
       </c>
       <c r="D9" t="n">
-        <v>70.4456693740504</v>
+        <v>70.76237497330217</v>
       </c>
       <c r="E9" t="n">
-        <v>9.767172548756891</v>
+        <v>9.818583800672563</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4843.913464884692</v>
+        <v>5001.539940744322</v>
       </c>
       <c r="C10" t="n">
-        <v>4740.121462849019</v>
+        <v>4819.686813328404</v>
       </c>
       <c r="D10" t="n">
-        <v>70.4456693740504</v>
+        <v>70.76237497330217</v>
       </c>
       <c r="E10" t="n">
-        <v>9.767172548756891</v>
+        <v>9.818583800672563</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4843.913464884692</v>
+        <v>5001.539940744322</v>
       </c>
       <c r="C11" t="n">
-        <v>4740.121462849019</v>
+        <v>4819.686813328404</v>
       </c>
       <c r="D11" t="n">
-        <v>70.4456693740504</v>
+        <v>70.76237497330217</v>
       </c>
       <c r="E11" t="n">
-        <v>9.767172548756891</v>
+        <v>9.818583800672563</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4843.913464884692</v>
+        <v>5001.539940744322</v>
       </c>
       <c r="C12" t="n">
-        <v>4740.121462849019</v>
+        <v>4819.686813328404</v>
       </c>
       <c r="D12" t="n">
-        <v>70.4456693740504</v>
+        <v>70.76237497330217</v>
       </c>
       <c r="E12" t="n">
-        <v>9.767172548756891</v>
+        <v>9.818583800672563</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4843.913464884692</v>
+        <v>5001.539940744322</v>
       </c>
       <c r="C13" t="n">
-        <v>4740.121462849019</v>
+        <v>4819.686813328404</v>
       </c>
       <c r="D13" t="n">
-        <v>70.4456693740504</v>
+        <v>70.76237497330217</v>
       </c>
       <c r="E13" t="n">
-        <v>9.767172548756891</v>
+        <v>9.818583800672563</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C14" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D14" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E14" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C15" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D15" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E15" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C16" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D16" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E16" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C17" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D17" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E17" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C18" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D18" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E18" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C19" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D19" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E19" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C20" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D20" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E20" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C21" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D21" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E21" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4933.383786811864</v>
+        <v>4717.026630124857</v>
       </c>
       <c r="C22" t="n">
-        <v>4740.505920492059</v>
+        <v>4685.750298435609</v>
       </c>
       <c r="D22" t="n">
-        <v>70.0758440445024</v>
+        <v>70.75098055728411</v>
       </c>
       <c r="E22" t="n">
-        <v>9.865204258988671</v>
+        <v>9.86311837232755</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C41" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D41" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E41" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C42" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D42" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E42" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C43" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D43" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E43" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C44" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D44" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E44" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C45" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D45" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E45" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C46" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D46" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E46" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C47" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D47" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E47" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C48" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D48" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E48" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4789.286718229779</v>
+        <v>5060.109399721532</v>
       </c>
       <c r="C49" t="n">
-        <v>4747.396231100574</v>
+        <v>4774.457859908291</v>
       </c>
       <c r="D49" t="n">
-        <v>70.42735103027854</v>
+        <v>69.60698090793672</v>
       </c>
       <c r="E49" t="n">
-        <v>9.704253742594773</v>
+        <v>9.759420611124664</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C50" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D50" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E50" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C51" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D51" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E51" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C52" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D52" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E52" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C53" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D53" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E53" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C54" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D54" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E54" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C55" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D55" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E55" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C56" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D56" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E56" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C57" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D57" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E57" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4830.303194944316</v>
+        <v>4891.045433367801</v>
       </c>
       <c r="C58" t="n">
-        <v>4742.156128635223</v>
+        <v>4728.998089847907</v>
       </c>
       <c r="D58" t="n">
-        <v>71.01230345948487</v>
+        <v>70.88964420372898</v>
       </c>
       <c r="E58" t="n">
-        <v>9.789179913035957</v>
+        <v>9.781776443005279</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E68" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E69" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E70" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E71" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E72" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E73" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E74" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E75" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>5118.175627243483</v>
+        <v>4843.481960163587</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>69.44131523796112</v>
+        <v>69.36327749199573</v>
       </c>
       <c r="E76" t="n">
-        <v>9.735316673345816</v>
+        <v>9.85319704496905</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>

--- a/Datos/datos_limpios.xlsx
+++ b/Datos/datos_limpios.xlsx
@@ -487,16 +487,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>3516.36043616241</v>
+        <v>3676.865262554838</v>
       </c>
       <c r="C2" t="n">
-        <v>4902.840910768027</v>
+        <v>4666.039666601274</v>
       </c>
       <c r="D2" t="n">
-        <v>71.44808551886588</v>
+        <v>70.19733509624392</v>
       </c>
       <c r="E2" t="n">
-        <v>9.727642840775827</v>
+        <v>9.752136423364917</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>3516.36043616241</v>
+        <v>3676.865262554838</v>
       </c>
       <c r="C3" t="n">
-        <v>4902.840910768027</v>
+        <v>4666.039666601274</v>
       </c>
       <c r="D3" t="n">
-        <v>71.44808551886588</v>
+        <v>70.19733509624392</v>
       </c>
       <c r="E3" t="n">
-        <v>9.727642840775827</v>
+        <v>9.752136423364917</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,16 +547,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>3516.36043616241</v>
+        <v>3676.865262554838</v>
       </c>
       <c r="C4" t="n">
-        <v>4902.840910768027</v>
+        <v>4666.039666601274</v>
       </c>
       <c r="D4" t="n">
-        <v>71.44808551886588</v>
+        <v>70.19733509624392</v>
       </c>
       <c r="E4" t="n">
-        <v>9.727642840775827</v>
+        <v>9.752136423364917</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>3516.36043616241</v>
+        <v>3676.865262554838</v>
       </c>
       <c r="C5" t="n">
-        <v>4902.840910768027</v>
+        <v>4666.039666601274</v>
       </c>
       <c r="D5" t="n">
-        <v>71.44808551886588</v>
+        <v>70.19733509624392</v>
       </c>
       <c r="E5" t="n">
-        <v>9.727642840775827</v>
+        <v>9.752136423364917</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,16 +607,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>3516.36043616241</v>
+        <v>3676.865262554838</v>
       </c>
       <c r="C6" t="n">
-        <v>4902.840910768027</v>
+        <v>4666.039666601274</v>
       </c>
       <c r="D6" t="n">
-        <v>71.44808551886588</v>
+        <v>70.19733509624392</v>
       </c>
       <c r="E6" t="n">
-        <v>9.727642840775827</v>
+        <v>9.752136423364917</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,16 +637,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>3516.36043616241</v>
+        <v>3676.865262554838</v>
       </c>
       <c r="C7" t="n">
-        <v>4902.840910768027</v>
+        <v>4666.039666601274</v>
       </c>
       <c r="D7" t="n">
-        <v>71.44808551886588</v>
+        <v>70.19733509624392</v>
       </c>
       <c r="E7" t="n">
-        <v>9.727642840775827</v>
+        <v>9.752136423364917</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -667,16 +667,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>3516.36043616241</v>
+        <v>3676.865262554838</v>
       </c>
       <c r="C8" t="n">
-        <v>4902.840910768027</v>
+        <v>4666.039666601274</v>
       </c>
       <c r="D8" t="n">
-        <v>71.44808551886588</v>
+        <v>70.19733509624392</v>
       </c>
       <c r="E8" t="n">
-        <v>9.727642840775827</v>
+        <v>9.752136423364917</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -697,16 +697,16 @@
         <v>42990</v>
       </c>
       <c r="B9" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C9" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D9" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E9" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         <v>42990</v>
       </c>
       <c r="B10" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C10" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D10" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E10" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D11" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E11" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D12" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E12" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -817,16 +817,16 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D13" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E13" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -847,16 +847,16 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D14" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E14" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -877,16 +877,16 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D15" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E15" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D16" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E16" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>3621.892609327232</v>
+        <v>3654.595801150437</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
       </c>
       <c r="D17" t="n">
-        <v>70.27870729422801</v>
+        <v>71.07379294197638</v>
       </c>
       <c r="E17" t="n">
-        <v>9.946555961326172</v>
+        <v>9.871353916937641</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -967,16 +967,16 @@
         <v>43046</v>
       </c>
       <c r="B18" t="n">
-        <v>3718.510363769929</v>
+        <v>3742.810210770944</v>
       </c>
       <c r="C18" t="n">
-        <v>4769.50929233265</v>
+        <v>4626.294939117702</v>
       </c>
       <c r="D18" t="n">
-        <v>68.76884096623806</v>
+        <v>70.10491206686868</v>
       </c>
       <c r="E18" t="n">
-        <v>9.863473717894079</v>
+        <v>9.792817104094819</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -997,16 +997,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>3718.510363769929</v>
+        <v>3742.810210770944</v>
       </c>
       <c r="C19" t="n">
-        <v>4769.50929233265</v>
+        <v>4626.294939117702</v>
       </c>
       <c r="D19" t="n">
-        <v>68.76884096623806</v>
+        <v>70.10491206686868</v>
       </c>
       <c r="E19" t="n">
-        <v>9.863473717894079</v>
+        <v>9.792817104094819</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>3718.510363769929</v>
+        <v>3742.810210770944</v>
       </c>
       <c r="C20" t="n">
-        <v>4769.50929233265</v>
+        <v>4626.294939117702</v>
       </c>
       <c r="D20" t="n">
-        <v>68.76884096623806</v>
+        <v>70.10491206686868</v>
       </c>
       <c r="E20" t="n">
-        <v>9.863473717894079</v>
+        <v>9.792817104094819</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>3718.510363769929</v>
+        <v>3742.810210770944</v>
       </c>
       <c r="C21" t="n">
-        <v>4769.50929233265</v>
+        <v>4626.294939117702</v>
       </c>
       <c r="D21" t="n">
-        <v>68.76884096623806</v>
+        <v>70.10491206686868</v>
       </c>
       <c r="E21" t="n">
-        <v>9.863473717894079</v>
+        <v>9.792817104094819</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,16 +1087,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>3718.510363769929</v>
+        <v>3742.810210770944</v>
       </c>
       <c r="C22" t="n">
-        <v>4769.50929233265</v>
+        <v>4626.294939117702</v>
       </c>
       <c r="D22" t="n">
-        <v>68.76884096623806</v>
+        <v>70.10491206686868</v>
       </c>
       <c r="E22" t="n">
-        <v>9.863473717894079</v>
+        <v>9.792817104094819</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>3718.510363769929</v>
+        <v>3742.810210770944</v>
       </c>
       <c r="C23" t="n">
-        <v>4769.50929233265</v>
+        <v>4626.294939117702</v>
       </c>
       <c r="D23" t="n">
-        <v>68.76884096623806</v>
+        <v>70.10491206686868</v>
       </c>
       <c r="E23" t="n">
-        <v>9.863473717894079</v>
+        <v>9.792817104094819</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1147,16 +1147,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>3718.510363769929</v>
+        <v>3742.810210770944</v>
       </c>
       <c r="C24" t="n">
-        <v>4769.50929233265</v>
+        <v>4626.294939117702</v>
       </c>
       <c r="D24" t="n">
-        <v>68.76884096623806</v>
+        <v>70.10491206686868</v>
       </c>
       <c r="E24" t="n">
-        <v>9.863473717894079</v>
+        <v>9.792817104094819</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1177,16 +1177,16 @@
         <v>43046</v>
       </c>
       <c r="B25" t="n">
-        <v>3718.510363769929</v>
+        <v>3742.810210770944</v>
       </c>
       <c r="C25" t="n">
-        <v>4769.50929233265</v>
+        <v>4626.294939117702</v>
       </c>
       <c r="D25" t="n">
-        <v>68.76884096623806</v>
+        <v>70.10491206686868</v>
       </c>
       <c r="E25" t="n">
-        <v>9.863473717894079</v>
+        <v>9.792817104094819</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>43346</v>
       </c>
       <c r="B34" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C34" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E34" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1477,16 +1477,16 @@
         <v>43346</v>
       </c>
       <c r="B35" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C35" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D35" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E35" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         <v>43346</v>
       </c>
       <c r="B36" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C36" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D36" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E36" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1537,16 +1537,16 @@
         <v>43346</v>
       </c>
       <c r="B37" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C37" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D37" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E37" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1567,16 +1567,16 @@
         <v>43346</v>
       </c>
       <c r="B38" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C38" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D38" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E38" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         <v>43346</v>
       </c>
       <c r="B39" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C39" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D39" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E39" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         <v>43346</v>
       </c>
       <c r="B40" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C40" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D40" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E40" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1657,16 +1657,16 @@
         <v>43346</v>
       </c>
       <c r="B41" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C41" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D41" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E41" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1687,16 +1687,16 @@
         <v>43346</v>
       </c>
       <c r="B42" t="n">
-        <v>3553.229010704612</v>
+        <v>3880.699792504397</v>
       </c>
       <c r="C42" t="n">
         <v>3725.418212890625</v>
       </c>
       <c r="D42" t="n">
-        <v>71.10255630545119</v>
+        <v>69.41048207991383</v>
       </c>
       <c r="E42" t="n">
-        <v>9.93960379393118</v>
+        <v>9.76383018062986</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1717,16 +1717,16 @@
         <v>43375</v>
       </c>
       <c r="B43" t="n">
-        <v>3751.144937986573</v>
+        <v>3683.716006412733</v>
       </c>
       <c r="C43" t="n">
-        <v>4695.158470316313</v>
+        <v>4464.219983382098</v>
       </c>
       <c r="D43" t="n">
-        <v>70.25869401957921</v>
+        <v>70.74218950765005</v>
       </c>
       <c r="E43" t="n">
-        <v>9.833740910704231</v>
+        <v>9.899705434525373</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1747,16 +1747,16 @@
         <v>43375</v>
       </c>
       <c r="B44" t="n">
-        <v>3751.144937986573</v>
+        <v>3683.716006412733</v>
       </c>
       <c r="C44" t="n">
-        <v>4695.158470316313</v>
+        <v>4464.219983382098</v>
       </c>
       <c r="D44" t="n">
-        <v>70.25869401957921</v>
+        <v>70.74218950765005</v>
       </c>
       <c r="E44" t="n">
-        <v>9.833740910704231</v>
+        <v>9.899705434525373</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1777,16 +1777,16 @@
         <v>43375</v>
       </c>
       <c r="B45" t="n">
-        <v>3751.144937986573</v>
+        <v>3683.716006412733</v>
       </c>
       <c r="C45" t="n">
-        <v>4695.158470316313</v>
+        <v>4464.219983382098</v>
       </c>
       <c r="D45" t="n">
-        <v>70.25869401957921</v>
+        <v>70.74218950765005</v>
       </c>
       <c r="E45" t="n">
-        <v>9.833740910704231</v>
+        <v>9.899705434525373</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>43375</v>
       </c>
       <c r="B46" t="n">
-        <v>3751.144937986573</v>
+        <v>3683.716006412733</v>
       </c>
       <c r="C46" t="n">
-        <v>4695.158470316313</v>
+        <v>4464.219983382098</v>
       </c>
       <c r="D46" t="n">
-        <v>70.25869401957921</v>
+        <v>70.74218950765005</v>
       </c>
       <c r="E46" t="n">
-        <v>9.833740910704231</v>
+        <v>9.899705434525373</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1837,16 +1837,16 @@
         <v>43375</v>
       </c>
       <c r="B47" t="n">
-        <v>3751.144937986573</v>
+        <v>3683.716006412733</v>
       </c>
       <c r="C47" t="n">
-        <v>4695.158470316313</v>
+        <v>4464.219983382098</v>
       </c>
       <c r="D47" t="n">
-        <v>70.25869401957921</v>
+        <v>70.74218950765005</v>
       </c>
       <c r="E47" t="n">
-        <v>9.833740910704231</v>
+        <v>9.899705434525373</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
         <v>43375</v>
       </c>
       <c r="B48" t="n">
-        <v>3751.144937986573</v>
+        <v>3683.716006412733</v>
       </c>
       <c r="C48" t="n">
-        <v>4695.158470316313</v>
+        <v>4464.219983382098</v>
       </c>
       <c r="D48" t="n">
-        <v>70.25869401957921</v>
+        <v>70.74218950765005</v>
       </c>
       <c r="E48" t="n">
-        <v>9.833740910704231</v>
+        <v>9.899705434525373</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1897,16 +1897,16 @@
         <v>43375</v>
       </c>
       <c r="B49" t="n">
-        <v>3751.144937986573</v>
+        <v>3683.716006412733</v>
       </c>
       <c r="C49" t="n">
-        <v>4695.158470316313</v>
+        <v>4464.219983382098</v>
       </c>
       <c r="D49" t="n">
-        <v>70.25869401957921</v>
+        <v>70.74218950765005</v>
       </c>
       <c r="E49" t="n">
-        <v>9.833740910704231</v>
+        <v>9.899705434525373</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
         <v>43375</v>
       </c>
       <c r="B50" t="n">
-        <v>3751.144937986573</v>
+        <v>3683.716006412733</v>
       </c>
       <c r="C50" t="n">
-        <v>4695.158470316313</v>
+        <v>4464.219983382098</v>
       </c>
       <c r="D50" t="n">
-        <v>70.25869401957921</v>
+        <v>70.74218950765005</v>
       </c>
       <c r="E50" t="n">
-        <v>9.833740910704231</v>
+        <v>9.899705434525373</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2197,16 +2197,16 @@
         <v>43542</v>
       </c>
       <c r="B59" t="n">
-        <v>3700.664525136198</v>
+        <v>3489.478731985608</v>
       </c>
       <c r="C59" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D59" t="n">
-        <v>70.01631906797988</v>
+        <v>70.67665726692896</v>
       </c>
       <c r="E59" t="n">
-        <v>9.800133186911019</v>
+        <v>9.81030893920857</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2227,16 +2227,16 @@
         <v>43542</v>
       </c>
       <c r="B60" t="n">
-        <v>3700.664525136198</v>
+        <v>3489.478731985608</v>
       </c>
       <c r="C60" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D60" t="n">
-        <v>70.01631906797988</v>
+        <v>70.67665726692896</v>
       </c>
       <c r="E60" t="n">
-        <v>9.800133186911019</v>
+        <v>9.81030893920857</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2257,16 +2257,16 @@
         <v>43542</v>
       </c>
       <c r="B61" t="n">
-        <v>3700.664525136198</v>
+        <v>3489.478731985608</v>
       </c>
       <c r="C61" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D61" t="n">
-        <v>70.01631906797988</v>
+        <v>70.67665726692896</v>
       </c>
       <c r="E61" t="n">
-        <v>9.800133186911019</v>
+        <v>9.81030893920857</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2287,16 +2287,16 @@
         <v>43542</v>
       </c>
       <c r="B62" t="n">
-        <v>3700.664525136198</v>
+        <v>3489.478731985608</v>
       </c>
       <c r="C62" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D62" t="n">
-        <v>70.01631906797988</v>
+        <v>70.67665726692896</v>
       </c>
       <c r="E62" t="n">
-        <v>9.800133186911019</v>
+        <v>9.81030893920857</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2317,16 +2317,16 @@
         <v>43542</v>
       </c>
       <c r="B63" t="n">
-        <v>3700.664525136198</v>
+        <v>3489.478731985608</v>
       </c>
       <c r="C63" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D63" t="n">
-        <v>70.01631906797988</v>
+        <v>70.67665726692896</v>
       </c>
       <c r="E63" t="n">
-        <v>9.800133186911019</v>
+        <v>9.81030893920857</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         <v>43542</v>
       </c>
       <c r="B64" t="n">
-        <v>3700.664525136198</v>
+        <v>3489.478731985608</v>
       </c>
       <c r="C64" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D64" t="n">
-        <v>70.01631906797988</v>
+        <v>70.67665726692896</v>
       </c>
       <c r="E64" t="n">
-        <v>9.800133186911019</v>
+        <v>9.81030893920857</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2377,16 +2377,16 @@
         <v>43542</v>
       </c>
       <c r="B65" t="n">
-        <v>3700.664525136198</v>
+        <v>3489.478731985608</v>
       </c>
       <c r="C65" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D65" t="n">
-        <v>70.01631906797988</v>
+        <v>70.67665726692896</v>
       </c>
       <c r="E65" t="n">
-        <v>9.800133186911019</v>
+        <v>9.81030893920857</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2407,16 +2407,16 @@
         <v>43542</v>
       </c>
       <c r="B66" t="n">
-        <v>3700.664525136198</v>
+        <v>3489.478731985608</v>
       </c>
       <c r="C66" t="n">
         <v>4640.51953125</v>
       </c>
       <c r="D66" t="n">
-        <v>70.01631906797988</v>
+        <v>70.67665726692896</v>
       </c>
       <c r="E66" t="n">
-        <v>9.800133186911019</v>
+        <v>9.81030893920857</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2437,16 +2437,16 @@
         <v>43746</v>
       </c>
       <c r="B67" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C67" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D67" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E67" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2467,16 +2467,16 @@
         <v>43746</v>
       </c>
       <c r="B68" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C68" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D68" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E68" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
         <v>43746</v>
       </c>
       <c r="B69" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C69" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D69" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E69" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2527,16 +2527,16 @@
         <v>43746</v>
       </c>
       <c r="B70" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C70" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D70" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E70" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2557,16 +2557,16 @@
         <v>43746</v>
       </c>
       <c r="B71" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C71" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D71" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E71" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2587,16 +2587,16 @@
         <v>43746</v>
       </c>
       <c r="B72" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C72" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D72" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E72" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2617,16 +2617,16 @@
         <v>43746</v>
       </c>
       <c r="B73" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C73" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D73" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E73" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2647,16 +2647,16 @@
         <v>43746</v>
       </c>
       <c r="B74" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C74" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D74" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E74" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2677,16 +2677,16 @@
         <v>43746</v>
       </c>
       <c r="B75" t="n">
-        <v>3751.411192755974</v>
+        <v>3546.248938836442</v>
       </c>
       <c r="C75" t="n">
-        <v>4678.703020580467</v>
+        <v>4720.651108459665</v>
       </c>
       <c r="D75" t="n">
-        <v>69.96124784059494</v>
+        <v>70.71589882919614</v>
       </c>
       <c r="E75" t="n">
-        <v>9.725093366987078</v>
+        <v>9.788193637100841</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2707,16 +2707,16 @@
         <v>43997</v>
       </c>
       <c r="B76" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C76" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D76" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E76" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2737,16 +2737,16 @@
         <v>43997</v>
       </c>
       <c r="B77" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C77" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D77" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E77" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2767,16 +2767,16 @@
         <v>43997</v>
       </c>
       <c r="B78" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C78" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D78" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E78" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2797,16 +2797,16 @@
         <v>43997</v>
       </c>
       <c r="B79" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C79" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D79" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E79" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2827,16 +2827,16 @@
         <v>43997</v>
       </c>
       <c r="B80" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C80" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D80" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E80" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         <v>43997</v>
       </c>
       <c r="B81" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C81" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D81" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E81" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2887,16 +2887,16 @@
         <v>43997</v>
       </c>
       <c r="B82" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C82" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D82" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E82" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2917,16 +2917,16 @@
         <v>43997</v>
       </c>
       <c r="B83" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C83" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D83" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E83" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2947,16 +2947,16 @@
         <v>43997</v>
       </c>
       <c r="B84" t="n">
-        <v>3707.980432367612</v>
+        <v>3833.383444373081</v>
       </c>
       <c r="C84" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D84" t="n">
-        <v>69.63172119455726</v>
+        <v>70.34334057157483</v>
       </c>
       <c r="E84" t="n">
-        <v>9.865037452328568</v>
+        <v>9.649192680454306</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44694</v>
       </c>
       <c r="B85" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C85" t="n">
         <v>4640.2587890625</v>
@@ -3007,7 +3007,7 @@
         <v>44694</v>
       </c>
       <c r="B86" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C86" t="n">
         <v>4640.2587890625</v>
@@ -3037,7 +3037,7 @@
         <v>44694</v>
       </c>
       <c r="B87" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C87" t="n">
         <v>4640.2587890625</v>
@@ -3067,7 +3067,7 @@
         <v>44694</v>
       </c>
       <c r="B88" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C88" t="n">
         <v>4640.2587890625</v>
@@ -3097,7 +3097,7 @@
         <v>44694</v>
       </c>
       <c r="B89" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C89" t="n">
         <v>4640.2587890625</v>
@@ -3127,7 +3127,7 @@
         <v>44694</v>
       </c>
       <c r="B90" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C90" t="n">
         <v>4640.2587890625</v>
@@ -3157,7 +3157,7 @@
         <v>44694</v>
       </c>
       <c r="B91" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C91" t="n">
         <v>4640.2587890625</v>
@@ -3187,7 +3187,7 @@
         <v>44694</v>
       </c>
       <c r="B92" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C92" t="n">
         <v>4640.2587890625</v>
@@ -3217,7 +3217,7 @@
         <v>44694</v>
       </c>
       <c r="B93" t="n">
-        <v>3609.54521584521</v>
+        <v>3632.835433035782</v>
       </c>
       <c r="C93" t="n">
         <v>4640.2587890625</v>
@@ -4057,13 +4057,13 @@
         <v>45545</v>
       </c>
       <c r="B121" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C121" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D121" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E121" t="n">
         <v>2.136464834213257</v>
@@ -4087,13 +4087,13 @@
         <v>45545</v>
       </c>
       <c r="B122" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C122" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D122" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E122" t="n">
         <v>2.136464834213257</v>
@@ -4117,13 +4117,13 @@
         <v>45545</v>
       </c>
       <c r="B123" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C123" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D123" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E123" t="n">
         <v>2.136464834213257</v>
@@ -4147,13 +4147,13 @@
         <v>45545</v>
       </c>
       <c r="B124" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C124" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D124" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E124" t="n">
         <v>2.136464834213257</v>
@@ -4177,13 +4177,13 @@
         <v>45545</v>
       </c>
       <c r="B125" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C125" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D125" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E125" t="n">
         <v>2.136464834213257</v>
@@ -4207,13 +4207,13 @@
         <v>45545</v>
       </c>
       <c r="B126" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C126" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D126" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E126" t="n">
         <v>2.136464834213257</v>
@@ -4237,13 +4237,13 @@
         <v>45545</v>
       </c>
       <c r="B127" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C127" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D127" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E127" t="n">
         <v>2.136464834213257</v>
@@ -4267,13 +4267,13 @@
         <v>45545</v>
       </c>
       <c r="B128" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C128" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D128" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E128" t="n">
         <v>2.136464834213257</v>
@@ -4297,13 +4297,13 @@
         <v>45545</v>
       </c>
       <c r="B129" t="n">
-        <v>3625.417669617485</v>
+        <v>3672.380547425415</v>
       </c>
       <c r="C129" t="n">
         <v>4999.068359375</v>
       </c>
       <c r="D129" t="n">
-        <v>69.70646619592725</v>
+        <v>69.86603242506145</v>
       </c>
       <c r="E129" t="n">
         <v>2.136464834213257</v>
@@ -4658,16 +4658,16 @@
         <v>42832</v>
       </c>
       <c r="B2" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C2" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D2" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E2" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4688,16 +4688,16 @@
         <v>42832</v>
       </c>
       <c r="B3" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C3" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D3" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E3" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4718,16 +4718,16 @@
         <v>42832</v>
       </c>
       <c r="B4" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C4" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D4" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E4" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4748,16 +4748,16 @@
         <v>42832</v>
       </c>
       <c r="B5" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C5" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D5" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E5" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4778,16 +4778,16 @@
         <v>42832</v>
       </c>
       <c r="B6" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C6" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D6" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E6" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4808,16 +4808,16 @@
         <v>42832</v>
       </c>
       <c r="B7" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C7" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D7" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E7" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4838,16 +4838,16 @@
         <v>42832</v>
       </c>
       <c r="B8" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C8" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D8" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E8" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4868,16 +4868,16 @@
         <v>42832</v>
       </c>
       <c r="B9" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C9" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D9" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E9" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>42832</v>
       </c>
       <c r="B10" t="n">
-        <v>4774.598532217488</v>
+        <v>4635.756600519285</v>
       </c>
       <c r="C10" t="n">
-        <v>4665.456275874493</v>
+        <v>4705.647363986313</v>
       </c>
       <c r="D10" t="n">
-        <v>69.48877769547093</v>
+        <v>70.28836663882403</v>
       </c>
       <c r="E10" t="n">
-        <v>9.824618154099889</v>
+        <v>9.831935210057015</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>42990</v>
       </c>
       <c r="B11" t="n">
-        <v>4651.516920699172</v>
+        <v>4772.24503224081</v>
       </c>
       <c r="C11" t="n">
         <v>4905.392578125</v>
@@ -4958,7 +4958,7 @@
         <v>42990</v>
       </c>
       <c r="B12" t="n">
-        <v>4651.516920699172</v>
+        <v>4772.24503224081</v>
       </c>
       <c r="C12" t="n">
         <v>4905.392578125</v>
@@ -4988,7 +4988,7 @@
         <v>42990</v>
       </c>
       <c r="B13" t="n">
-        <v>4651.516920699172</v>
+        <v>4772.24503224081</v>
       </c>
       <c r="C13" t="n">
         <v>4905.392578125</v>
@@ -5018,7 +5018,7 @@
         <v>42990</v>
       </c>
       <c r="B14" t="n">
-        <v>4651.516920699172</v>
+        <v>4772.24503224081</v>
       </c>
       <c r="C14" t="n">
         <v>4905.392578125</v>
@@ -5048,7 +5048,7 @@
         <v>42990</v>
       </c>
       <c r="B15" t="n">
-        <v>4651.516920699172</v>
+        <v>4772.24503224081</v>
       </c>
       <c r="C15" t="n">
         <v>4905.392578125</v>
@@ -5078,7 +5078,7 @@
         <v>42990</v>
       </c>
       <c r="B16" t="n">
-        <v>4651.516920699172</v>
+        <v>4772.24503224081</v>
       </c>
       <c r="C16" t="n">
         <v>4905.392578125</v>
@@ -5108,7 +5108,7 @@
         <v>42990</v>
       </c>
       <c r="B17" t="n">
-        <v>4651.516920699172</v>
+        <v>4772.24503224081</v>
       </c>
       <c r="C17" t="n">
         <v>4905.392578125</v>
@@ -5138,7 +5138,7 @@
         <v>42990</v>
       </c>
       <c r="B18" t="n">
-        <v>4651.516920699172</v>
+        <v>4772.24503224081</v>
       </c>
       <c r="C18" t="n">
         <v>4905.392578125</v>
@@ -5168,16 +5168,16 @@
         <v>43046</v>
       </c>
       <c r="B19" t="n">
-        <v>4794.563249767533</v>
+        <v>4914.581211104917</v>
       </c>
       <c r="C19" t="n">
-        <v>4679.778552242967</v>
+        <v>4831.612199060306</v>
       </c>
       <c r="D19" t="n">
-        <v>70.2985995760194</v>
+        <v>70.2114772408331</v>
       </c>
       <c r="E19" t="n">
-        <v>9.782922551107184</v>
+        <v>9.819780971744201</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5198,16 +5198,16 @@
         <v>43046</v>
       </c>
       <c r="B20" t="n">
-        <v>4794.563249767533</v>
+        <v>4914.581211104917</v>
       </c>
       <c r="C20" t="n">
-        <v>4679.778552242967</v>
+        <v>4831.612199060306</v>
       </c>
       <c r="D20" t="n">
-        <v>70.2985995760194</v>
+        <v>70.2114772408331</v>
       </c>
       <c r="E20" t="n">
-        <v>9.782922551107184</v>
+        <v>9.819780971744201</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         <v>43046</v>
       </c>
       <c r="B21" t="n">
-        <v>4794.563249767533</v>
+        <v>4914.581211104917</v>
       </c>
       <c r="C21" t="n">
-        <v>4679.778552242967</v>
+        <v>4831.612199060306</v>
       </c>
       <c r="D21" t="n">
-        <v>70.2985995760194</v>
+        <v>70.2114772408331</v>
       </c>
       <c r="E21" t="n">
-        <v>9.782922551107184</v>
+        <v>9.819780971744201</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5258,16 +5258,16 @@
         <v>43046</v>
       </c>
       <c r="B22" t="n">
-        <v>4794.563249767533</v>
+        <v>4914.581211104917</v>
       </c>
       <c r="C22" t="n">
-        <v>4679.778552242967</v>
+        <v>4831.612199060306</v>
       </c>
       <c r="D22" t="n">
-        <v>70.2985995760194</v>
+        <v>70.2114772408331</v>
       </c>
       <c r="E22" t="n">
-        <v>9.782922551107184</v>
+        <v>9.819780971744201</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5288,16 +5288,16 @@
         <v>43046</v>
       </c>
       <c r="B23" t="n">
-        <v>4794.563249767533</v>
+        <v>4914.581211104917</v>
       </c>
       <c r="C23" t="n">
-        <v>4679.778552242967</v>
+        <v>4831.612199060306</v>
       </c>
       <c r="D23" t="n">
-        <v>70.2985995760194</v>
+        <v>70.2114772408331</v>
       </c>
       <c r="E23" t="n">
-        <v>9.782922551107184</v>
+        <v>9.819780971744201</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5318,16 +5318,16 @@
         <v>43046</v>
       </c>
       <c r="B24" t="n">
-        <v>4794.563249767533</v>
+        <v>4914.581211104917</v>
       </c>
       <c r="C24" t="n">
-        <v>4679.778552242967</v>
+        <v>4831.612199060306</v>
       </c>
       <c r="D24" t="n">
-        <v>70.2985995760194</v>
+        <v>70.2114772408331</v>
       </c>
       <c r="E24" t="n">
-        <v>9.782922551107184</v>
+        <v>9.819780971744201</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43164</v>
       </c>
       <c r="B25" t="n">
-        <v>4705.650356917566</v>
+        <v>4716.740255037557</v>
       </c>
       <c r="C25" t="n">
         <v>4020.732177734375</v>
@@ -5357,7 +5357,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E25" t="n">
-        <v>9.83367853697232</v>
+        <v>9.737092225592056</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43164</v>
       </c>
       <c r="B26" t="n">
-        <v>4705.650356917566</v>
+        <v>4716.740255037557</v>
       </c>
       <c r="C26" t="n">
         <v>4020.732177734375</v>
@@ -5387,7 +5387,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E26" t="n">
-        <v>9.83367853697232</v>
+        <v>9.737092225592056</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43164</v>
       </c>
       <c r="B27" t="n">
-        <v>4705.650356917566</v>
+        <v>4716.740255037557</v>
       </c>
       <c r="C27" t="n">
         <v>4020.732177734375</v>
@@ -5417,7 +5417,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E27" t="n">
-        <v>9.83367853697232</v>
+        <v>9.737092225592056</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43164</v>
       </c>
       <c r="B28" t="n">
-        <v>4705.650356917566</v>
+        <v>4716.740255037557</v>
       </c>
       <c r="C28" t="n">
         <v>4020.732177734375</v>
@@ -5447,7 +5447,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E28" t="n">
-        <v>9.83367853697232</v>
+        <v>9.737092225592056</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>43164</v>
       </c>
       <c r="B29" t="n">
-        <v>4705.650356917566</v>
+        <v>4716.740255037557</v>
       </c>
       <c r="C29" t="n">
         <v>4020.732177734375</v>
@@ -5477,7 +5477,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E29" t="n">
-        <v>9.83367853697232</v>
+        <v>9.737092225592056</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>43164</v>
       </c>
       <c r="B30" t="n">
-        <v>4705.650356917566</v>
+        <v>4716.740255037557</v>
       </c>
       <c r="C30" t="n">
         <v>4020.732177734375</v>
@@ -5507,7 +5507,7 @@
         <v>78.40909576416016</v>
       </c>
       <c r="E30" t="n">
-        <v>9.83367853697232</v>
+        <v>9.737092225592056</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -6338,16 +6338,16 @@
         <v>43375</v>
       </c>
       <c r="B58" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C58" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D58" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E58" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         <v>43375</v>
       </c>
       <c r="B59" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C59" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D59" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E59" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6398,16 +6398,16 @@
         <v>43375</v>
       </c>
       <c r="B60" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C60" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D60" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E60" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6428,16 +6428,16 @@
         <v>43375</v>
       </c>
       <c r="B61" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C61" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D61" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E61" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6458,16 +6458,16 @@
         <v>43375</v>
       </c>
       <c r="B62" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C62" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D62" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E62" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6488,16 +6488,16 @@
         <v>43375</v>
       </c>
       <c r="B63" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C63" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D63" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E63" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6518,16 +6518,16 @@
         <v>43375</v>
       </c>
       <c r="B64" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C64" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D64" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E64" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
         <v>43375</v>
       </c>
       <c r="B65" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C65" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D65" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E65" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6578,16 +6578,16 @@
         <v>43375</v>
       </c>
       <c r="B66" t="n">
-        <v>4793.307542640707</v>
+        <v>4711.779331339125</v>
       </c>
       <c r="C66" t="n">
-        <v>4664.515338046651</v>
+        <v>4789.518951025123</v>
       </c>
       <c r="D66" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E66" t="n">
-        <v>9.774691113910988</v>
+        <v>9.682782632801008</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
         <v>43746</v>
       </c>
       <c r="B85" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C85" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D85" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E85" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -7178,16 +7178,16 @@
         <v>43746</v>
       </c>
       <c r="B86" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C86" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D86" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E86" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -7208,16 +7208,16 @@
         <v>43746</v>
       </c>
       <c r="B87" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C87" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D87" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E87" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -7238,16 +7238,16 @@
         <v>43746</v>
       </c>
       <c r="B88" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C88" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D88" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E88" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -7268,16 +7268,16 @@
         <v>43746</v>
       </c>
       <c r="B89" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C89" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D89" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E89" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -7298,16 +7298,16 @@
         <v>43746</v>
       </c>
       <c r="B90" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C90" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D90" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E90" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -7328,16 +7328,16 @@
         <v>43746</v>
       </c>
       <c r="B91" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C91" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D91" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E91" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -7358,16 +7358,16 @@
         <v>43746</v>
       </c>
       <c r="B92" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C92" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D92" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E92" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7388,16 +7388,16 @@
         <v>43746</v>
       </c>
       <c r="B93" t="n">
-        <v>4472.257267164909</v>
+        <v>4708.636029828897</v>
       </c>
       <c r="C93" t="n">
-        <v>4791.998766473377</v>
+        <v>4788.023091843413</v>
       </c>
       <c r="D93" t="n">
-        <v>70.75901111759943</v>
+        <v>70.51395666326007</v>
       </c>
       <c r="E93" t="n">
-        <v>9.872660649235813</v>
+        <v>9.863530080800734</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -7688,16 +7688,16 @@
         <v>43997</v>
       </c>
       <c r="B103" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C103" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D103" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E103" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -7718,16 +7718,16 @@
         <v>43997</v>
       </c>
       <c r="B104" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C104" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D104" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E104" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7748,16 +7748,16 @@
         <v>43997</v>
       </c>
       <c r="B105" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C105" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D105" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E105" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -7778,16 +7778,16 @@
         <v>43997</v>
       </c>
       <c r="B106" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C106" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D106" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E106" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -7808,16 +7808,16 @@
         <v>43997</v>
       </c>
       <c r="B107" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C107" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D107" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E107" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -7838,16 +7838,16 @@
         <v>43997</v>
       </c>
       <c r="B108" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C108" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D108" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E108" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -7868,16 +7868,16 @@
         <v>43997</v>
       </c>
       <c r="B109" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C109" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D109" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E109" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -7898,16 +7898,16 @@
         <v>43997</v>
       </c>
       <c r="B110" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C110" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E110" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -7928,16 +7928,16 @@
         <v>43997</v>
       </c>
       <c r="B111" t="n">
-        <v>4750.854498499695</v>
+        <v>4767.636376932085</v>
       </c>
       <c r="C111" t="n">
         <v>3512.2373046875</v>
       </c>
       <c r="D111" t="n">
-        <v>70.04668043889767</v>
+        <v>69.39102877764185</v>
       </c>
       <c r="E111" t="n">
-        <v>9.820116326327298</v>
+        <v>9.800606226556377</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -7958,16 +7958,16 @@
         <v>44060</v>
       </c>
       <c r="B112" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C112" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D112" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E112" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         <v>44060</v>
       </c>
       <c r="B113" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C113" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D113" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E113" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -8018,16 +8018,16 @@
         <v>44060</v>
       </c>
       <c r="B114" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C114" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D114" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E114" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8048,16 +8048,16 @@
         <v>44060</v>
       </c>
       <c r="B115" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C115" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D115" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E115" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8078,16 +8078,16 @@
         <v>44060</v>
       </c>
       <c r="B116" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C116" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D116" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E116" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -8108,16 +8108,16 @@
         <v>44060</v>
       </c>
       <c r="B117" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C117" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D117" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E117" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -8138,16 +8138,16 @@
         <v>44060</v>
       </c>
       <c r="B118" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C118" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D118" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E118" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8168,16 +8168,16 @@
         <v>44060</v>
       </c>
       <c r="B119" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C119" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D119" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E119" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8198,16 +8198,16 @@
         <v>44060</v>
       </c>
       <c r="B120" t="n">
-        <v>4869.359837285735</v>
+        <v>4682.578025467204</v>
       </c>
       <c r="C120" t="n">
         <v>5050.56396484375</v>
       </c>
       <c r="D120" t="n">
-        <v>69.55506361221785</v>
+        <v>69.34172552625442</v>
       </c>
       <c r="E120" t="n">
-        <v>9.854927765561476</v>
+        <v>9.733928019080327</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D130" t="n">
-        <v>70.04293291272398</v>
+        <v>70.9266732818554</v>
       </c>
       <c r="E130" t="n">
         <v>9.986600875854492</v>
@@ -8534,7 +8534,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D131" t="n">
-        <v>70.04293291272398</v>
+        <v>70.9266732818554</v>
       </c>
       <c r="E131" t="n">
         <v>9.986600875854492</v>
@@ -8564,7 +8564,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>70.04293291272398</v>
+        <v>70.9266732818554</v>
       </c>
       <c r="E132" t="n">
         <v>9.986600875854492</v>
@@ -8594,7 +8594,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D133" t="n">
-        <v>70.04293291272398</v>
+        <v>70.9266732818554</v>
       </c>
       <c r="E133" t="n">
         <v>9.986600875854492</v>
@@ -8624,7 +8624,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D134" t="n">
-        <v>70.04293291272398</v>
+        <v>70.9266732818554</v>
       </c>
       <c r="E134" t="n">
         <v>9.986600875854492</v>
@@ -8654,7 +8654,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D135" t="n">
-        <v>70.04293291272398</v>
+        <v>70.9266732818554</v>
       </c>
       <c r="E135" t="n">
         <v>9.986600875854492</v>
@@ -8684,7 +8684,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D136" t="n">
-        <v>70.04293291272398</v>
+        <v>70.9266732818554</v>
       </c>
       <c r="E136" t="n">
         <v>9.986600875854492</v>
@@ -8714,7 +8714,7 @@
         <v>4640.2587890625</v>
       </c>
       <c r="D137" t="n">
-        <v>70.04293291272398</v>
+        <v>70.9266732818554</v>
       </c>
       <c r="E137" t="n">
         <v>9.986600875854492</v>
@@ -8738,16 +8738,16 @@
         <v>44724</v>
       </c>
       <c r="B138" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C138" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D138" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E138" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8768,16 +8768,16 @@
         <v>44724</v>
       </c>
       <c r="B139" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C139" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D139" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E139" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8798,16 +8798,16 @@
         <v>44724</v>
       </c>
       <c r="B140" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C140" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D140" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E140" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8828,16 +8828,16 @@
         <v>44724</v>
       </c>
       <c r="B141" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C141" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D141" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E141" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8858,16 +8858,16 @@
         <v>44724</v>
       </c>
       <c r="B142" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C142" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D142" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E142" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8888,16 +8888,16 @@
         <v>44724</v>
       </c>
       <c r="B143" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C143" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D143" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E143" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8918,16 +8918,16 @@
         <v>44724</v>
       </c>
       <c r="B144" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C144" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D144" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E144" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8948,16 +8948,16 @@
         <v>44724</v>
       </c>
       <c r="B145" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C145" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D145" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E145" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8978,16 +8978,16 @@
         <v>44724</v>
       </c>
       <c r="B146" t="n">
-        <v>4632.300712552484</v>
+        <v>4586.059370828086</v>
       </c>
       <c r="C146" t="n">
         <v>4558.5849609375</v>
       </c>
       <c r="D146" t="n">
-        <v>69.99074137260241</v>
+        <v>70.6779233292997</v>
       </c>
       <c r="E146" t="n">
-        <v>9.791560967845477</v>
+        <v>9.75294595425186</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D147" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E147" t="n">
         <v>9.559074401855469</v>
@@ -9044,7 +9044,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D148" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E148" t="n">
         <v>9.559074401855469</v>
@@ -9074,7 +9074,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D149" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E149" t="n">
         <v>9.559074401855469</v>
@@ -9104,7 +9104,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D150" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E150" t="n">
         <v>9.559074401855469</v>
@@ -9134,7 +9134,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D151" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E151" t="n">
         <v>9.559074401855469</v>
@@ -9164,7 +9164,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D152" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E152" t="n">
         <v>9.559074401855469</v>
@@ -9194,7 +9194,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D153" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E153" t="n">
         <v>9.559074401855469</v>
@@ -9224,7 +9224,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D154" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E154" t="n">
         <v>9.559074401855469</v>
@@ -9254,7 +9254,7 @@
         <v>4273.78564453125</v>
       </c>
       <c r="D155" t="n">
-        <v>68.90283564558754</v>
+        <v>70.79026165205713</v>
       </c>
       <c r="E155" t="n">
         <v>9.559074401855469</v>
@@ -9278,16 +9278,16 @@
         <v>44936</v>
       </c>
       <c r="B156" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C156" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D156" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E156" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -9308,16 +9308,16 @@
         <v>44936</v>
       </c>
       <c r="B157" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C157" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D157" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E157" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -9338,16 +9338,16 @@
         <v>44936</v>
       </c>
       <c r="B158" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C158" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D158" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E158" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         <v>44936</v>
       </c>
       <c r="B159" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C159" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D159" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E159" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -9398,16 +9398,16 @@
         <v>44936</v>
       </c>
       <c r="B160" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C160" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D160" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E160" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9428,16 +9428,16 @@
         <v>44936</v>
       </c>
       <c r="B161" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C161" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D161" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E161" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -9458,16 +9458,16 @@
         <v>44936</v>
       </c>
       <c r="B162" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C162" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D162" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E162" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -9488,16 +9488,16 @@
         <v>44936</v>
       </c>
       <c r="B163" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C163" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D163" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E163" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -9518,16 +9518,16 @@
         <v>44936</v>
       </c>
       <c r="B164" t="n">
-        <v>4904.428613512907</v>
+        <v>4857.443656501465</v>
       </c>
       <c r="C164" t="n">
-        <v>4683.539554370221</v>
+        <v>4585.821151282504</v>
       </c>
       <c r="D164" t="n">
-        <v>70.27607050446346</v>
+        <v>70.53041514876607</v>
       </c>
       <c r="E164" t="n">
-        <v>9.764240959150968</v>
+        <v>9.719274106775954</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -9548,16 +9548,16 @@
         <v>44968</v>
       </c>
       <c r="B165" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C165" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D165" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E165" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -9578,16 +9578,16 @@
         <v>44968</v>
       </c>
       <c r="B166" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C166" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D166" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E166" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9608,16 +9608,16 @@
         <v>44968</v>
       </c>
       <c r="B167" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C167" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D167" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E167" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -9638,16 +9638,16 @@
         <v>44968</v>
       </c>
       <c r="B168" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C168" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D168" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E168" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9668,16 +9668,16 @@
         <v>44968</v>
       </c>
       <c r="B169" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C169" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D169" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E169" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -9698,16 +9698,16 @@
         <v>44968</v>
       </c>
       <c r="B170" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C170" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D170" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E170" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9728,16 +9728,16 @@
         <v>44968</v>
       </c>
       <c r="B171" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C171" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D171" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E171" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9758,16 +9758,16 @@
         <v>44968</v>
       </c>
       <c r="B172" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C172" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D172" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E172" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9788,16 +9788,16 @@
         <v>44968</v>
       </c>
       <c r="B173" t="n">
-        <v>4642.542665716994</v>
+        <v>4636.553289111301</v>
       </c>
       <c r="C173" t="n">
         <v>4490.07763671875</v>
       </c>
       <c r="D173" t="n">
-        <v>69.83965730368364</v>
+        <v>69.93430137070597</v>
       </c>
       <c r="E173" t="n">
-        <v>9.887863451862858</v>
+        <v>9.73427269054565</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D174" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E174" t="n">
         <v>9.856712341308594</v>
@@ -9854,7 +9854,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D175" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E175" t="n">
         <v>9.856712341308594</v>
@@ -9884,7 +9884,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D176" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E176" t="n">
         <v>9.856712341308594</v>
@@ -9914,7 +9914,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D177" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E177" t="n">
         <v>9.856712341308594</v>
@@ -9944,7 +9944,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D178" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E178" t="n">
         <v>9.856712341308594</v>
@@ -9974,7 +9974,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D179" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E179" t="n">
         <v>9.856712341308594</v>
@@ -10004,7 +10004,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D180" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E180" t="n">
         <v>9.856712341308594</v>
@@ -10034,7 +10034,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D181" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E181" t="n">
         <v>9.856712341308594</v>
@@ -10064,7 +10064,7 @@
         <v>4524.18408203125</v>
       </c>
       <c r="D182" t="n">
-        <v>69.66555911507099</v>
+        <v>70.10985479983206</v>
       </c>
       <c r="E182" t="n">
         <v>9.856712341308594</v>
@@ -10094,7 +10094,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D183" t="n">
-        <v>70.2476867529807</v>
+        <v>71.1845172716862</v>
       </c>
       <c r="E183" t="n">
         <v>9.807211875915527</v>
@@ -10124,7 +10124,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D184" t="n">
-        <v>70.2476867529807</v>
+        <v>71.1845172716862</v>
       </c>
       <c r="E184" t="n">
         <v>9.807211875915527</v>
@@ -10154,7 +10154,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D185" t="n">
-        <v>70.2476867529807</v>
+        <v>71.1845172716862</v>
       </c>
       <c r="E185" t="n">
         <v>9.807211875915527</v>
@@ -10184,7 +10184,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D186" t="n">
-        <v>70.2476867529807</v>
+        <v>71.1845172716862</v>
       </c>
       <c r="E186" t="n">
         <v>9.807211875915527</v>
@@ -10214,7 +10214,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D187" t="n">
-        <v>70.2476867529807</v>
+        <v>71.1845172716862</v>
       </c>
       <c r="E187" t="n">
         <v>9.807211875915527</v>
@@ -10244,7 +10244,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D188" t="n">
-        <v>70.2476867529807</v>
+        <v>71.1845172716862</v>
       </c>
       <c r="E188" t="n">
         <v>9.807211875915527</v>
@@ -10274,7 +10274,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D189" t="n">
-        <v>70.2476867529807</v>
+        <v>71.1845172716862</v>
       </c>
       <c r="E189" t="n">
         <v>9.807211875915527</v>
@@ -10304,7 +10304,7 @@
         <v>4233.4638671875</v>
       </c>
       <c r="D190" t="n">
-        <v>70.2476867529807</v>
+        <v>71.1845172716862</v>
       </c>
       <c r="E190" t="n">
         <v>9.807211875915527</v>
@@ -10334,7 +10334,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D191" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E191" t="n">
         <v>10.12541675567627</v>
@@ -10364,7 +10364,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D192" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E192" t="n">
         <v>10.12541675567627</v>
@@ -10394,7 +10394,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D193" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E193" t="n">
         <v>10.12541675567627</v>
@@ -10424,7 +10424,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D194" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E194" t="n">
         <v>10.12541675567627</v>
@@ -10454,7 +10454,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D195" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E195" t="n">
         <v>10.12541675567627</v>
@@ -10484,7 +10484,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D196" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E196" t="n">
         <v>10.12541675567627</v>
@@ -10514,7 +10514,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D197" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E197" t="n">
         <v>10.12541675567627</v>
@@ -10544,7 +10544,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D198" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E198" t="n">
         <v>10.12541675567627</v>
@@ -10574,7 +10574,7 @@
         <v>4457.779296875</v>
       </c>
       <c r="D199" t="n">
-        <v>69.7749991425482</v>
+        <v>70.01628289738105</v>
       </c>
       <c r="E199" t="n">
         <v>10.12541675567627</v>
@@ -10604,7 +10604,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D200" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E200" t="n">
         <v>9.955642700195312</v>
@@ -10634,7 +10634,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D201" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E201" t="n">
         <v>9.955642700195312</v>
@@ -10664,7 +10664,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D202" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E202" t="n">
         <v>9.955642700195312</v>
@@ -10694,7 +10694,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D203" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E203" t="n">
         <v>9.955642700195312</v>
@@ -10724,7 +10724,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D204" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E204" t="n">
         <v>9.955642700195312</v>
@@ -10754,7 +10754,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D205" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E205" t="n">
         <v>9.955642700195312</v>
@@ -10784,7 +10784,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D206" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E206" t="n">
         <v>9.955642700195312</v>
@@ -10814,7 +10814,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D207" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E207" t="n">
         <v>9.955642700195312</v>
@@ -10844,7 +10844,7 @@
         <v>4820.380859375</v>
       </c>
       <c r="D208" t="n">
-        <v>69.7157048545816</v>
+        <v>69.71636247932253</v>
       </c>
       <c r="E208" t="n">
         <v>9.955642700195312</v>
@@ -10874,7 +10874,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D209" t="n">
-        <v>70.26499943722968</v>
+        <v>70.79611054089898</v>
       </c>
       <c r="E209" t="n">
         <v>9.67060375213623</v>
@@ -10904,7 +10904,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D210" t="n">
-        <v>70.26499943722968</v>
+        <v>70.79611054089898</v>
       </c>
       <c r="E210" t="n">
         <v>9.67060375213623</v>
@@ -10934,7 +10934,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D211" t="n">
-        <v>70.26499943722968</v>
+        <v>70.79611054089898</v>
       </c>
       <c r="E211" t="n">
         <v>9.67060375213623</v>
@@ -10964,7 +10964,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D212" t="n">
-        <v>70.26499943722968</v>
+        <v>70.79611054089898</v>
       </c>
       <c r="E212" t="n">
         <v>9.67060375213623</v>
@@ -10994,7 +10994,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D213" t="n">
-        <v>70.26499943722968</v>
+        <v>70.79611054089898</v>
       </c>
       <c r="E213" t="n">
         <v>9.67060375213623</v>
@@ -11024,7 +11024,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D214" t="n">
-        <v>70.26499943722968</v>
+        <v>70.79611054089898</v>
       </c>
       <c r="E214" t="n">
         <v>9.67060375213623</v>
@@ -11054,7 +11054,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D215" t="n">
-        <v>70.26499943722968</v>
+        <v>70.79611054089898</v>
       </c>
       <c r="E215" t="n">
         <v>9.67060375213623</v>
@@ -11084,7 +11084,7 @@
         <v>4687.98193359375</v>
       </c>
       <c r="D216" t="n">
-        <v>70.26499943722968</v>
+        <v>70.79611054089898</v>
       </c>
       <c r="E216" t="n">
         <v>9.67060375213623</v>
@@ -11108,16 +11108,16 @@
         <v>45275</v>
       </c>
       <c r="B217" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C217" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D217" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E217" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11138,16 +11138,16 @@
         <v>45275</v>
       </c>
       <c r="B218" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C218" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D218" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E218" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11168,16 +11168,16 @@
         <v>45275</v>
       </c>
       <c r="B219" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C219" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D219" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E219" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11198,16 +11198,16 @@
         <v>45275</v>
       </c>
       <c r="B220" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C220" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D220" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E220" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11228,16 +11228,16 @@
         <v>45275</v>
       </c>
       <c r="B221" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C221" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D221" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E221" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11258,16 +11258,16 @@
         <v>45275</v>
       </c>
       <c r="B222" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C222" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D222" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E222" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11288,16 +11288,16 @@
         <v>45275</v>
       </c>
       <c r="B223" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C223" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D223" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E223" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11318,16 +11318,16 @@
         <v>45275</v>
       </c>
       <c r="B224" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C224" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D224" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E224" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -11348,16 +11348,16 @@
         <v>45275</v>
       </c>
       <c r="B225" t="n">
-        <v>4580.807076062625</v>
+        <v>4732.136902024713</v>
       </c>
       <c r="C225" t="n">
         <v>4306.69775390625</v>
       </c>
       <c r="D225" t="n">
-        <v>70.07244214660574</v>
+        <v>70.69824011303432</v>
       </c>
       <c r="E225" t="n">
-        <v>9.795421789358508</v>
+        <v>9.70378602414573</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11378,16 +11378,16 @@
         <v>45327</v>
       </c>
       <c r="B226" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C226" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D226" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E226" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11408,16 +11408,16 @@
         <v>45327</v>
       </c>
       <c r="B227" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C227" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D227" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E227" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -11438,16 +11438,16 @@
         <v>45327</v>
       </c>
       <c r="B228" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C228" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D228" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E228" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -11468,16 +11468,16 @@
         <v>45327</v>
       </c>
       <c r="B229" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C229" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D229" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E229" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -11498,16 +11498,16 @@
         <v>45327</v>
       </c>
       <c r="B230" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C230" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D230" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E230" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11528,16 +11528,16 @@
         <v>45327</v>
       </c>
       <c r="B231" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C231" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D231" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E231" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -11558,16 +11558,16 @@
         <v>45327</v>
       </c>
       <c r="B232" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C232" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D232" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E232" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11588,16 +11588,16 @@
         <v>45327</v>
       </c>
       <c r="B233" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C233" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D233" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E233" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -11618,16 +11618,16 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>4699.600539419762</v>
+        <v>4624.163932106498</v>
       </c>
       <c r="C234" t="n">
         <v>4377.82958984375</v>
       </c>
       <c r="D234" t="n">
-        <v>69.6086468881431</v>
+        <v>70.79948456762642</v>
       </c>
       <c r="E234" t="n">
-        <v>9.736795681521276</v>
+        <v>9.765815778826903</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11648,16 +11648,16 @@
         <v>45399</v>
       </c>
       <c r="B235" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C235" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D235" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E235" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11678,16 +11678,16 @@
         <v>45399</v>
       </c>
       <c r="B236" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C236" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D236" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E236" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11708,16 +11708,16 @@
         <v>45399</v>
       </c>
       <c r="B237" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C237" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D237" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E237" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11738,16 +11738,16 @@
         <v>45399</v>
       </c>
       <c r="B238" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C238" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D238" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E238" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -11768,16 +11768,16 @@
         <v>45399</v>
       </c>
       <c r="B239" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C239" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D239" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E239" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -11798,16 +11798,16 @@
         <v>45399</v>
       </c>
       <c r="B240" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C240" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D240" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E240" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11828,16 +11828,16 @@
         <v>45399</v>
       </c>
       <c r="B241" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C241" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D241" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E241" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11858,16 +11858,16 @@
         <v>45399</v>
       </c>
       <c r="B242" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C242" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D242" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E242" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -11888,16 +11888,16 @@
         <v>45399</v>
       </c>
       <c r="B243" t="n">
-        <v>4736.889026005258</v>
+        <v>4833.492256314296</v>
       </c>
       <c r="C243" t="n">
         <v>4770.9609375</v>
       </c>
       <c r="D243" t="n">
-        <v>69.61272222354901</v>
+        <v>69.84295822801062</v>
       </c>
       <c r="E243" t="n">
-        <v>9.783919676652179</v>
+        <v>9.88591961545615</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D244" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E244" t="n">
         <v>9.503054618835449</v>
@@ -11954,7 +11954,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D245" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E245" t="n">
         <v>9.503054618835449</v>
@@ -11984,7 +11984,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D246" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E246" t="n">
         <v>9.503054618835449</v>
@@ -12014,7 +12014,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D247" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E247" t="n">
         <v>9.503054618835449</v>
@@ -12044,7 +12044,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D248" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E248" t="n">
         <v>9.503054618835449</v>
@@ -12074,7 +12074,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D249" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E249" t="n">
         <v>9.503054618835449</v>
@@ -12104,7 +12104,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D250" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E250" t="n">
         <v>9.503054618835449</v>
@@ -12134,7 +12134,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D251" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E251" t="n">
         <v>9.503054618835449</v>
@@ -12164,7 +12164,7 @@
         <v>4758.40673828125</v>
       </c>
       <c r="D252" t="n">
-        <v>69.7874612482083</v>
+        <v>69.75256025527348</v>
       </c>
       <c r="E252" t="n">
         <v>9.503054618835449</v>
@@ -12194,7 +12194,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D253" t="n">
-        <v>70.2433905095572</v>
+        <v>71.25731950158952</v>
       </c>
       <c r="E253" t="n">
         <v>8.938540458679199</v>
@@ -12224,7 +12224,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D254" t="n">
-        <v>70.2433905095572</v>
+        <v>71.25731950158952</v>
       </c>
       <c r="E254" t="n">
         <v>8.938540458679199</v>
@@ -12254,7 +12254,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D255" t="n">
-        <v>70.2433905095572</v>
+        <v>71.25731950158952</v>
       </c>
       <c r="E255" t="n">
         <v>8.938540458679199</v>
@@ -12284,7 +12284,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D256" t="n">
-        <v>70.2433905095572</v>
+        <v>71.25731950158952</v>
       </c>
       <c r="E256" t="n">
         <v>8.938540458679199</v>
@@ -12314,7 +12314,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D257" t="n">
-        <v>70.2433905095572</v>
+        <v>71.25731950158952</v>
       </c>
       <c r="E257" t="n">
         <v>8.938540458679199</v>
@@ -12344,7 +12344,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D258" t="n">
-        <v>70.2433905095572</v>
+        <v>71.25731950158952</v>
       </c>
       <c r="E258" t="n">
         <v>8.938540458679199</v>
@@ -12374,7 +12374,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D259" t="n">
-        <v>70.2433905095572</v>
+        <v>71.25731950158952</v>
       </c>
       <c r="E259" t="n">
         <v>8.938540458679199</v>
@@ -12404,7 +12404,7 @@
         <v>3492.21484375</v>
       </c>
       <c r="D260" t="n">
-        <v>70.2433905095572</v>
+        <v>71.25731950158952</v>
       </c>
       <c r="E260" t="n">
         <v>8.938540458679199</v>
@@ -12434,7 +12434,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D261" t="n">
-        <v>70.64392222892366</v>
+        <v>70.45504289728677</v>
       </c>
       <c r="E261" t="n">
         <v>10.21137523651123</v>
@@ -12464,7 +12464,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D262" t="n">
-        <v>70.64392222892366</v>
+        <v>70.45504289728677</v>
       </c>
       <c r="E262" t="n">
         <v>10.21137523651123</v>
@@ -12494,7 +12494,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D263" t="n">
-        <v>70.64392222892366</v>
+        <v>70.45504289728677</v>
       </c>
       <c r="E263" t="n">
         <v>10.21137523651123</v>
@@ -12524,7 +12524,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D264" t="n">
-        <v>70.64392222892366</v>
+        <v>70.45504289728677</v>
       </c>
       <c r="E264" t="n">
         <v>10.21137523651123</v>
@@ -12554,7 +12554,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D265" t="n">
-        <v>70.64392222892366</v>
+        <v>70.45504289728677</v>
       </c>
       <c r="E265" t="n">
         <v>10.21137523651123</v>
@@ -12584,7 +12584,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D266" t="n">
-        <v>70.64392222892366</v>
+        <v>70.45504289728677</v>
       </c>
       <c r="E266" t="n">
         <v>10.21137523651123</v>
@@ -12614,7 +12614,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D267" t="n">
-        <v>70.64392222892366</v>
+        <v>70.45504289728677</v>
       </c>
       <c r="E267" t="n">
         <v>10.21137523651123</v>
@@ -12644,7 +12644,7 @@
         <v>3832.966552734375</v>
       </c>
       <c r="D268" t="n">
-        <v>70.64392222892366</v>
+        <v>70.45504289728677</v>
       </c>
       <c r="E268" t="n">
         <v>10.21137523651123</v>
@@ -12674,7 +12674,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D269" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E269" t="n">
         <v>10.28845024108887</v>
@@ -12704,7 +12704,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D270" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E270" t="n">
         <v>10.28845024108887</v>
@@ -12734,7 +12734,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D271" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E271" t="n">
         <v>10.28845024108887</v>
@@ -12764,7 +12764,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D272" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E272" t="n">
         <v>10.28845024108887</v>
@@ -12794,7 +12794,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D273" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E273" t="n">
         <v>10.28845024108887</v>
@@ -12824,7 +12824,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D274" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E274" t="n">
         <v>10.28845024108887</v>
@@ -12854,7 +12854,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D275" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E275" t="n">
         <v>10.28845024108887</v>
@@ -12884,7 +12884,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D276" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E276" t="n">
         <v>10.28845024108887</v>
@@ -12914,7 +12914,7 @@
         <v>4648.63232421875</v>
       </c>
       <c r="D277" t="n">
-        <v>70.45830994084278</v>
+        <v>69.49247727547464</v>
       </c>
       <c r="E277" t="n">
         <v>10.28845024108887</v>
@@ -12938,16 +12938,16 @@
         <v>45527</v>
       </c>
       <c r="B278" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C278" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D278" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E278" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -12968,16 +12968,16 @@
         <v>45527</v>
       </c>
       <c r="B279" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C279" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D279" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E279" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -12998,16 +12998,16 @@
         <v>45527</v>
       </c>
       <c r="B280" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C280" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D280" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E280" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -13028,16 +13028,16 @@
         <v>45527</v>
       </c>
       <c r="B281" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C281" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D281" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E281" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -13058,16 +13058,16 @@
         <v>45527</v>
       </c>
       <c r="B282" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C282" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D282" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E282" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -13088,16 +13088,16 @@
         <v>45527</v>
       </c>
       <c r="B283" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C283" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D283" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E283" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -13118,16 +13118,16 @@
         <v>45527</v>
       </c>
       <c r="B284" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C284" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D284" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E284" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -13148,16 +13148,16 @@
         <v>45527</v>
       </c>
       <c r="B285" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C285" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D285" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E285" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -13178,16 +13178,16 @@
         <v>45527</v>
       </c>
       <c r="B286" t="n">
-        <v>4714.465353950697</v>
+        <v>4755.552471271581</v>
       </c>
       <c r="C286" t="n">
         <v>4919.75146484375</v>
       </c>
       <c r="D286" t="n">
-        <v>70.22142241113536</v>
+        <v>69.91070813946861</v>
       </c>
       <c r="E286" t="n">
-        <v>9.781071463456298</v>
+        <v>9.821578199906419</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D287" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E287" t="n">
         <v>10.15124893188477</v>
@@ -13244,7 +13244,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D288" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E288" t="n">
         <v>10.15124893188477</v>
@@ -13274,7 +13274,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D289" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E289" t="n">
         <v>10.15124893188477</v>
@@ -13304,7 +13304,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D290" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E290" t="n">
         <v>10.15124893188477</v>
@@ -13334,7 +13334,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D291" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E291" t="n">
         <v>10.15124893188477</v>
@@ -13364,7 +13364,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D292" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E292" t="n">
         <v>10.15124893188477</v>
@@ -13394,7 +13394,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D293" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E293" t="n">
         <v>10.15124893188477</v>
@@ -13424,7 +13424,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D294" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E294" t="n">
         <v>10.15124893188477</v>
@@ -13454,7 +13454,7 @@
         <v>3629.62939453125</v>
       </c>
       <c r="D295" t="n">
-        <v>69.56968994571652</v>
+        <v>70.64895810947895</v>
       </c>
       <c r="E295" t="n">
         <v>10.15124893188477</v>
@@ -13749,16 +13749,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4598.622418974557</v>
+        <v>4767.7271281505</v>
       </c>
       <c r="C9" t="n">
-        <v>4718.533119938051</v>
+        <v>4730.069356267317</v>
       </c>
       <c r="D9" t="n">
-        <v>71.01763620065762</v>
+        <v>71.65126947835775</v>
       </c>
       <c r="E9" t="n">
-        <v>9.83313928840932</v>
+        <v>9.809370183332547</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -13779,16 +13779,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4598.622418974557</v>
+        <v>4767.7271281505</v>
       </c>
       <c r="C10" t="n">
-        <v>4718.533119938051</v>
+        <v>4730.069356267317</v>
       </c>
       <c r="D10" t="n">
-        <v>71.01763620065762</v>
+        <v>71.65126947835775</v>
       </c>
       <c r="E10" t="n">
-        <v>9.83313928840932</v>
+        <v>9.809370183332547</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -13809,16 +13809,16 @@
         <v>43375</v>
       </c>
       <c r="B11" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C11" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D11" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E11" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -13839,16 +13839,16 @@
         <v>43375</v>
       </c>
       <c r="B12" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C12" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E12" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -13869,16 +13869,16 @@
         <v>43375</v>
       </c>
       <c r="B13" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C13" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D13" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E13" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -13899,16 +13899,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C14" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D14" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E14" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -13929,16 +13929,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C15" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D15" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E15" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -13959,16 +13959,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C16" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D16" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E16" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -13989,16 +13989,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C17" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D17" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E17" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -14019,16 +14019,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C18" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D18" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E18" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -14049,16 +14049,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4842.839396315591</v>
+        <v>4757.811153317293</v>
       </c>
       <c r="C19" t="n">
-        <v>4643.408396046882</v>
+        <v>4734.828118304839</v>
       </c>
       <c r="D19" t="n">
-        <v>70.02009444719549</v>
+        <v>72.76307642629781</v>
       </c>
       <c r="E19" t="n">
-        <v>9.902329488638873</v>
+        <v>9.826178270527759</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>43472</v>
       </c>
       <c r="B20" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C20" t="n">
         <v>4584.5439453125</v>
@@ -14088,7 +14088,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E20" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43472</v>
       </c>
       <c r="B21" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C21" t="n">
         <v>4584.5439453125</v>
@@ -14118,7 +14118,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E21" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43472</v>
       </c>
       <c r="B22" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C22" t="n">
         <v>4584.5439453125</v>
@@ -14148,7 +14148,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E22" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>43472</v>
       </c>
       <c r="B23" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C23" t="n">
         <v>4584.5439453125</v>
@@ -14178,7 +14178,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E23" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43472</v>
       </c>
       <c r="B24" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C24" t="n">
         <v>4584.5439453125</v>
@@ -14208,7 +14208,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E24" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43472</v>
       </c>
       <c r="B25" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C25" t="n">
         <v>4584.5439453125</v>
@@ -14238,7 +14238,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E25" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>43472</v>
       </c>
       <c r="B26" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C26" t="n">
         <v>4584.5439453125</v>
@@ -14268,7 +14268,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E26" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43472</v>
       </c>
       <c r="B27" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C27" t="n">
         <v>4584.5439453125</v>
@@ -14298,7 +14298,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E27" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>43472</v>
       </c>
       <c r="B28" t="n">
-        <v>4682.754607523107</v>
+        <v>4621.453666969152</v>
       </c>
       <c r="C28" t="n">
         <v>4584.5439453125</v>
@@ -14328,7 +14328,7 @@
         <v>12.53796482086182</v>
       </c>
       <c r="E28" t="n">
-        <v>9.79583342552556</v>
+        <v>9.805915080808395</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -14619,16 +14619,16 @@
         <v>43746</v>
       </c>
       <c r="B38" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C38" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D38" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E38" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -14649,16 +14649,16 @@
         <v>43746</v>
       </c>
       <c r="B39" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C39" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D39" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E39" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -14679,16 +14679,16 @@
         <v>43746</v>
       </c>
       <c r="B40" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C40" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D40" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E40" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -14709,16 +14709,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C41" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D41" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E41" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -14739,16 +14739,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C42" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D42" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E42" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -14769,16 +14769,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C43" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D43" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E43" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -14799,16 +14799,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C44" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D44" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E44" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -14829,16 +14829,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C45" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D45" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E45" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -14859,16 +14859,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4861.403020217749</v>
+        <v>4622.338905670676</v>
       </c>
       <c r="C46" t="n">
-        <v>4688.251660157403</v>
+        <v>4779.47684925991</v>
       </c>
       <c r="D46" t="n">
         <v>78.40909576416016</v>
       </c>
       <c r="E46" t="n">
-        <v>9.816085263055461</v>
+        <v>9.848237190990162</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -14889,16 +14889,16 @@
         <v>45504</v>
       </c>
       <c r="B47" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C47" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D47" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E47" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -14919,16 +14919,16 @@
         <v>45504</v>
       </c>
       <c r="B48" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C48" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D48" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E48" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -14949,16 +14949,16 @@
         <v>45504</v>
       </c>
       <c r="B49" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C49" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D49" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E49" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -14979,16 +14979,16 @@
         <v>45504</v>
       </c>
       <c r="B50" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C50" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D50" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E50" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -15009,16 +15009,16 @@
         <v>45504</v>
       </c>
       <c r="B51" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C51" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D51" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E51" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -15039,16 +15039,16 @@
         <v>45504</v>
       </c>
       <c r="B52" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C52" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E52" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -15069,16 +15069,16 @@
         <v>45504</v>
       </c>
       <c r="B53" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C53" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E53" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -15099,16 +15099,16 @@
         <v>45504</v>
       </c>
       <c r="B54" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C54" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D54" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E54" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -15129,16 +15129,16 @@
         <v>45504</v>
       </c>
       <c r="B55" t="n">
-        <v>4720.769296724382</v>
+        <v>4620.635737867318</v>
       </c>
       <c r="C55" t="n">
         <v>4648.63232421875</v>
       </c>
       <c r="D55" t="n">
-        <v>68.63339736906126</v>
+        <v>69.41185926456474</v>
       </c>
       <c r="E55" t="n">
-        <v>9.685518311340479</v>
+        <v>9.86603011662576</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -16450,16 +16450,16 @@
         <v>43046</v>
       </c>
       <c r="B8" t="n">
-        <v>4843.913464884692</v>
+        <v>4962.031366776407</v>
       </c>
       <c r="C8" t="n">
-        <v>4740.121462849019</v>
+        <v>4661.674838669917</v>
       </c>
       <c r="D8" t="n">
-        <v>70.4456693740504</v>
+        <v>69.69023882961339</v>
       </c>
       <c r="E8" t="n">
-        <v>9.767172548756891</v>
+        <v>9.780275126165346</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -16480,16 +16480,16 @@
         <v>43046</v>
       </c>
       <c r="B9" t="n">
-        <v>4843.913464884692</v>
+        <v>4962.031366776407</v>
       </c>
       <c r="C9" t="n">
-        <v>4740.121462849019</v>
+        <v>4661.674838669917</v>
       </c>
       <c r="D9" t="n">
-        <v>70.4456693740504</v>
+        <v>69.69023882961339</v>
       </c>
       <c r="E9" t="n">
-        <v>9.767172548756891</v>
+        <v>9.780275126165346</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -16510,16 +16510,16 @@
         <v>43046</v>
       </c>
       <c r="B10" t="n">
-        <v>4843.913464884692</v>
+        <v>4962.031366776407</v>
       </c>
       <c r="C10" t="n">
-        <v>4740.121462849019</v>
+        <v>4661.674838669917</v>
       </c>
       <c r="D10" t="n">
-        <v>70.4456693740504</v>
+        <v>69.69023882961339</v>
       </c>
       <c r="E10" t="n">
-        <v>9.767172548756891</v>
+        <v>9.780275126165346</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -16540,16 +16540,16 @@
         <v>43046</v>
       </c>
       <c r="B11" t="n">
-        <v>4843.913464884692</v>
+        <v>4962.031366776407</v>
       </c>
       <c r="C11" t="n">
-        <v>4740.121462849019</v>
+        <v>4661.674838669917</v>
       </c>
       <c r="D11" t="n">
-        <v>70.4456693740504</v>
+        <v>69.69023882961339</v>
       </c>
       <c r="E11" t="n">
-        <v>9.767172548756891</v>
+        <v>9.780275126165346</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -16570,16 +16570,16 @@
         <v>43046</v>
       </c>
       <c r="B12" t="n">
-        <v>4843.913464884692</v>
+        <v>4962.031366776407</v>
       </c>
       <c r="C12" t="n">
-        <v>4740.121462849019</v>
+        <v>4661.674838669917</v>
       </c>
       <c r="D12" t="n">
-        <v>70.4456693740504</v>
+        <v>69.69023882961339</v>
       </c>
       <c r="E12" t="n">
-        <v>9.767172548756891</v>
+        <v>9.780275126165346</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -16600,16 +16600,16 @@
         <v>43046</v>
       </c>
       <c r="B13" t="n">
-        <v>4843.913464884692</v>
+        <v>4962.031366776407</v>
       </c>
       <c r="C13" t="n">
-        <v>4740.121462849019</v>
+        <v>4661.674838669917</v>
       </c>
       <c r="D13" t="n">
-        <v>70.4456693740504</v>
+        <v>69.69023882961339</v>
       </c>
       <c r="E13" t="n">
-        <v>9.767172548756891</v>
+        <v>9.780275126165346</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -16630,16 +16630,16 @@
         <v>43375</v>
       </c>
       <c r="B14" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C14" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D14" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E14" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -16660,16 +16660,16 @@
         <v>43375</v>
       </c>
       <c r="B15" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C15" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D15" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E15" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -16690,16 +16690,16 @@
         <v>43375</v>
       </c>
       <c r="B16" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C16" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D16" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E16" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -16720,16 +16720,16 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C17" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D17" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E17" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16750,16 +16750,16 @@
         <v>43375</v>
       </c>
       <c r="B18" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C18" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D18" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E18" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -16780,16 +16780,16 @@
         <v>43375</v>
       </c>
       <c r="B19" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C19" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D19" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E19" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -16810,16 +16810,16 @@
         <v>43375</v>
       </c>
       <c r="B20" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C20" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D20" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E20" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -16840,16 +16840,16 @@
         <v>43375</v>
       </c>
       <c r="B21" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C21" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D21" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E21" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -16870,16 +16870,16 @@
         <v>43375</v>
       </c>
       <c r="B22" t="n">
-        <v>4933.383786811864</v>
+        <v>4723.680339965613</v>
       </c>
       <c r="C22" t="n">
-        <v>4740.505920492059</v>
+        <v>4786.344605296084</v>
       </c>
       <c r="D22" t="n">
-        <v>70.0758440445024</v>
+        <v>70.11072331365911</v>
       </c>
       <c r="E22" t="n">
-        <v>9.865204258988671</v>
+        <v>9.764653293203143</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -17440,16 +17440,16 @@
         <v>43746</v>
       </c>
       <c r="B41" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C41" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D41" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E41" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -17470,16 +17470,16 @@
         <v>43746</v>
       </c>
       <c r="B42" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C42" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D42" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E42" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -17500,16 +17500,16 @@
         <v>43746</v>
       </c>
       <c r="B43" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C43" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D43" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E43" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>43746</v>
       </c>
       <c r="B44" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C44" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D44" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E44" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -17560,16 +17560,16 @@
         <v>43746</v>
       </c>
       <c r="B45" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C45" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D45" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E45" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -17590,16 +17590,16 @@
         <v>43746</v>
       </c>
       <c r="B46" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C46" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D46" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E46" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -17620,16 +17620,16 @@
         <v>43746</v>
       </c>
       <c r="B47" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C47" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D47" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E47" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -17650,16 +17650,16 @@
         <v>43746</v>
       </c>
       <c r="B48" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C48" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D48" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E48" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -17680,16 +17680,16 @@
         <v>43746</v>
       </c>
       <c r="B49" t="n">
-        <v>4789.286718229779</v>
+        <v>4648.172369872287</v>
       </c>
       <c r="C49" t="n">
-        <v>4747.396231100574</v>
+        <v>4650.258279168793</v>
       </c>
       <c r="D49" t="n">
-        <v>70.42735103027854</v>
+        <v>69.10863950811343</v>
       </c>
       <c r="E49" t="n">
-        <v>9.704253742594773</v>
+        <v>9.79007145556</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -17710,16 +17710,16 @@
         <v>44936</v>
       </c>
       <c r="B50" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C50" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D50" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E50" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -17740,16 +17740,16 @@
         <v>44936</v>
       </c>
       <c r="B51" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C51" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D51" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E51" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -17770,16 +17770,16 @@
         <v>44936</v>
       </c>
       <c r="B52" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C52" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D52" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E52" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -17800,16 +17800,16 @@
         <v>44936</v>
       </c>
       <c r="B53" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C53" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D53" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E53" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -17830,16 +17830,16 @@
         <v>44936</v>
       </c>
       <c r="B54" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C54" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D54" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E54" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -17860,16 +17860,16 @@
         <v>44936</v>
       </c>
       <c r="B55" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C55" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D55" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E55" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -17890,16 +17890,16 @@
         <v>44936</v>
       </c>
       <c r="B56" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C56" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D56" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E56" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -17920,16 +17920,16 @@
         <v>44936</v>
       </c>
       <c r="B57" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C57" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D57" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E57" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -17950,16 +17950,16 @@
         <v>44936</v>
       </c>
       <c r="B58" t="n">
-        <v>4830.303194944316</v>
+        <v>4811.680471791084</v>
       </c>
       <c r="C58" t="n">
-        <v>4742.156128635223</v>
+        <v>4572.079628222548</v>
       </c>
       <c r="D58" t="n">
-        <v>71.01230345948487</v>
+        <v>69.94224542467356</v>
       </c>
       <c r="E58" t="n">
-        <v>9.789179913035957</v>
+        <v>9.824996805789084</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -18250,16 +18250,16 @@
         <v>45591</v>
       </c>
       <c r="B68" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C68" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D68" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E68" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -18280,16 +18280,16 @@
         <v>45591</v>
       </c>
       <c r="B69" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C69" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D69" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E69" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -18310,16 +18310,16 @@
         <v>45591</v>
       </c>
       <c r="B70" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C70" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D70" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E70" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -18340,16 +18340,16 @@
         <v>45591</v>
       </c>
       <c r="B71" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C71" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D71" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E71" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -18370,16 +18370,16 @@
         <v>45591</v>
       </c>
       <c r="B72" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C72" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D72" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E72" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -18400,16 +18400,16 @@
         <v>45591</v>
       </c>
       <c r="B73" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C73" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D73" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E73" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -18430,16 +18430,16 @@
         <v>45591</v>
       </c>
       <c r="B74" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C74" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D74" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E74" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -18460,16 +18460,16 @@
         <v>45591</v>
       </c>
       <c r="B75" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C75" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D75" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E75" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18490,16 +18490,16 @@
         <v>45591</v>
       </c>
       <c r="B76" t="n">
-        <v>5118.175627243483</v>
+        <v>4887.56605798524</v>
       </c>
       <c r="C76" t="n">
         <v>4395.8359375</v>
       </c>
       <c r="D76" t="n">
-        <v>69.44131523796112</v>
+        <v>70.30668870993378</v>
       </c>
       <c r="E76" t="n">
-        <v>9.735316673345816</v>
+        <v>9.718455103901695</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
